--- a/record.xlsx
+++ b/record.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\ifaereobrasil\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC6738A-19B8-4582-9535-97DE98728CED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BA048E3-3A96-4B87-A211-2718A6F707C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76F5BC51-B760-4FA3-AB8F-88287AF0B4D0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="566">
   <si>
     <t>Pais</t>
   </si>
@@ -1536,9 +1536,6 @@
     <t>LIMC</t>
   </si>
   <si>
-    <t xml:space="preserve"> Itália</t>
-  </si>
-  <si>
     <t>LQMO</t>
   </si>
   <si>
@@ -1570,6 +1567,162 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d4/Flag_of_Cyprus.svg/22px-Flag_of_Cyprus.svg.png</t>
+  </si>
+  <si>
+    <t>OPKC</t>
+  </si>
+  <si>
+    <t>Paquistão</t>
+  </si>
+  <si>
+    <t>VCBI</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>VIJP</t>
+  </si>
+  <si>
+    <t>VOMD</t>
+  </si>
+  <si>
+    <t>VOPB</t>
+  </si>
+  <si>
+    <t>VRMG</t>
+  </si>
+  <si>
+    <t>Maldivas</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/1/11/Flag_of_Sri_Lanka.svg/22px-Flag_of_Sri_Lanka.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/3/32/Flag_of_Pakistan.svg/22px-Flag_of_Pakistan.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0f/Flag_of_Maldives.svg/22px-Flag_of_Maldives.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/2/2c/Flag_of_Bahrain.svg/22px-Flag_of_Bahrain.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/8/8c/Flag_of_Myanmar.svg/22px-Flag_of_Myanmar.svg.png</t>
+  </si>
+  <si>
+    <t>VOCI</t>
+  </si>
+  <si>
+    <t>OEJN</t>
+  </si>
+  <si>
+    <t>Arábia Saudita</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/0d/Flag_of_Saudi_Arabia.svg/22px-Flag_of_Saudi_Arabia.svg.png</t>
+  </si>
+  <si>
+    <t>EDDH</t>
+  </si>
+  <si>
+    <t>KASE</t>
+  </si>
+  <si>
+    <t>KMDT</t>
+  </si>
+  <si>
+    <t>KPDX</t>
+  </si>
+  <si>
+    <t>KPNE</t>
+  </si>
+  <si>
+    <t>OEMA</t>
+  </si>
+  <si>
+    <t>SBPA</t>
+  </si>
+  <si>
+    <t>SLVR</t>
+  </si>
+  <si>
+    <t>Bolívia</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/4/48/Flag_of_Bolivia.svg/22px-Flag_of_Bolivia.svg.png</t>
+  </si>
+  <si>
+    <t>RPLC </t>
+  </si>
+  <si>
+    <t>RPMZ </t>
+  </si>
+  <si>
+    <t>RPMY </t>
+  </si>
+  <si>
+    <t>RPVP </t>
+  </si>
+  <si>
+    <t>KSAT</t>
+  </si>
+  <si>
+    <t>MMCL</t>
+  </si>
+  <si>
+    <t>MMHO</t>
+  </si>
+  <si>
+    <t>MMSD</t>
+  </si>
+  <si>
+    <t>EDDS</t>
+  </si>
+  <si>
+    <t>LEMD</t>
+  </si>
+  <si>
+    <t>CYHZ</t>
+  </si>
+  <si>
+    <t>CYMM</t>
+  </si>
+  <si>
+    <t>CYOW</t>
+  </si>
+  <si>
+    <t>CYQR</t>
+  </si>
+  <si>
+    <t>CYYC</t>
+  </si>
+  <si>
+    <t>CYYT</t>
+  </si>
+  <si>
+    <t>CYYZ</t>
+  </si>
+  <si>
+    <t>BIKF</t>
+  </si>
+  <si>
+    <t>Islândia</t>
+  </si>
+  <si>
+    <t>EGBN</t>
+  </si>
+  <si>
+    <t>EGKK</t>
+  </si>
+  <si>
+    <t>EGPF</t>
+  </si>
+  <si>
+    <t>EGSS</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/ce/Flag_of_Iceland.svg/22px-Flag_of_Iceland.svg.png</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,1324 +1860,14 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="161">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3635,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90933E9-EB56-48AC-A2B1-0F57E862D43F}">
-  <dimension ref="A1:M337"/>
+  <dimension ref="A1:M375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I286" sqref="I286"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3648,7 +2491,7 @@
     <col min="3" max="3" width="96.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="30" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -3659,74 +2502,77 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25">
-      <c r="A2" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>503</v>
+    <row r="2" spans="1:3">
+      <c r="A2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="15" t="s">
-        <v>64</v>
+      <c r="A3" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:3" ht="17.25">
+      <c r="A6" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.25">
-      <c r="A7" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>62</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
         <v>97</v>
       </c>
       <c r="C8" t="s">
@@ -3734,8 +2580,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13" t="s">
-        <v>100</v>
+      <c r="A9" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="B9" t="s">
         <v>97</v>
@@ -3745,8 +2591,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
-        <v>123</v>
+      <c r="A10" s="13" t="s">
+        <v>205</v>
       </c>
       <c r="B10" t="s">
         <v>97</v>
@@ -3755,53 +2601,53 @@
         <v>337</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:3" ht="17.25">
+      <c r="A11" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C11" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.25">
+    <row r="12" spans="1:3" s="6" customFormat="1" ht="17.25">
       <c r="A12" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="B12" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C12" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="6" customFormat="1" ht="17.25">
-      <c r="A13" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="1:3" ht="17.25">
+      <c r="A13" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:3" ht="17.25">
+      <c r="A14" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="15" t="s">
-        <v>120</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>59</v>
@@ -3811,32 +2657,32 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25">
-      <c r="A17" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C17" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
       <c r="A18" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="B18" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>283</v>
       </c>
       <c r="C18" t="s">
@@ -3845,267 +2691,271 @@
     </row>
     <row r="19" spans="1:3" ht="17.25">
       <c r="A19" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25">
+      <c r="A20" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C20" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25">
+      <c r="A21" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C21" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.25">
+      <c r="A22" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="13" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="B20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C20" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="B21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C21" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B22" t="s">
-        <v>233</v>
-      </c>
-      <c r="C22" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.25">
-      <c r="A23" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" t="s">
         <v>233</v>
       </c>
       <c r="C23" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17.25">
-      <c r="A24" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" t="s">
         <v>233</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="17.25">
-      <c r="A25" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="B25" s="19" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" t="s">
         <v>233</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.25">
       <c r="A26" s="10" t="s">
-        <v>432</v>
+        <v>276</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25">
       <c r="A27" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="B27" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>233</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" t="s">
-        <v>347</v>
+    <row r="28" spans="1:3" ht="17.25">
+      <c r="A28" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25">
+      <c r="A29" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.25">
       <c r="A30" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.25">
+      <c r="A33" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C33" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17.25">
-      <c r="A31" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C31" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="20"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.25">
       <c r="A34" s="10" t="s">
-        <v>477</v>
+        <v>288</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="17.25">
-      <c r="A35" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="C35" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="17.25">
-      <c r="A36" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C36" s="21"/>
     </row>
     <row r="37" spans="1:3" ht="17.25">
       <c r="A37" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.25">
+      <c r="A38" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C38" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.25">
+      <c r="A39" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.25">
+      <c r="A40" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C40" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.25">
+      <c r="A41" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="C41" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.25">
+      <c r="A42" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="C37" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17.25">
-      <c r="A38" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="C38" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="14" t="s">
+      <c r="B42" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C42" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="B39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B41" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="B42" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="B43" t="s">
         <v>139</v>
@@ -4115,8 +2965,8 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="13" t="s">
-        <v>186</v>
+      <c r="A44" s="14" t="s">
+        <v>151</v>
       </c>
       <c r="B44" t="s">
         <v>139</v>
@@ -4127,7 +2977,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B45" t="s">
         <v>139</v>
@@ -4138,7 +2988,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="13" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B46" t="s">
         <v>139</v>
@@ -4149,7 +2999,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="13" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B47" t="s">
         <v>139</v>
@@ -4158,11 +3008,11 @@
         <v>350</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="17.25">
-      <c r="A48" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="B48" s="10" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" t="s">
         <v>139</v>
       </c>
       <c r="C48" t="s">
@@ -4171,108 +3021,108 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="13" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>69</v>
+      <c r="A50" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="14" t="s">
-        <v>200</v>
+      <c r="A51" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17.25">
-      <c r="A52" s="18" t="s">
-        <v>257</v>
+      <c r="A52" s="10" t="s">
+        <v>306</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>199</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" t="s">
-        <v>121</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17.25">
+      <c r="A53" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="C53" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="13" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B55" t="s">
-        <v>121</v>
+      <c r="A55" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17.25">
-      <c r="A56" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>121</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B56" t="s">
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17.25">
-      <c r="A57" s="10" t="s">
-        <v>272</v>
+      <c r="A57" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>121</v>
+        <v>199</v>
       </c>
       <c r="C57" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17.25">
-      <c r="A58" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B58" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
         <v>121</v>
       </c>
       <c r="C58" t="s">
@@ -4280,596 +3130,596 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="14" t="s">
-        <v>210</v>
+      <c r="A59" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="B59" t="s">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17.25">
-      <c r="A60" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>449</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>465</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17.25">
-      <c r="A61" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>449</v>
+      <c r="A61" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B62" t="s">
-        <v>211</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17.25">
+      <c r="A62" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="17.25">
       <c r="A63" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>211</v>
+        <v>275</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17.25">
       <c r="A64" s="10" t="s">
-        <v>435</v>
+        <v>552</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="17.25">
       <c r="A65" s="10" t="s">
-        <v>436</v>
+        <v>553</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>356</v>
+        <v>354</v>
+      </c>
+      <c r="M65" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="17.25">
       <c r="A66" s="10" t="s">
-        <v>437</v>
+        <v>554</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>356</v>
-      </c>
-      <c r="M66" t="s">
-        <v>95</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="17.25">
       <c r="A67" s="10" t="s">
-        <v>438</v>
+        <v>555</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="17.25">
       <c r="A68" s="10" t="s">
-        <v>439</v>
+        <v>556</v>
       </c>
       <c r="B68" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="17.25">
+      <c r="A69" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="17.25">
+      <c r="A70" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="17.25">
+      <c r="A72" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C72" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="17.25">
+      <c r="A73" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="C73" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B74" t="s">
         <v>211</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C74" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B71" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B72" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="17.25">
       <c r="A75" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>7</v>
+        <v>434</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="C75" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="17.25">
       <c r="A76" s="10" t="s">
-        <v>281</v>
+        <v>435</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>7</v>
+        <v>211</v>
       </c>
       <c r="C76" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="17.25">
       <c r="A77" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>7</v>
+        <v>436</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="17.25">
       <c r="A78" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>7</v>
+        <v>437</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="C78" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="17.25">
       <c r="A79" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>498</v>
+        <v>438</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="C79" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="B80" t="s">
-        <v>243</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="17.25">
+      <c r="A80" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>211</v>
       </c>
       <c r="C80" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B81" t="s">
-        <v>243</v>
+      <c r="A81" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="B82" t="s">
-        <v>243</v>
+      <c r="A82" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="17.25">
-      <c r="A83" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>322</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="17.25">
-      <c r="A84" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>322</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="17.25">
-      <c r="A85" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>322</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="17.25">
-      <c r="A86" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>256</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17.25">
       <c r="A87" s="10" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>291</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B88" t="s">
-        <v>219</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17.25">
+      <c r="A88" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17.25">
+      <c r="A89" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B90" t="s">
-        <v>169</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17.25">
+      <c r="A90" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>84</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="17.25">
+      <c r="A91" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>498</v>
       </c>
       <c r="C91" t="s">
-        <v>364</v>
+        <v>513</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="13" t="s">
-        <v>108</v>
+      <c r="A92" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="C92" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>109</v>
+      <c r="A93" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="B93" t="s">
+        <v>243</v>
       </c>
       <c r="C93" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="13" t="s">
-        <v>88</v>
+      <c r="A94" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="B94" t="s">
-        <v>87</v>
+        <v>243</v>
       </c>
       <c r="C94" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B95" t="s">
-        <v>87</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17.25">
+      <c r="A95" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>322</v>
       </c>
       <c r="C95" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17.25">
       <c r="A96" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>87</v>
+        <v>323</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>322</v>
       </c>
       <c r="C96" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17.25">
       <c r="A97" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C97" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="17.25">
+      <c r="A98" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C98" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17.25">
+      <c r="A99" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C99" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C101" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B102" t="s">
+        <v>169</v>
+      </c>
+      <c r="C102" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B106" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B107" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17.25">
+      <c r="A108" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C108" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17.25">
+      <c r="A109" s="10" t="s">
         <v>417</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B109" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C109" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="17.25">
-      <c r="A98" s="10" t="s">
+    <row r="110" spans="1:3" ht="17.25">
+      <c r="A110" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B110" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C110" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C100" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C103" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C104" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C107" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C109" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C110" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>3</v>
+    <row r="111" spans="1:3" ht="17.25">
+      <c r="A111" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>87</v>
       </c>
       <c r="C111" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C112" t="s">
@@ -4878,7 +3728,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="12" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>3</v>
@@ -4889,7 +3739,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="12" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>3</v>
@@ -4900,7 +3750,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="12" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>3</v>
@@ -4911,7 +3761,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="12" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>3</v>
@@ -4922,7 +3772,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="12" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>3</v>
@@ -4933,7 +3783,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="12" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>3</v>
@@ -4944,9 +3794,9 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C119" t="s">
@@ -4955,9 +3805,9 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C120" t="s">
@@ -4966,9 +3816,9 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B121" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C121" t="s">
@@ -4977,152 +3827,152 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B123" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B124" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B125" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="B126" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B127" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B128" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B129" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="B130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="B131" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B132" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="B133" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B134" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C135" t="s">
@@ -5131,7 +3981,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="13" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="B136" t="s">
         <v>3</v>
@@ -5142,7 +3992,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="13" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="B137" t="s">
         <v>3</v>
@@ -5152,8 +4002,8 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="13" t="s">
-        <v>162</v>
+      <c r="A138" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="B138" t="s">
         <v>3</v>
@@ -5163,8 +4013,8 @@
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="13" t="s">
-        <v>175</v>
+      <c r="A139" s="14" t="s">
+        <v>131</v>
       </c>
       <c r="B139" t="s">
         <v>3</v>
@@ -5174,8 +4024,8 @@
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="13" t="s">
-        <v>176</v>
+      <c r="A140" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="B140" t="s">
         <v>3</v>
@@ -5185,8 +4035,8 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="13" t="s">
-        <v>177</v>
+      <c r="A141" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -5196,8 +4046,8 @@
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="13" t="s">
-        <v>178</v>
+      <c r="A142" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -5208,7 +4058,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="13" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -5219,7 +4069,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="13" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -5230,7 +4080,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="13" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="B145" t="s">
         <v>3</v>
@@ -5241,7 +4091,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="13" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -5252,163 +4102,163 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="17.25">
-      <c r="A148" s="13" t="s">
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="17.25">
+      <c r="A161" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="B148" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="17.25">
-      <c r="A149" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B149" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="17.25">
-      <c r="A150" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B150" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="17.25">
-      <c r="A151" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B151" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="17.25">
-      <c r="A152" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="B152" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="17.25">
-      <c r="A153" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B153" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="17.25">
-      <c r="A154" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B154" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="17.25">
-      <c r="A155" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="17.25">
-      <c r="A156" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B156" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="17.25">
-      <c r="A157" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="B157" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="17.25">
-      <c r="A158" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="B158" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="17.25">
-      <c r="A159" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B159" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="17.25">
-      <c r="A160" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="B160" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="17.25">
-      <c r="A161" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="B161" s="19" t="s">
+      <c r="B161" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C161" t="s">
@@ -5417,9 +4267,9 @@
     </row>
     <row r="162" spans="1:3" ht="17.25">
       <c r="A162" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="B162" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B162" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C162" t="s">
@@ -5428,7 +4278,7 @@
     </row>
     <row r="163" spans="1:3" ht="17.25">
       <c r="A163" s="10" t="s">
-        <v>447</v>
+        <v>267</v>
       </c>
       <c r="B163" s="19" t="s">
         <v>3</v>
@@ -5439,7 +4289,7 @@
     </row>
     <row r="164" spans="1:3" ht="17.25">
       <c r="A164" s="10" t="s">
-        <v>468</v>
+        <v>268</v>
       </c>
       <c r="B164" s="19" t="s">
         <v>3</v>
@@ -5450,7 +4300,7 @@
     </row>
     <row r="165" spans="1:3" ht="17.25">
       <c r="A165" s="10" t="s">
-        <v>469</v>
+        <v>269</v>
       </c>
       <c r="B165" s="19" t="s">
         <v>3</v>
@@ -5461,7 +4311,7 @@
     </row>
     <row r="166" spans="1:3" ht="17.25">
       <c r="A166" s="10" t="s">
-        <v>470</v>
+        <v>270</v>
       </c>
       <c r="B166" s="19" t="s">
         <v>3</v>
@@ -5472,9 +4322,9 @@
     </row>
     <row r="167" spans="1:3" ht="17.25">
       <c r="A167" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="B167" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B167" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C167" t="s">
@@ -5483,9 +4333,9 @@
     </row>
     <row r="168" spans="1:3" ht="17.25">
       <c r="A168" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="B168" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B168" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C168" t="s">
@@ -5494,7 +4344,7 @@
     </row>
     <row r="169" spans="1:3" ht="17.25">
       <c r="A169" s="10" t="s">
-        <v>473</v>
+        <v>274</v>
       </c>
       <c r="B169" s="19" t="s">
         <v>3</v>
@@ -5505,7 +4355,7 @@
     </row>
     <row r="170" spans="1:3" ht="17.25">
       <c r="A170" s="10" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="B170" s="19" t="s">
         <v>3</v>
@@ -5516,7 +4366,7 @@
     </row>
     <row r="171" spans="1:3" ht="17.25">
       <c r="A171" s="10" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="B171" s="19" t="s">
         <v>3</v>
@@ -5527,7 +4377,7 @@
     </row>
     <row r="172" spans="1:3" ht="17.25">
       <c r="A172" s="10" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="B172" s="19" t="s">
         <v>3</v>
@@ -5538,7 +4388,7 @@
     </row>
     <row r="173" spans="1:3" ht="17.25">
       <c r="A173" s="10" t="s">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="B173" s="19" t="s">
         <v>3</v>
@@ -5549,7 +4399,7 @@
     </row>
     <row r="174" spans="1:3" ht="17.25">
       <c r="A174" s="10" t="s">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="B174" s="19" t="s">
         <v>3</v>
@@ -5560,7 +4410,7 @@
     </row>
     <row r="175" spans="1:3" ht="17.25">
       <c r="A175" s="10" t="s">
-        <v>488</v>
+        <v>446</v>
       </c>
       <c r="B175" s="19" t="s">
         <v>3</v>
@@ -5570,8 +4420,8 @@
       </c>
     </row>
     <row r="176" spans="1:3" ht="17.25">
-      <c r="A176" s="12" t="s">
-        <v>489</v>
+      <c r="A176" s="10" t="s">
+        <v>447</v>
       </c>
       <c r="B176" s="19" t="s">
         <v>3</v>
@@ -5582,7 +4432,7 @@
     </row>
     <row r="177" spans="1:3" ht="17.25">
       <c r="A177" s="10" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="B177" s="19" t="s">
         <v>3</v>
@@ -5593,7 +4443,7 @@
     </row>
     <row r="178" spans="1:3" ht="17.25">
       <c r="A178" s="10" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="B178" s="19" t="s">
         <v>3</v>
@@ -5604,7 +4454,7 @@
     </row>
     <row r="179" spans="1:3" ht="17.25">
       <c r="A179" s="10" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="B179" s="19" t="s">
         <v>3</v>
@@ -5615,7 +4465,7 @@
     </row>
     <row r="180" spans="1:3" ht="17.25">
       <c r="A180" s="10" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="B180" s="19" t="s">
         <v>3</v>
@@ -5626,7 +4476,7 @@
     </row>
     <row r="181" spans="1:3" ht="17.25">
       <c r="A181" s="10" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="B181" s="19" t="s">
         <v>3</v>
@@ -5637,7 +4487,7 @@
     </row>
     <row r="182" spans="1:3" ht="17.25">
       <c r="A182" s="10" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="B182" s="19" t="s">
         <v>3</v>
@@ -5648,7 +4498,7 @@
     </row>
     <row r="183" spans="1:3" ht="17.25">
       <c r="A183" s="10" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="B183" s="19" t="s">
         <v>3</v>
@@ -5659,1778 +4509,2206 @@
     </row>
     <row r="184" spans="1:3" ht="17.25">
       <c r="A184" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B184" s="10" t="s">
-        <v>310</v>
+        <v>484</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="C184" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="B185" t="s">
-        <v>197</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="17.25">
+      <c r="A185" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="C185" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="17.25">
       <c r="A186" s="10" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="C186" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="17.25">
       <c r="A187" s="10" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="C187" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="17.25">
       <c r="A188" s="10" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="C188" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="17.25">
-      <c r="A189" s="10" t="s">
-        <v>510</v>
+      <c r="A189" s="12" t="s">
+        <v>489</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="17.25">
       <c r="A190" s="10" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="17.25">
       <c r="A191" s="10" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="C191" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B192" t="s">
-        <v>174</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="17.25">
+      <c r="A192" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B193" t="s">
-        <v>135</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="17.25">
+      <c r="A193" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B194" t="s">
-        <v>135</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="17.25">
+      <c r="A194" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="C194" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B195" t="s">
-        <v>135</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="17.25">
+      <c r="A195" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B196" t="s">
-        <v>135</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="17.25">
+      <c r="A196" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="C196" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="17.25">
-      <c r="A197" s="10" t="s">
-        <v>293</v>
+      <c r="A197" s="12" t="s">
+        <v>533</v>
       </c>
       <c r="B197" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>370</v>
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="17.25">
-      <c r="A198" s="13" t="s">
-        <v>411</v>
+      <c r="A198" s="12" t="s">
+        <v>534</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>370</v>
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="17.25">
-      <c r="A199" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="B199" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>370</v>
+      <c r="A199" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="17.25">
-      <c r="A200" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="B200" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>370</v>
+      <c r="A200" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="17.25">
-      <c r="A201" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="B201" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B202" t="s">
-        <v>222</v>
+      <c r="A201" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="17.25">
+      <c r="A202" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="C202" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="13" t="s">
-        <v>90</v>
+        <v>198</v>
       </c>
       <c r="B203" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="C203" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="17.25">
       <c r="A204" s="10" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B204" s="19" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="C204" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="17.25">
       <c r="A205" s="10" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="C205" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="17.25">
       <c r="A206" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="B206" s="10" t="s">
-        <v>287</v>
+        <v>508</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="C206" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>56</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="17.25">
+      <c r="A207" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="B207" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="C207" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="17.25">
       <c r="A208" s="10" t="s">
-        <v>421</v>
+        <v>510</v>
       </c>
       <c r="B208" s="19" t="s">
-        <v>422</v>
+        <v>197</v>
       </c>
       <c r="C208" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>76</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="17.25">
+      <c r="A209" s="10" t="s">
+        <v>511</v>
+      </c>
+      <c r="B209" s="19" t="s">
+        <v>197</v>
       </c>
       <c r="C209" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B210" t="s">
-        <v>104</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="17.25">
+      <c r="A210" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="C210" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B211" t="s">
-        <v>104</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="17.25">
+      <c r="A211" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="C211" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="17.25">
-      <c r="A212" s="10" t="s">
-        <v>326</v>
+      <c r="A212" s="12" t="s">
+        <v>543</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>376</v>
+        <v>197</v>
+      </c>
+      <c r="C212" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="17.25">
-      <c r="A213" s="10" t="s">
-        <v>327</v>
+      <c r="A213" s="12" t="s">
+        <v>545</v>
       </c>
       <c r="B213" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="17.25">
-      <c r="A214" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="17.25">
-      <c r="A215" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="B215" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="17.25">
-      <c r="A216" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B216" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C216" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="17.25">
-      <c r="A217" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B217" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="17.25">
-      <c r="A218" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B218" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>376</v>
+        <v>197</v>
+      </c>
+      <c r="C213" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B214" t="s">
+        <v>174</v>
+      </c>
+      <c r="C214" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B215" t="s">
+        <v>135</v>
+      </c>
+      <c r="C215" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B216" t="s">
+        <v>135</v>
+      </c>
+      <c r="C216" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B217" t="s">
+        <v>135</v>
+      </c>
+      <c r="C217" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B218" t="s">
+        <v>135</v>
+      </c>
+      <c r="C218" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="17.25">
       <c r="A219" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B219" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C220" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C221" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="B222" t="s">
-        <v>213</v>
-      </c>
-      <c r="C222" t="s">
-        <v>378</v>
+        <v>293</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="17.25">
+      <c r="A220" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="17.25">
+      <c r="A221" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B221" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="17.25">
+      <c r="A222" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="B222" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="17.25">
       <c r="A223" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="B223" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C223" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="17.25">
-      <c r="A224" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="B224" s="19" t="s">
-        <v>213</v>
+        <v>499</v>
+      </c>
+      <c r="B223" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>222</v>
       </c>
       <c r="C224" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225" s="14" t="s">
-        <v>207</v>
+      <c r="A225" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="B225" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="C225" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="17.25">
       <c r="A226" s="10" t="s">
-        <v>294</v>
+        <v>500</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="C226" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="17.25">
       <c r="A227" s="10" t="s">
-        <v>295</v>
+        <v>501</v>
       </c>
       <c r="B227" s="19" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="C227" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="17.25">
       <c r="A228" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="B228" s="19" t="s">
-        <v>206</v>
+        <v>286</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>287</v>
       </c>
       <c r="C228" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="17.25">
-      <c r="A229" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="B229" s="19" t="s">
-        <v>206</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C229" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="17.25">
       <c r="A230" s="10" t="s">
-        <v>297</v>
+        <v>421</v>
       </c>
       <c r="B230" s="19" t="s">
-        <v>206</v>
+        <v>422</v>
       </c>
       <c r="C230" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="17.25">
-      <c r="A231" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="B231" s="19" t="s">
-        <v>206</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C231" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B232" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C232" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>12</v>
+      <c r="A233" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B233" t="s">
+        <v>104</v>
       </c>
       <c r="C233" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C234" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C235" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C236" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C237" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C238" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C239" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C240" t="s">
-        <v>379</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="17.25">
+      <c r="A234" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="17.25">
+      <c r="A235" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="17.25">
+      <c r="A236" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="B236" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="17.25">
+      <c r="A237" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B237" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="17.25">
+      <c r="A238" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="B238" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="17.25">
+      <c r="A239" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="B239" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="17.25">
+      <c r="A240" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B240" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="17.25">
       <c r="A241" s="10" t="s">
-        <v>462</v>
+        <v>333</v>
       </c>
       <c r="B241" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="C241" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B242" t="s">
-        <v>201</v>
-      </c>
-      <c r="C242" t="s">
-        <v>380</v>
+        <v>104</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="17.25">
+      <c r="A242" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="B242" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="17.25">
       <c r="A243" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B243" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="C243" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C244" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C245" t="s">
-        <v>382</v>
+        <v>519</v>
+      </c>
+      <c r="B243" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="17.25">
+      <c r="A244" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="B244" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="17.25">
+      <c r="A245" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C246" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="17.25">
-      <c r="A247" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="B247" s="10" t="s">
-        <v>39</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C247" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="17.25">
-      <c r="A248" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="B248" s="10" t="s">
-        <v>39</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="B248" t="s">
+        <v>213</v>
       </c>
       <c r="C248" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="17.25">
-      <c r="A249" s="18" t="s">
-        <v>265</v>
+      <c r="A249" s="10" t="s">
+        <v>481</v>
       </c>
       <c r="B249" s="10" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="C249" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="17.25">
       <c r="A250" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="B250" s="10" t="s">
-        <v>301</v>
+        <v>482</v>
+      </c>
+      <c r="B250" s="19" t="s">
+        <v>213</v>
       </c>
       <c r="C250" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="17.25">
       <c r="A251" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>24</v>
+        <v>559</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>560</v>
       </c>
       <c r="C251" t="s">
-        <v>384</v>
+        <v>565</v>
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>24</v>
+      <c r="A252" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B252" t="s">
+        <v>206</v>
       </c>
       <c r="C252" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3">
-      <c r="A253" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>24</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="17.25">
+      <c r="A253" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="B253" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="C253" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B254" s="3" t="s">
-        <v>24</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="17.25">
+      <c r="A254" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B254" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="C254" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B255" t="s">
-        <v>24</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="17.25">
+      <c r="A255" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B255" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="C255" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B256" t="s">
-        <v>224</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="17.25">
+      <c r="A256" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B256" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="C256" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
-      <c r="A257" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>67</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="17.25">
+      <c r="A257" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B257" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="C257" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B258" t="s">
-        <v>164</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="17.25">
+      <c r="A258" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B258" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="C258" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B259" t="s">
-        <v>164</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="17.25">
+      <c r="A259" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B259" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="C259" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="13" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="B260" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="C260" t="s">
-        <v>387</v>
+        <v>340</v>
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B261" t="s">
-        <v>164</v>
+      <c r="A261" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C261" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="B262" t="s">
-        <v>164</v>
+      <c r="A262" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C262" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B263" t="s">
-        <v>153</v>
+      <c r="A263" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C263" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B264" t="s">
-        <v>153</v>
+      <c r="A264" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C264" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B265" t="s">
-        <v>153</v>
+      <c r="A265" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" ht="17.25">
-      <c r="A266" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="B266" s="19" t="s">
-        <v>153</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C266" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B267" t="s">
-        <v>116</v>
+      <c r="A267" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C267" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="12" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="B269" t="s">
-        <v>5</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>341</v>
+        <v>12</v>
+      </c>
+      <c r="C268" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="17.25">
+      <c r="A269" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B269" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="C269" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>82</v>
+      <c r="A270" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B270" t="s">
+        <v>201</v>
       </c>
       <c r="C270" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="B271" t="s">
-        <v>230</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="17.25">
+      <c r="A271" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="B271" s="10" t="s">
+        <v>316</v>
       </c>
       <c r="C271" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>230</v>
+      <c r="A272" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C272" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="17.25">
-      <c r="A273" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="B273" s="19" t="s">
-        <v>230</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C273" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B274" t="s">
-        <v>85</v>
+      <c r="A274" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C274" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="17.25">
-      <c r="A275" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B275" s="19" t="s">
-        <v>85</v>
+      <c r="A275" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B275" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="C275" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="17.25">
-      <c r="A276" s="10" t="s">
-        <v>284</v>
+      <c r="A276" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="B276" s="10" t="s">
-        <v>285</v>
+        <v>39</v>
       </c>
       <c r="C276" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="17.25">
-      <c r="A277" s="10" t="s">
-        <v>423</v>
+      <c r="A277" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="B277" s="10" t="s">
-        <v>424</v>
+        <v>39</v>
       </c>
       <c r="C277" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="17.25">
       <c r="A278" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="B278" s="19" t="s">
-        <v>424</v>
+        <v>521</v>
+      </c>
+      <c r="B278" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="C278" t="s">
-        <v>428</v>
+        <v>525</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="17.25">
       <c r="A279" s="10" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B279" s="10" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C279" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B280" t="s">
-        <v>124</v>
+      <c r="A280" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C280" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B281" t="s">
-        <v>124</v>
+      <c r="A281" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C281" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B282" t="s">
-        <v>124</v>
+      <c r="A282" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C282" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B283" t="s">
-        <v>124</v>
+      <c r="A283" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C283" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="14" t="s">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="B284" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="C284" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
-      <c r="A285" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B285" t="s">
-        <v>124</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="17.25">
+      <c r="A285" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C285" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
-      <c r="A286" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B286" t="s">
-        <v>124</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="17.25">
+      <c r="A286" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B286" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C286" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B287" t="s">
-        <v>124</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="17.25">
+      <c r="A287" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="B287" s="19" t="s">
+        <v>24</v>
       </c>
       <c r="C287" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="13" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B288" t="s">
-        <v>124</v>
+        <v>224</v>
       </c>
       <c r="C288" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="17.25">
-      <c r="A289" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="B289" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C289" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="17.25">
-      <c r="A290" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="B290" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C290" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="17.25">
-      <c r="A291" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="B291" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C291" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" ht="17.25">
-      <c r="A292" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="B292" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C292" s="6" t="s">
-        <v>395</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C289" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B290" t="s">
+        <v>164</v>
+      </c>
+      <c r="C290" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B291" t="s">
+        <v>164</v>
+      </c>
+      <c r="C291" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B292" t="s">
+        <v>164</v>
+      </c>
+      <c r="C292" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="13" t="s">
-        <v>227</v>
+        <v>167</v>
       </c>
       <c r="B293" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="C293" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>74</v>
+      <c r="A294" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B294" t="s">
+        <v>164</v>
       </c>
       <c r="C294" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>74</v>
+      <c r="A295" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B295" t="s">
+        <v>153</v>
       </c>
       <c r="C295" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="17.25">
-      <c r="A296" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B296" s="10" t="s">
-        <v>426</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B296" t="s">
+        <v>153</v>
       </c>
       <c r="C296" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="17.25">
-      <c r="A297" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="B297" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B297" t="s">
+        <v>153</v>
+      </c>
+      <c r="C297" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="17.25">
-      <c r="A298" s="10" t="s">
-        <v>454</v>
+      <c r="A298" s="20" t="s">
+        <v>431</v>
       </c>
       <c r="B298" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="17.25">
-      <c r="A299" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="B299" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C299" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" ht="17.25">
-      <c r="A300" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="B300" s="19" t="s">
-        <v>451</v>
+        <v>153</v>
+      </c>
+      <c r="C298" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B299" t="s">
+        <v>116</v>
+      </c>
+      <c r="C299" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="13" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B301" t="s">
-        <v>107</v>
-      </c>
-      <c r="C301" t="s">
-        <v>398</v>
+        <v>5</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" s="12" t="s">
-        <v>119</v>
+      <c r="A302" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C302" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="A303" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="B303" t="s">
-        <v>228</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="17.25">
+      <c r="A303" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="B303" s="10" t="s">
+        <v>515</v>
       </c>
       <c r="C303" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="17.25">
-      <c r="A304" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B304" s="10" t="s">
-        <v>318</v>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B304" t="s">
+        <v>230</v>
       </c>
       <c r="C304" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B305" t="s">
-        <v>171</v>
+      <c r="A305" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="C305" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3">
-      <c r="A306" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B306" t="s">
-        <v>148</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="17.25">
+      <c r="A306" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="B306" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="C306" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="13" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="B307" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="C307" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="17.25">
       <c r="A308" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="B308" s="10" t="s">
-        <v>148</v>
+        <v>415</v>
+      </c>
+      <c r="B308" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="C308" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
-      <c r="A309" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>40</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="17.25">
+      <c r="A309" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>285</v>
       </c>
       <c r="C309" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="17.25">
-      <c r="A310" s="18" t="s">
-        <v>258</v>
+      <c r="A310" s="10" t="s">
+        <v>423</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>40</v>
+        <v>424</v>
       </c>
       <c r="C310" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="17.25">
       <c r="A311" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B311" s="10" t="s">
-        <v>40</v>
+        <v>483</v>
+      </c>
+      <c r="B311" s="19" t="s">
+        <v>424</v>
       </c>
       <c r="C311" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="17.25">
-      <c r="A312" s="12" t="s">
-        <v>475</v>
+      <c r="A312" s="10" t="s">
+        <v>307</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="C312" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" ht="17.25">
-      <c r="A313" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="B313" s="10" t="s">
-        <v>40</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B313" t="s">
+        <v>124</v>
       </c>
       <c r="C313" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="14" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="B314" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="C314" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" s="13" t="s">
-        <v>196</v>
+      <c r="A315" s="14" t="s">
+        <v>127</v>
       </c>
       <c r="B315" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="C315" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" ht="17.25">
-      <c r="A316" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="B316" s="10" t="s">
-        <v>194</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B316" t="s">
+        <v>124</v>
       </c>
       <c r="C316" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" ht="17.25">
-      <c r="A317" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B317" s="10" t="s">
-        <v>313</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B317" t="s">
+        <v>124</v>
       </c>
       <c r="C317" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="17.25">
-      <c r="A318" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B318" s="10" t="s">
-        <v>313</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B318" t="s">
+        <v>124</v>
       </c>
       <c r="C318" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="13" t="s">
-        <v>117</v>
+        <v>215</v>
       </c>
       <c r="B319" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C319" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="13" t="s">
-        <v>112</v>
+        <v>216</v>
       </c>
       <c r="B320" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C320" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="13" t="s">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="B321" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C321" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="17.25">
       <c r="A322" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="B322" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C322" t="s">
-        <v>406</v>
+        <v>414</v>
+      </c>
+      <c r="B322" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C322" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="17.25">
       <c r="A323" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="B323" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C323" t="s">
-        <v>406</v>
+        <v>478</v>
+      </c>
+      <c r="B323" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C323" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="17.25">
       <c r="A324" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B324" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C324" t="s">
-        <v>406</v>
+        <v>479</v>
+      </c>
+      <c r="B324" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C324" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="17.25">
       <c r="A325" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="17.25">
+      <c r="A326" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B326" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C326" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="17.25">
+      <c r="A327" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="B327" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C327" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="17.25">
+      <c r="A328" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B328" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C328" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="17.25">
+      <c r="A329" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="B329" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="B330" t="s">
+        <v>226</v>
+      </c>
+      <c r="C330" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C331" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C332" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="17.25">
+      <c r="A333" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="B333" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C333" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="17.25">
+      <c r="A334" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B334" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="17.25">
+      <c r="A335" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B335" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="17.25">
+      <c r="A336" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="B336" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="17.25">
+      <c r="A337" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B337" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="C337" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B338" t="s">
+        <v>107</v>
+      </c>
+      <c r="C338" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C339" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="B340" t="s">
+        <v>228</v>
+      </c>
+      <c r="C340" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="17.25">
+      <c r="A341" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="B341" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C341" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="17.25">
+      <c r="A342" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B342" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C342" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B343" t="s">
+        <v>171</v>
+      </c>
+      <c r="C343" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B344" t="s">
+        <v>148</v>
+      </c>
+      <c r="C344" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B345" t="s">
+        <v>148</v>
+      </c>
+      <c r="C345" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="17.25">
+      <c r="A346" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B346" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="C346" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C347" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="17.25">
+      <c r="A348" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B348" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C348" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="17.25">
+      <c r="A349" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="B349" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C349" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="17.25">
+      <c r="A350" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B350" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C350" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="17.25">
+      <c r="A351" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B351" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C351" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B352" t="s">
+        <v>194</v>
+      </c>
+      <c r="C352" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B353" t="s">
+        <v>194</v>
+      </c>
+      <c r="C353" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="17.25">
+      <c r="A354" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="B354" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C354" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="17.25">
+      <c r="A355" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="B355" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C355" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="17.25">
+      <c r="A356" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="B356" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="C356" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B357" t="s">
+        <v>118</v>
+      </c>
+      <c r="C357" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B358" t="s">
+        <v>113</v>
+      </c>
+      <c r="C358" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B359" t="s">
+        <v>113</v>
+      </c>
+      <c r="C359" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="17.25">
+      <c r="A360" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B360" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C360" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="17.25">
+      <c r="A361" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="B361" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C361" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="17.25">
+      <c r="A362" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="B362" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C362" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="17.25">
+      <c r="A363" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="B325" s="19" t="s">
+      <c r="B363" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C363" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="17.25">
-      <c r="A326" s="10" t="s">
+    <row r="364" spans="1:3" ht="17.25">
+      <c r="A364" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="B326" s="19" t="s">
+      <c r="B364" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C326" t="s">
+      <c r="C364" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="17.25">
-      <c r="A327" s="10" t="s">
+    <row r="365" spans="1:3" ht="17.25">
+      <c r="A365" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B327" s="10" t="s">
+      <c r="B365" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C327" t="s">
+      <c r="C365" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="328" spans="1:3">
-      <c r="A328" s="14" t="s">
+    <row r="366" spans="1:3">
+      <c r="A366" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B366" t="s">
         <v>93</v>
       </c>
-      <c r="C328" t="s">
+      <c r="C366" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="17.25">
-      <c r="A329" s="10" t="s">
+    <row r="367" spans="1:3" ht="17.25">
+      <c r="A367" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B329" s="10" t="s">
+      <c r="B367" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C329" t="s">
+      <c r="C367" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
-      <c r="A330" s="16" t="s">
+    <row r="368" spans="1:3">
+      <c r="A368" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B368" t="s">
         <v>245</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C368" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="17.25">
-      <c r="A331" s="18" t="s">
+    <row r="369" spans="1:3" ht="17.25">
+      <c r="A369" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="B331" s="10" t="s">
+      <c r="B369" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C369" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="17.25">
-      <c r="A332" s="18" t="s">
+    <row r="370" spans="1:3" ht="17.25">
+      <c r="A370" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="B332" s="10" t="s">
+      <c r="B370" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C370" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="17.25">
-      <c r="A333" s="18" t="s">
+    <row r="371" spans="1:3" ht="17.25">
+      <c r="A371" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="B333" s="10" t="s">
+      <c r="B371" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C371" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="17.25">
-      <c r="A334" s="18" t="s">
+    <row r="372" spans="1:3" ht="17.25">
+      <c r="A372" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="B334" s="10" t="s">
+      <c r="B372" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C372" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="17.25">
-      <c r="A335" s="18" t="s">
+    <row r="373" spans="1:3" ht="17.25">
+      <c r="A373" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B335" s="10" t="s">
+      <c r="B373" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C373" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="17.25">
-      <c r="A336" s="18" t="s">
+    <row r="374" spans="1:3" ht="17.25">
+      <c r="A374" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B336" s="19" t="s">
+      <c r="B374" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C374" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="17.25">
-      <c r="A337" s="18" t="s">
+    <row r="375" spans="1:3" ht="17.25">
+      <c r="A375" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="B337" s="10" t="s">
+      <c r="B375" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C375" t="s">
         <v>410</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C338">
-    <sortCondition ref="B297"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C375">
+    <sortCondition ref="B357"/>
   </sortState>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A284 A81 A1:A7">
-    <cfRule type="duplicateValues" dxfId="25" priority="46"/>
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A80 A1:A6">
+    <cfRule type="duplicateValues" dxfId="29" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A284 A1:A81">
-    <cfRule type="duplicateValues" dxfId="24" priority="49"/>
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A1:A80">
+    <cfRule type="duplicateValues" dxfId="28" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A284 A1:A139">
-    <cfRule type="duplicateValues" dxfId="23" priority="51"/>
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A1:A138">
+    <cfRule type="duplicateValues" dxfId="27" priority="55"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A284 A1:A157">
-    <cfRule type="duplicateValues" dxfId="22" priority="59"/>
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A1:A156">
+    <cfRule type="duplicateValues" dxfId="26" priority="63"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A284 A1:A181">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A1:A180">
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283">
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A1:A195">
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A1:A200">
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A1:A217">
     <cfRule type="duplicateValues" dxfId="21" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A284">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A1:A249">
     <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A284 A1:A196">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A1:A250">
     <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A284 A1:A201">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A1:A262">
     <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A284 A1:A218">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A1:A264">
     <cfRule type="duplicateValues" dxfId="17" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A284 A1:A250">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A1:A265">
     <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A284 A1:A251">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A1:A292">
     <cfRule type="duplicateValues" dxfId="15" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A284 A1:A263">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A1:A293">
     <cfRule type="duplicateValues" dxfId="14" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A284 A1:A265">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A1:A300">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A284 A1:A266">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A1:A303">
     <cfRule type="duplicateValues" dxfId="12" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A1:A293">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316">
     <cfRule type="duplicateValues" dxfId="11" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A1:A294">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A1:A304">
     <cfRule type="duplicateValues" dxfId="10" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A303:A304 A1:A301">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A1:A310">
     <cfRule type="duplicateValues" dxfId="9" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A1:A304">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A1:A314 A316">
     <cfRule type="duplicateValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A1:A323">
     <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A1:A305">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A1:A330">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A317 A1:A311">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A1:A334">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A1:A315 A317">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A1:A336">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A1:A324">
+  <conditionalFormatting sqref="A371:A1048576 A345:A358 A1:A337">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A1:A331">
+  <conditionalFormatting sqref="A371:A1048576 A1:A343 A345:A358">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A338:A1048576 A1:A335">
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BA048E3-3A96-4B87-A211-2718A6F707C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A62F69-E684-4DFA-9789-3C5425DF5D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76F5BC51-B760-4FA3-AB8F-88287AF0B4D0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="575">
   <si>
     <t>Pais</t>
   </si>
@@ -1723,13 +1723,40 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/c/ce/Flag_of_Iceland.svg/22px-Flag_of_Iceland.svg.png</t>
+  </si>
+  <si>
+    <t>LLBG</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>OERK</t>
+  </si>
+  <si>
+    <t>OMAA</t>
+  </si>
+  <si>
+    <t>OOMS</t>
+  </si>
+  <si>
+    <t>VNLK</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/9/9b/Flag_of_Nepal.svg/15px-Flag_of_Nepal.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d4/Flag_of_Israel.svg/22px-Flag_of_Israel.svg.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1761,12 +1788,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF11172A"/>
-      <name val="Whitney-Book"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1831,7 +1852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1842,25 +1863,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -2478,21 +2498,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90933E9-EB56-48AC-A2B1-0F57E862D43F}">
-  <dimension ref="A1:M375"/>
+  <dimension ref="A1:M380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C251" sqref="C251"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="96.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2503,7 +2523,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2514,7 +2534,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2525,7 +2545,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2536,7 +2556,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2547,10 +2567,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C6" t="s">
@@ -2558,7 +2578,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2569,7 +2589,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B8" t="s">
@@ -2580,7 +2600,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>123</v>
       </c>
       <c r="B9" t="s">
@@ -2591,7 +2611,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>205</v>
       </c>
       <c r="B10" t="s">
@@ -2602,10 +2622,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C11" t="s">
@@ -2613,10 +2633,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" s="6" customFormat="1" ht="17.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C12" t="s">
@@ -2624,10 +2644,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C13" t="s">
@@ -2635,10 +2655,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C14" t="s">
@@ -2646,7 +2666,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2657,7 +2677,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>120</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2668,7 +2688,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2679,10 +2699,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="17.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>283</v>
       </c>
       <c r="C18" t="s">
@@ -2690,10 +2710,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>283</v>
       </c>
       <c r="C19" t="s">
@@ -2701,10 +2721,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>530</v>
       </c>
       <c r="C20" t="s">
@@ -2712,41 +2732,41 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>537</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25">
+      <c r="A23" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="13" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="B23" t="s">
-        <v>233</v>
-      </c>
-      <c r="C23" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="B24" t="s">
         <v>233</v>
@@ -2756,8 +2776,8 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="13" t="s">
-        <v>236</v>
+      <c r="A25" s="12" t="s">
+        <v>235</v>
       </c>
       <c r="B25" t="s">
         <v>233</v>
@@ -2766,11 +2786,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="17.25">
-      <c r="A26" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B26" s="10" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B26" t="s">
         <v>233</v>
       </c>
       <c r="C26" t="s">
@@ -2778,21 +2798,21 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.25">
+      <c r="A28" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17.25">
-      <c r="A28" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="9" t="s">
         <v>233</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2800,10 +2820,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="17.25">
-      <c r="A29" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="A29" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>233</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -2811,43 +2831,43 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.25">
-      <c r="A30" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>233</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>347</v>
+    <row r="31" spans="1:3" ht="17.25">
+      <c r="A31" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C32" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17.25">
-      <c r="A33" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" t="s">
         <v>91</v>
       </c>
       <c r="C33" t="s">
@@ -2855,43 +2875,43 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.25">
+      <c r="A35" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="14" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="12" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="17.25">
-      <c r="A37" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C37" t="s">
@@ -2899,74 +2919,74 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="17.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.25">
+      <c r="A39" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="17.25">
-      <c r="A39" s="18" t="s">
+    <row r="40" spans="1:3" ht="17.25">
+      <c r="A40" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="17.25">
-      <c r="A40" s="12" t="s">
+    <row r="41" spans="1:3" ht="17.25">
+      <c r="A41" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="17.25">
-      <c r="A41" s="10" t="s">
+    <row r="42" spans="1:3" ht="17.25">
+      <c r="A42" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="C41" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17.25">
-      <c r="A42" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="9" t="s">
         <v>504</v>
       </c>
       <c r="C42" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="14" t="s">
+    <row r="43" spans="1:3" ht="17.25">
+      <c r="A43" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="C43" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="13" t="s">
         <v>140</v>
-      </c>
-      <c r="B43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="B44" t="s">
         <v>139</v>
@@ -2977,7 +2997,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="13" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="B45" t="s">
         <v>139</v>
@@ -2987,8 +3007,8 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="13" t="s">
-        <v>184</v>
+      <c r="A46" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="B46" t="s">
         <v>139</v>
@@ -2998,8 +3018,8 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="13" t="s">
-        <v>185</v>
+      <c r="A47" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="B47" t="s">
         <v>139</v>
@@ -3009,8 +3029,8 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="13" t="s">
-        <v>186</v>
+      <c r="A48" s="12" t="s">
+        <v>185</v>
       </c>
       <c r="B48" t="s">
         <v>139</v>
@@ -3020,8 +3040,8 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="13" t="s">
-        <v>187</v>
+      <c r="A49" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="B49" t="s">
         <v>139</v>
@@ -3031,8 +3051,8 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="13" t="s">
-        <v>188</v>
+      <c r="A50" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="B50" t="s">
         <v>139</v>
@@ -3042,8 +3062,8 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="13" t="s">
-        <v>189</v>
+      <c r="A51" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="B51" t="s">
         <v>139</v>
@@ -3052,11 +3072,11 @@
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="17.25">
-      <c r="A52" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="B52" s="10" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" t="s">
         <v>139</v>
       </c>
       <c r="C52" t="s">
@@ -3064,74 +3084,74 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="17.25">
-      <c r="A53" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="A53" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C53" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="13" t="s">
+    <row r="54" spans="1:3" ht="17.25">
+      <c r="A54" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>111</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C56" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17.25">
-      <c r="A57" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" t="s">
         <v>199</v>
       </c>
       <c r="C57" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" t="s">
-        <v>121</v>
+    <row r="58" spans="1:3" ht="17.25">
+      <c r="A58" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="C58" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="13" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
         <v>121</v>
@@ -3141,8 +3161,8 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="13" t="s">
-        <v>238</v>
+      <c r="A60" s="12" t="s">
+        <v>179</v>
       </c>
       <c r="B60" t="s">
         <v>121</v>
@@ -3151,11 +3171,11 @@
         <v>354</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="17.25">
-      <c r="A61" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="B61" s="10" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61" t="s">
         <v>121</v>
       </c>
       <c r="C61" t="s">
@@ -3163,10 +3183,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="17.25">
-      <c r="A62" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C62" t="s">
@@ -3174,10 +3194,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="17.25">
-      <c r="A63" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B63" s="10" t="s">
+      <c r="A63" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C63" t="s">
@@ -3185,10 +3205,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="17.25">
-      <c r="A64" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="B64" s="19" t="s">
+      <c r="A64" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C64" t="s">
@@ -3196,10 +3216,10 @@
       </c>
     </row>
     <row r="65" spans="1:13" ht="17.25">
-      <c r="A65" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="B65" s="19" t="s">
+      <c r="A65" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B65" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C65" t="s">
@@ -3210,10 +3230,10 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="17.25">
-      <c r="A66" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="B66" s="19" t="s">
+      <c r="A66" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B66" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C66" t="s">
@@ -3221,10 +3241,10 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="17.25">
-      <c r="A67" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="B67" s="19" t="s">
+      <c r="A67" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B67" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C67" t="s">
@@ -3232,10 +3252,10 @@
       </c>
     </row>
     <row r="68" spans="1:13" ht="17.25">
-      <c r="A68" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="B68" s="19" t="s">
+      <c r="A68" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B68" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C68" t="s">
@@ -3243,10 +3263,10 @@
       </c>
     </row>
     <row r="69" spans="1:13" ht="17.25">
-      <c r="A69" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="B69" s="19" t="s">
+      <c r="A69" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B69" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C69" t="s">
@@ -3254,65 +3274,65 @@
       </c>
     </row>
     <row r="70" spans="1:13" ht="17.25">
-      <c r="A70" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="B70" s="19" t="s">
+      <c r="A70" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B70" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C70" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="14" t="s">
+    <row r="71" spans="1:13" ht="17.25">
+      <c r="A71" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>209</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="17.25">
-      <c r="A72" s="10" t="s">
+    <row r="73" spans="1:13" ht="17.25">
+      <c r="A73" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="C72" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="17.25">
-      <c r="A73" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="9" t="s">
         <v>449</v>
       </c>
       <c r="C73" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="14" t="s">
+    <row r="74" spans="1:13" ht="17.25">
+      <c r="A74" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="C74" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B74" t="s">
-        <v>211</v>
-      </c>
-      <c r="C74" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="17.25">
-      <c r="A75" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" t="s">
         <v>211</v>
       </c>
       <c r="C75" t="s">
@@ -3320,10 +3340,10 @@
       </c>
     </row>
     <row r="76" spans="1:13" ht="17.25">
-      <c r="A76" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="B76" s="19" t="s">
+      <c r="A76" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B76" s="18" t="s">
         <v>211</v>
       </c>
       <c r="C76" t="s">
@@ -3331,10 +3351,10 @@
       </c>
     </row>
     <row r="77" spans="1:13" ht="17.25">
-      <c r="A77" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="B77" s="19" t="s">
+      <c r="A77" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B77" s="18" t="s">
         <v>211</v>
       </c>
       <c r="C77" t="s">
@@ -3342,10 +3362,10 @@
       </c>
     </row>
     <row r="78" spans="1:13" ht="17.25">
-      <c r="A78" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="B78" s="19" t="s">
+      <c r="A78" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B78" s="18" t="s">
         <v>211</v>
       </c>
       <c r="C78" t="s">
@@ -3353,10 +3373,10 @@
       </c>
     </row>
     <row r="79" spans="1:13" ht="17.25">
-      <c r="A79" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="B79" s="19" t="s">
+      <c r="A79" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B79" s="18" t="s">
         <v>211</v>
       </c>
       <c r="C79" t="s">
@@ -3364,30 +3384,30 @@
       </c>
     </row>
     <row r="80" spans="1:13" ht="17.25">
-      <c r="A80" s="10" t="s">
-        <v>439</v>
-      </c>
-      <c r="B80" s="19" t="s">
+      <c r="A80" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B80" s="18" t="s">
         <v>211</v>
       </c>
       <c r="C80" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="12" t="s">
+    <row r="81" spans="1:3" ht="17.25">
+      <c r="A81" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C81" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="11" t="s">
         <v>6</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>7</v>
@@ -3397,10 +3417,10 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="A83" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C83" t="s">
@@ -3408,8 +3428,8 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="13" t="s">
-        <v>191</v>
+      <c r="A84" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -3419,8 +3439,8 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="13" t="s">
-        <v>192</v>
+      <c r="A85" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -3430,8 +3450,8 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="13" t="s">
-        <v>193</v>
+      <c r="A86" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -3440,11 +3460,11 @@
         <v>357</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="17.25">
-      <c r="A87" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B87" s="10" t="s">
+    <row r="87" spans="1:3">
+      <c r="A87" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="C87" t="s">
@@ -3452,10 +3472,10 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="17.25">
-      <c r="A88" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B88" s="19" t="s">
+      <c r="A88" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C88" t="s">
@@ -3463,10 +3483,10 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="17.25">
-      <c r="A89" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="B89" s="10" t="s">
+      <c r="A89" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B89" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C89" t="s">
@@ -3474,10 +3494,10 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="17.25">
-      <c r="A90" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="B90" s="10" t="s">
+      <c r="A90" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C90" t="s">
@@ -3485,30 +3505,30 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="17.25">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="17.25">
+      <c r="A92" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B92" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="14" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="B92" t="s">
-        <v>243</v>
-      </c>
-      <c r="C92" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="16" t="s">
-        <v>241</v>
       </c>
       <c r="B93" t="s">
         <v>243</v>
@@ -3518,8 +3538,8 @@
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="16" t="s">
-        <v>242</v>
+      <c r="A94" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="B94" t="s">
         <v>243</v>
@@ -3528,22 +3548,22 @@
         <v>358</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="17.25">
-      <c r="A95" s="10" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B95" t="s">
+        <v>243</v>
+      </c>
+      <c r="C95" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="17.25">
+      <c r="A96" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C95" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="17.25">
-      <c r="A96" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="9" t="s">
         <v>322</v>
       </c>
       <c r="C96" t="s">
@@ -3551,10 +3571,10 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="17.25">
-      <c r="A97" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B97" s="10" t="s">
+      <c r="A97" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>322</v>
       </c>
       <c r="C97" t="s">
@@ -3562,87 +3582,87 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="17.25">
-      <c r="A98" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>256</v>
+      <c r="A98" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>322</v>
       </c>
       <c r="C98" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="17.25">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C99" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17.25">
+      <c r="A100" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B100" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C100" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="13" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>219</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="16" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B102" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="13" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>169</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C103" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="16" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C104" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="13" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B104" t="s">
-        <v>109</v>
-      </c>
-      <c r="C104" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" t="s">
         <v>109</v>
       </c>
       <c r="C105" t="s">
@@ -3650,43 +3670,43 @@
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17.25">
+      <c r="A107" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B106" t="s">
-        <v>87</v>
-      </c>
-      <c r="C106" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B107" t="s">
-        <v>87</v>
-      </c>
-      <c r="C107" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="17.25">
-      <c r="A108" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="B108" s="19" t="s">
+      <c r="B108" t="s">
         <v>87</v>
       </c>
       <c r="C108" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="17.25">
-      <c r="A109" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="B109" s="19" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
         <v>87</v>
       </c>
       <c r="C109" t="s">
@@ -3694,10 +3714,10 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="17.25">
-      <c r="A110" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B110" s="19" t="s">
+      <c r="A110" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B110" s="18" t="s">
         <v>87</v>
       </c>
       <c r="C110" t="s">
@@ -3705,349 +3725,349 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="17.25">
-      <c r="A111" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="B111" s="19" t="s">
+      <c r="A111" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B111" s="18" t="s">
         <v>87</v>
       </c>
       <c r="C111" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="12" t="s">
+    <row r="112" spans="1:3" ht="17.25">
+      <c r="A112" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C112" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="17.25">
+      <c r="A113" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C113" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C112" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="12" t="s">
+      <c r="B114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="12" t="s">
+      <c r="B115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C114" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="12" t="s">
+      <c r="B116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="12" t="s">
+      <c r="B117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C116" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="12" t="s">
+      <c r="B118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C117" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="12" t="s">
+      <c r="B119" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C118" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="12" t="s">
+      <c r="B120" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C119" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="12" t="s">
+      <c r="B121" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C120" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="12" t="s">
+      <c r="B122" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C121" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="12" t="s">
+      <c r="B123" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C122" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="12" t="s">
+      <c r="B124" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C123" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="12" t="s">
+      <c r="B125" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="12" t="s">
+      <c r="B126" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B125" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C125" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="12" t="s">
+      <c r="B127" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C126" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="12" t="s">
+      <c r="B128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C127" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="12" t="s">
+      <c r="B129" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C128" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="12" t="s">
+      <c r="B130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C129" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="12" t="s">
+      <c r="B131" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C130" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="12" t="s">
+      <c r="B132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C131" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="12" t="s">
+      <c r="B133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C132" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="12" t="s">
+      <c r="B134" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C133" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="12" t="s">
+      <c r="B135" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C134" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="12" t="s">
+      <c r="B136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="13" t="s">
+      <c r="B137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B136" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="13" t="s">
+      <c r="B138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B137" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="14" t="s">
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="14" t="s">
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="14" t="s">
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="B140" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B141" t="s">
-        <v>3</v>
-      </c>
-      <c r="C141" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="14" t="s">
-        <v>134</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -4058,7 +4078,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="13" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -4069,680 +4089,680 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="B144" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="13" t="s">
+      <c r="B146" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="13" t="s">
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B146" t="s">
-        <v>3</v>
-      </c>
-      <c r="C146" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="13" t="s">
+      <c r="B148" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B147" t="s">
-        <v>3</v>
-      </c>
-      <c r="C147" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="13" t="s">
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B148" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="13" t="s">
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="B149" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="13" t="s">
+      <c r="B151" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="B150" t="s">
-        <v>3</v>
-      </c>
-      <c r="C150" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="13" t="s">
+      <c r="B152" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="B151" t="s">
-        <v>3</v>
-      </c>
-      <c r="C151" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="13" t="s">
+      <c r="B153" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B152" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="13" t="s">
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B153" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="13" t="s">
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B154" t="s">
-        <v>3</v>
-      </c>
-      <c r="C154" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="13" t="s">
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B155" t="s">
-        <v>3</v>
-      </c>
-      <c r="C155" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="13" t="s">
+      <c r="B157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B156" t="s">
-        <v>3</v>
-      </c>
-      <c r="C156" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="13" t="s">
+      <c r="B158" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B157" t="s">
-        <v>3</v>
-      </c>
-      <c r="C157" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="13" t="s">
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B158" t="s">
-        <v>3</v>
-      </c>
-      <c r="C158" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="13" t="s">
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B159" t="s">
-        <v>3</v>
-      </c>
-      <c r="C159" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="13" t="s">
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B160" t="s">
-        <v>3</v>
-      </c>
-      <c r="C160" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="17.25">
-      <c r="A161" s="13" t="s">
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="17.25">
+      <c r="A163" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B161" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C161" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="17.25">
-      <c r="A162" s="10" t="s">
+      <c r="B163" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="17.25">
+      <c r="A164" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B162" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="17.25">
-      <c r="A163" s="10" t="s">
+      <c r="B164" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="17.25">
+      <c r="A165" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B163" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="17.25">
-      <c r="A164" s="10" t="s">
+      <c r="B165" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="17.25">
+      <c r="A166" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="B164" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="17.25">
-      <c r="A165" s="10" t="s">
+      <c r="B166" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="17.25">
+      <c r="A167" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B165" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C165" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="17.25">
-      <c r="A166" s="10" t="s">
+      <c r="B167" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="17.25">
+      <c r="A168" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B166" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C166" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="17.25">
-      <c r="A167" s="10" t="s">
+      <c r="B168" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="17.25">
+      <c r="A169" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B167" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C167" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="17.25">
-      <c r="A168" s="10" t="s">
+      <c r="B169" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="17.25">
+      <c r="A170" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B168" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C168" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="17.25">
-      <c r="A169" s="10" t="s">
+      <c r="B170" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="17.25">
+      <c r="A171" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B169" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C169" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="17.25">
-      <c r="A170" s="10" t="s">
+      <c r="B171" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="17.25">
+      <c r="A172" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="B170" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="17.25">
-      <c r="A171" s="10" t="s">
+      <c r="B172" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="17.25">
+      <c r="A173" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="B171" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C171" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="17.25">
-      <c r="A172" s="10" t="s">
+      <c r="B173" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="17.25">
+      <c r="A174" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="B172" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="17.25">
-      <c r="A173" s="10" t="s">
+      <c r="B174" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="17.25">
+      <c r="A175" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="B173" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="17.25">
-      <c r="A174" s="10" t="s">
+      <c r="B175" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="17.25">
+      <c r="A176" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="B174" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="17.25">
-      <c r="A175" s="10" t="s">
+      <c r="B176" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="17.25">
+      <c r="A177" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="B175" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="17.25">
-      <c r="A176" s="10" t="s">
+      <c r="B177" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="17.25">
+      <c r="A178" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="B176" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C176" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="17.25">
-      <c r="A177" s="10" t="s">
+      <c r="B178" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="17.25">
+      <c r="A179" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="B177" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C177" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="17.25">
-      <c r="A178" s="10" t="s">
+      <c r="B179" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="17.25">
+      <c r="A180" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="B178" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C178" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="17.25">
-      <c r="A179" s="10" t="s">
+      <c r="B180" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="17.25">
+      <c r="A181" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="B179" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C179" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="17.25">
-      <c r="A180" s="10" t="s">
+      <c r="B181" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="17.25">
+      <c r="A182" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="B180" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C180" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="17.25">
-      <c r="A181" s="10" t="s">
+      <c r="B182" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="17.25">
+      <c r="A183" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B181" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C181" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="17.25">
-      <c r="A182" s="10" t="s">
+      <c r="B183" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="17.25">
+      <c r="A184" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="B182" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C182" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="17.25">
-      <c r="A183" s="10" t="s">
+      <c r="B184" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="17.25">
+      <c r="A185" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B183" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C183" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="17.25">
-      <c r="A184" s="10" t="s">
+      <c r="B185" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="17.25">
+      <c r="A186" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="B184" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C184" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="17.25">
-      <c r="A185" s="10" t="s">
+      <c r="B186" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="17.25">
+      <c r="A187" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="B185" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C185" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="17.25">
-      <c r="A186" s="10" t="s">
+      <c r="B187" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="17.25">
+      <c r="A188" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="B186" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C186" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="17.25">
-      <c r="A187" s="10" t="s">
+      <c r="B188" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="17.25">
+      <c r="A189" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="B187" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C187" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="17.25">
-      <c r="A188" s="10" t="s">
+      <c r="B189" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="17.25">
+      <c r="A190" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="B188" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C188" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="17.25">
-      <c r="A189" s="12" t="s">
+      <c r="B190" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="17.25">
+      <c r="A191" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="B189" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C189" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="17.25">
-      <c r="A190" s="10" t="s">
+      <c r="B191" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="17.25">
+      <c r="A192" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="B190" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C190" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="17.25">
-      <c r="A191" s="10" t="s">
+      <c r="B192" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="17.25">
+      <c r="A193" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="B191" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C191" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="17.25">
-      <c r="A192" s="10" t="s">
+      <c r="B193" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="17.25">
+      <c r="A194" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="B192" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C192" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="17.25">
-      <c r="A193" s="10" t="s">
+      <c r="B194" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="17.25">
+      <c r="A195" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="B193" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C193" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="17.25">
-      <c r="A194" s="10" t="s">
+      <c r="B195" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="17.25">
+      <c r="A196" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="B194" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C194" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="17.25">
-      <c r="A195" s="10" t="s">
+      <c r="B196" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="17.25">
+      <c r="A197" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="B195" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C195" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="17.25">
-      <c r="A196" s="10" t="s">
+      <c r="B197" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="17.25">
+      <c r="A198" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="B196" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C196" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="17.25">
-      <c r="A197" s="12" t="s">
+      <c r="B198" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="17.25">
+      <c r="A199" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="B197" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C197" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="17.25">
-      <c r="A198" s="12" t="s">
+      <c r="B199" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="17.25">
+      <c r="A200" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="B198" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C198" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="17.25">
-      <c r="A199" s="12" t="s">
+      <c r="B200" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="17.25">
+      <c r="A201" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="B199" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="17.25">
-      <c r="A200" s="12" t="s">
+      <c r="B201" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="17.25">
+      <c r="A202" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="B200" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C200" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="17.25">
-      <c r="A201" s="12" t="s">
+      <c r="B202" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="17.25">
+      <c r="A203" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="B201" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C201" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="17.25">
-      <c r="A202" s="10" t="s">
+      <c r="B203" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="17.25">
+      <c r="A204" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B204" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C204" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="13" t="s">
+    <row r="205" spans="1:3">
+      <c r="A205" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B203" t="s">
-        <v>197</v>
-      </c>
-      <c r="C203" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="17.25">
-      <c r="A204" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="B204" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C204" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="17.25">
-      <c r="A205" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="B205" s="19" t="s">
+      <c r="B205" t="s">
         <v>197</v>
       </c>
       <c r="C205" t="s">
@@ -4750,10 +4770,10 @@
       </c>
     </row>
     <row r="206" spans="1:3" ht="17.25">
-      <c r="A206" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="B206" s="19" t="s">
+      <c r="A206" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B206" s="18" t="s">
         <v>197</v>
       </c>
       <c r="C206" t="s">
@@ -4761,10 +4781,10 @@
       </c>
     </row>
     <row r="207" spans="1:3" ht="17.25">
-      <c r="A207" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="B207" s="19" t="s">
+      <c r="A207" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B207" s="18" t="s">
         <v>197</v>
       </c>
       <c r="C207" t="s">
@@ -4772,10 +4792,10 @@
       </c>
     </row>
     <row r="208" spans="1:3" ht="17.25">
-      <c r="A208" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="B208" s="19" t="s">
+      <c r="A208" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B208" s="18" t="s">
         <v>197</v>
       </c>
       <c r="C208" t="s">
@@ -4783,10 +4803,10 @@
       </c>
     </row>
     <row r="209" spans="1:3" ht="17.25">
-      <c r="A209" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="B209" s="19" t="s">
+      <c r="A209" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B209" s="18" t="s">
         <v>197</v>
       </c>
       <c r="C209" t="s">
@@ -4794,10 +4814,10 @@
       </c>
     </row>
     <row r="210" spans="1:3" ht="17.25">
-      <c r="A210" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="B210" s="10" t="s">
+      <c r="A210" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B210" s="18" t="s">
         <v>197</v>
       </c>
       <c r="C210" t="s">
@@ -4805,10 +4825,10 @@
       </c>
     </row>
     <row r="211" spans="1:3" ht="17.25">
-      <c r="A211" s="12" t="s">
-        <v>544</v>
-      </c>
-      <c r="B211" s="10" t="s">
+      <c r="A211" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B211" s="18" t="s">
         <v>197</v>
       </c>
       <c r="C211" t="s">
@@ -4816,10 +4836,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="17.25">
-      <c r="A212" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="B212" s="10" t="s">
+      <c r="A212" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B212" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C212" t="s">
@@ -4827,52 +4847,52 @@
       </c>
     </row>
     <row r="213" spans="1:3" ht="17.25">
-      <c r="A213" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="B213" s="10" t="s">
+      <c r="A213" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B213" s="9" t="s">
         <v>197</v>
       </c>
       <c r="C213" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="13" t="s">
+    <row r="214" spans="1:3" ht="17.25">
+      <c r="A214" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C214" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="17.25">
+      <c r="A215" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B215" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C215" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B216" t="s">
         <v>174</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C216" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B215" t="s">
-        <v>135</v>
-      </c>
-      <c r="C215" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B216" t="s">
-        <v>135</v>
-      </c>
-      <c r="C216" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="13" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B217" t="s">
         <v>135</v>
@@ -4883,7 +4903,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="13" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B218" t="s">
         <v>135</v>
@@ -4892,33 +4912,33 @@
         <v>370</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="17.25">
-      <c r="A219" s="10" t="s">
+    <row r="219" spans="1:3">
+      <c r="A219" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B219" t="s">
+        <v>135</v>
+      </c>
+      <c r="C219" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B220" t="s">
+        <v>135</v>
+      </c>
+      <c r="C220" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="17.25">
+      <c r="A221" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B219" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C219" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="17.25">
-      <c r="A220" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B220" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="17.25">
-      <c r="A221" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="B221" s="19" t="s">
+      <c r="B221" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C221" s="6" t="s">
@@ -4926,10 +4946,10 @@
       </c>
     </row>
     <row r="222" spans="1:3" ht="17.25">
-      <c r="A222" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="B222" s="19" t="s">
+      <c r="A222" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B222" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C222" s="6" t="s">
@@ -4937,54 +4957,54 @@
       </c>
     </row>
     <row r="223" spans="1:3" ht="17.25">
-      <c r="A223" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="B223" s="19" t="s">
+      <c r="A223" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B223" s="18" t="s">
         <v>135</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="13" t="s">
+    <row r="224" spans="1:3" ht="17.25">
+      <c r="A224" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B224" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="17.25">
+      <c r="A225" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B226" t="s">
         <v>222</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C226" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="13" t="s">
+    <row r="227" spans="1:3">
+      <c r="A227" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B225" t="s">
-        <v>89</v>
-      </c>
-      <c r="C225" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="17.25">
-      <c r="A226" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="B226" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C226" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="17.25">
-      <c r="A227" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="B227" s="19" t="s">
+      <c r="B227" t="s">
         <v>89</v>
       </c>
       <c r="C227" t="s">
@@ -4992,98 +5012,98 @@
       </c>
     </row>
     <row r="228" spans="1:3" ht="17.25">
-      <c r="A228" s="10" t="s">
+      <c r="A228" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B228" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C228" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="17.25">
+      <c r="A229" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B229" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C229" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="17.25">
+      <c r="A230" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="B230" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C230" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="12" t="s">
+    <row r="231" spans="1:3">
+      <c r="A231" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B231" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C231" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="17.25">
-      <c r="A230" s="10" t="s">
+    <row r="232" spans="1:3" ht="17.25">
+      <c r="A232" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B230" s="19" t="s">
+      <c r="B232" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C232" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="17" t="s">
+    <row r="233" spans="1:3">
+      <c r="A233" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B233" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C233" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="13" t="s">
+    <row r="234" spans="1:3">
+      <c r="A234" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B234" t="s">
         <v>104</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C234" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="13" t="s">
+    <row r="235" spans="1:3">
+      <c r="A235" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B235" t="s">
         <v>104</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C235" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="17.25">
-      <c r="A234" s="10" t="s">
+    <row r="236" spans="1:3" ht="17.25">
+      <c r="A236" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B234" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="17.25">
-      <c r="A235" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="B235" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="17.25">
-      <c r="A236" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="B236" s="10" t="s">
+      <c r="B236" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C236" s="7" t="s">
@@ -5091,10 +5111,10 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="17.25">
-      <c r="A237" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="B237" s="19" t="s">
+      <c r="A237" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B237" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C237" s="7" t="s">
@@ -5102,10 +5122,10 @@
       </c>
     </row>
     <row r="238" spans="1:3" ht="17.25">
-      <c r="A238" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="B238" s="19" t="s">
+      <c r="A238" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B238" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C238" s="7" t="s">
@@ -5113,10 +5133,10 @@
       </c>
     </row>
     <row r="239" spans="1:3" ht="17.25">
-      <c r="A239" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="B239" s="19" t="s">
+      <c r="A239" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B239" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C239" s="7" t="s">
@@ -5124,10 +5144,10 @@
       </c>
     </row>
     <row r="240" spans="1:3" ht="17.25">
-      <c r="A240" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B240" s="19" t="s">
+      <c r="A240" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B240" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C240" s="7" t="s">
@@ -5135,10 +5155,10 @@
       </c>
     </row>
     <row r="241" spans="1:3" ht="17.25">
-      <c r="A241" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B241" s="19" t="s">
+      <c r="A241" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B241" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C241" s="7" t="s">
@@ -5146,10 +5166,10 @@
       </c>
     </row>
     <row r="242" spans="1:3" ht="17.25">
-      <c r="A242" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="B242" s="19" t="s">
+      <c r="A242" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B242" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C242" s="7" t="s">
@@ -5157,10 +5177,10 @@
       </c>
     </row>
     <row r="243" spans="1:3" ht="17.25">
-      <c r="A243" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="B243" s="19" t="s">
+      <c r="A243" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B243" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C243" s="7" t="s">
@@ -5168,76 +5188,76 @@
       </c>
     </row>
     <row r="244" spans="1:3" ht="17.25">
-      <c r="A244" s="10" t="s">
+      <c r="A244" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B244" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="17.25">
+      <c r="A245" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B245" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="17.25">
+      <c r="A246" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="B244" s="19" t="s">
+      <c r="B246" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C244" s="6" t="s">
+      <c r="C246" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="17.25">
-      <c r="A245" s="10" t="s">
+    <row r="247" spans="1:3" ht="17.25">
+      <c r="A247" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="B245" s="10" t="s">
+      <c r="B247" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C245" s="6" t="s">
+      <c r="C247" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="12" t="s">
+    <row r="248" spans="1:3">
+      <c r="A248" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B248" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C248" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="12" t="s">
+    <row r="249" spans="1:3">
+      <c r="A249" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B249" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C249" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="13" t="s">
+    <row r="250" spans="1:3">
+      <c r="A250" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B248" t="s">
-        <v>213</v>
-      </c>
-      <c r="C248" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="17.25">
-      <c r="A249" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="B249" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C249" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="17.25">
-      <c r="A250" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="B250" s="19" t="s">
+      <c r="B250" t="s">
         <v>213</v>
       </c>
       <c r="C250" t="s">
@@ -5245,54 +5265,54 @@
       </c>
     </row>
     <row r="251" spans="1:3" ht="17.25">
-      <c r="A251" s="12" t="s">
+      <c r="A251" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C251" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="17.25">
+      <c r="A252" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B252" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C252" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="17.25">
+      <c r="A253" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="B253" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C253" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="14" t="s">
+    <row r="254" spans="1:3" ht="17.25">
+      <c r="A254" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="C254" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B252" t="s">
-        <v>206</v>
-      </c>
-      <c r="C252" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="17.25">
-      <c r="A253" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="B253" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C253" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="17.25">
-      <c r="A254" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="B254" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="C254" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="17.25">
-      <c r="A255" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="B255" s="19" t="s">
+      <c r="B255" t="s">
         <v>206</v>
       </c>
       <c r="C255" t="s">
@@ -5300,10 +5320,10 @@
       </c>
     </row>
     <row r="256" spans="1:3" ht="17.25">
-      <c r="A256" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="B256" s="19" t="s">
+      <c r="A256" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B256" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C256" t="s">
@@ -5311,10 +5331,10 @@
       </c>
     </row>
     <row r="257" spans="1:3" ht="17.25">
-      <c r="A257" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="B257" s="19" t="s">
+      <c r="A257" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B257" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C257" t="s">
@@ -5322,10 +5342,10 @@
       </c>
     </row>
     <row r="258" spans="1:3" ht="17.25">
-      <c r="A258" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="B258" s="19" t="s">
+      <c r="A258" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B258" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C258" t="s">
@@ -5333,63 +5353,63 @@
       </c>
     </row>
     <row r="259" spans="1:3" ht="17.25">
-      <c r="A259" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="B259" s="19" t="s">
+      <c r="A259" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B259" s="18" t="s">
         <v>206</v>
       </c>
       <c r="C259" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B260" t="s">
-        <v>99</v>
+    <row r="260" spans="1:3" ht="17.25">
+      <c r="A260" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B260" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="C260" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>12</v>
+    <row r="261" spans="1:3" ht="17.25">
+      <c r="A261" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B261" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="C261" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
-      <c r="A262" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>12</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="17.25">
+      <c r="A262" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B262" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="C262" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>12</v>
+        <v>98</v>
+      </c>
+      <c r="B263" t="s">
+        <v>99</v>
       </c>
       <c r="C263" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="12" t="s">
-        <v>27</v>
+      <c r="A264" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>12</v>
@@ -5399,8 +5419,8 @@
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="12" t="s">
-        <v>28</v>
+      <c r="A265" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>12</v>
@@ -5410,8 +5430,8 @@
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="12" t="s">
-        <v>29</v>
+      <c r="A266" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>12</v>
@@ -5421,8 +5441,8 @@
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267" s="12" t="s">
-        <v>30</v>
+      <c r="A267" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>12</v>
@@ -5432,8 +5452,8 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="12" t="s">
-        <v>31</v>
+      <c r="A268" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>12</v>
@@ -5442,99 +5462,99 @@
         <v>379</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="17.25">
-      <c r="A269" s="10" t="s">
+    <row r="269" spans="1:3">
+      <c r="A269" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="17.25">
+      <c r="A272" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="B269" s="19" t="s">
+      <c r="B272" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C272" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="14" t="s">
+    <row r="273" spans="1:3">
+      <c r="A273" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B273" t="s">
         <v>201</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C273" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="17.25">
-      <c r="A271" s="10" t="s">
+    <row r="274" spans="1:3" ht="17.25">
+      <c r="A274" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B271" s="10" t="s">
+      <c r="B274" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C274" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="12" t="s">
+    <row r="275" spans="1:3">
+      <c r="A275" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C272" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
-      <c r="A273" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C273" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3">
-      <c r="A274" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C274" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="17.25">
-      <c r="A275" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="B275" s="10" t="s">
+      <c r="B275" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C275" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="17.25">
-      <c r="A276" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="B276" s="10" t="s">
+    <row r="276" spans="1:3">
+      <c r="A276" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C276" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="17.25">
-      <c r="A277" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="B277" s="10" t="s">
+    <row r="277" spans="1:3">
+      <c r="A277" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C277" t="s">
@@ -5542,63 +5562,63 @@
       </c>
     </row>
     <row r="278" spans="1:3" ht="17.25">
-      <c r="A278" s="10" t="s">
+      <c r="A278" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C278" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="17.25">
+      <c r="A279" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C279" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="17.25">
+      <c r="A280" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C280" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="17.25">
+      <c r="A281" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B278" s="10" t="s">
+      <c r="B281" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C281" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="17.25">
-      <c r="A279" s="10" t="s">
+    <row r="282" spans="1:3" ht="17.25">
+      <c r="A282" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B279" s="10" t="s">
+      <c r="B282" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C282" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
-      <c r="A280" s="12" t="s">
+    <row r="283" spans="1:3">
+      <c r="A283" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="B280" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C280" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B281" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C281" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C282" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="12" t="s">
-        <v>23</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>24</v>
@@ -5608,118 +5628,118 @@
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B284" t="s">
+      <c r="A284" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B284" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C284" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="17.25">
-      <c r="A285" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="B285" s="10" t="s">
+    <row r="285" spans="1:3">
+      <c r="A285" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B285" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C285" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="17.25">
-      <c r="A286" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="B286" s="19" t="s">
+    <row r="286" spans="1:3">
+      <c r="A286" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B286" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C286" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="17.25">
-      <c r="A287" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="B287" s="19" t="s">
+    <row r="287" spans="1:3">
+      <c r="A287" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B287" t="s">
         <v>24</v>
       </c>
       <c r="C287" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
-      <c r="A288" s="13" t="s">
+    <row r="288" spans="1:3" ht="17.25">
+      <c r="A288" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C288" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="17.25">
+      <c r="A289" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B289" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C289" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="17.25">
+      <c r="A290" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B290" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C290" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="17.25">
+      <c r="A291" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="C291" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B292" t="s">
         <v>224</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C292" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="289" spans="1:3">
-      <c r="A289" s="15" t="s">
+    <row r="293" spans="1:3">
+      <c r="A293" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B289" s="4" t="s">
+      <c r="B293" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C293" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="290" spans="1:3">
-      <c r="A290" s="13" t="s">
+    <row r="294" spans="1:3">
+      <c r="A294" s="12" t="s">
         <v>163</v>
-      </c>
-      <c r="B290" t="s">
-        <v>164</v>
-      </c>
-      <c r="C290" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3">
-      <c r="A291" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="B291" t="s">
-        <v>164</v>
-      </c>
-      <c r="C291" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
-      <c r="A292" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B292" t="s">
-        <v>164</v>
-      </c>
-      <c r="C292" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B293" t="s">
-        <v>164</v>
-      </c>
-      <c r="C293" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="13" t="s">
-        <v>172</v>
       </c>
       <c r="B294" t="s">
         <v>164</v>
@@ -5729,261 +5749,261 @@
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" s="13" t="s">
+      <c r="A295" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B295" t="s">
+        <v>164</v>
+      </c>
+      <c r="C295" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B296" t="s">
+        <v>164</v>
+      </c>
+      <c r="C296" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B297" t="s">
+        <v>164</v>
+      </c>
+      <c r="C297" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B298" t="s">
+        <v>164</v>
+      </c>
+      <c r="C298" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B299" t="s">
         <v>153</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C299" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="A296" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B296" t="s">
-        <v>153</v>
-      </c>
-      <c r="C296" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="B297" t="s">
-        <v>153</v>
-      </c>
-      <c r="C297" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="17.25">
-      <c r="A298" s="20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B298" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C298" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3">
-      <c r="A299" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="B299" t="s">
-        <v>116</v>
-      </c>
-      <c r="C299" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B300" t="s">
+        <v>153</v>
+      </c>
+      <c r="C300" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B301" t="s">
+        <v>153</v>
+      </c>
+      <c r="C301" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="17.25">
+      <c r="A302" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B302" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C302" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B303" t="s">
+        <v>116</v>
+      </c>
+      <c r="C303" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="17.25">
+      <c r="A304" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B304" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C304" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B305" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C300" s="6" t="s">
+      <c r="C305" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="301" spans="1:3">
-      <c r="A301" s="13" t="s">
+    <row r="306" spans="1:3">
+      <c r="A306" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B306" t="s">
         <v>5</v>
       </c>
-      <c r="C301" s="6" t="s">
+      <c r="C306" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
-      <c r="A302" s="16" t="s">
+    <row r="307" spans="1:3">
+      <c r="A307" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B307" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C307" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="17.25">
-      <c r="A303" s="10" t="s">
+    <row r="308" spans="1:3" ht="17.25">
+      <c r="A308" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="B303" s="10" t="s">
+      <c r="B308" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C308" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="304" spans="1:3">
-      <c r="A304" s="13" t="s">
+    <row r="309" spans="1:3">
+      <c r="A309" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B309" t="s">
         <v>230</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C309" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
-      <c r="A305" s="16" t="s">
+    <row r="310" spans="1:3">
+      <c r="A310" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="B305" s="8" t="s">
+      <c r="B310" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C305" t="s">
+      <c r="C310" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="17.25">
-      <c r="A306" s="10" t="s">
+    <row r="311" spans="1:3" ht="17.25">
+      <c r="A311" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="B306" s="19" t="s">
+      <c r="B311" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C311" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="13" t="s">
+    <row r="312" spans="1:3">
+      <c r="A312" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B312" t="s">
         <v>85</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C312" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="17.25">
-      <c r="A308" s="10" t="s">
+    <row r="313" spans="1:3" ht="17.25">
+      <c r="A313" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="B308" s="19" t="s">
+      <c r="B313" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C313" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="17.25">
-      <c r="A309" s="10" t="s">
+    <row r="314" spans="1:3" ht="17.25">
+      <c r="A314" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B309" s="10" t="s">
+      <c r="B314" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C309" t="s">
+      <c r="C314" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="17.25">
-      <c r="A310" s="10" t="s">
+    <row r="315" spans="1:3" ht="17.25">
+      <c r="A315" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="B315" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C315" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="17.25">
-      <c r="A311" s="10" t="s">
+    <row r="316" spans="1:3" ht="17.25">
+      <c r="A316" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="B311" s="19" t="s">
+      <c r="B316" s="18" t="s">
         <v>424</v>
       </c>
-      <c r="C311" t="s">
+      <c r="C316" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="17.25">
-      <c r="A312" s="10" t="s">
+    <row r="317" spans="1:3" ht="17.25">
+      <c r="A317" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B312" s="10" t="s">
+      <c r="B317" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C317" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3">
-      <c r="A313" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B313" t="s">
-        <v>124</v>
-      </c>
-      <c r="C313" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="A314" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="B314" t="s">
-        <v>124</v>
-      </c>
-      <c r="C314" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3">
-      <c r="A315" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="B315" t="s">
-        <v>124</v>
-      </c>
-      <c r="C315" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3">
-      <c r="A316" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B316" t="s">
-        <v>124</v>
-      </c>
-      <c r="C316" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3">
-      <c r="A317" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B317" t="s">
-        <v>124</v>
-      </c>
-      <c r="C317" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="13" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B318" t="s">
         <v>124</v>
@@ -5994,7 +6014,7 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="13" t="s">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="B319" t="s">
         <v>124</v>
@@ -6005,7 +6025,7 @@
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="13" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="B320" t="s">
         <v>124</v>
@@ -6016,7 +6036,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="13" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B321" t="s">
         <v>124</v>
@@ -6025,66 +6045,66 @@
         <v>395</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="17.25">
-      <c r="A322" s="10" t="s">
+    <row r="322" spans="1:3">
+      <c r="A322" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B322" t="s">
+        <v>124</v>
+      </c>
+      <c r="C322" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B323" t="s">
+        <v>124</v>
+      </c>
+      <c r="C323" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B324" t="s">
+        <v>124</v>
+      </c>
+      <c r="C324" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B325" t="s">
+        <v>124</v>
+      </c>
+      <c r="C325" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B326" t="s">
+        <v>124</v>
+      </c>
+      <c r="C326" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="17.25">
+      <c r="A327" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="B322" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C322" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="17.25">
-      <c r="A323" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="B323" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C323" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="17.25">
-      <c r="A324" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="B324" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C324" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" ht="17.25">
-      <c r="A325" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="B325" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C325" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="17.25">
-      <c r="A326" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="B326" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C326" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" ht="17.25">
-      <c r="A327" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="B327" s="19" t="s">
+      <c r="B327" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C327" s="6" t="s">
@@ -6092,10 +6112,10 @@
       </c>
     </row>
     <row r="328" spans="1:3" ht="17.25">
-      <c r="A328" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="B328" s="19" t="s">
+      <c r="A328" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B328" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C328" s="6" t="s">
@@ -6103,395 +6123,395 @@
       </c>
     </row>
     <row r="329" spans="1:3" ht="17.25">
-      <c r="A329" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="B329" s="19" t="s">
+      <c r="A329" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B329" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="330" spans="1:3">
-      <c r="A330" s="13" t="s">
+    <row r="330" spans="1:3" ht="17.25">
+      <c r="A330" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B330" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="17.25">
+      <c r="A331" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B331" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="17.25">
+      <c r="A332" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B332" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="17.25">
+      <c r="A333" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B333" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="17.25">
+      <c r="A334" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B334" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C334" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B335" t="s">
         <v>226</v>
       </c>
-      <c r="C330" t="s">
+      <c r="C335" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="331" spans="1:3">
-      <c r="A331" s="15" t="s">
+    <row r="336" spans="1:3">
+      <c r="A336" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B336" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C331" t="s">
+      <c r="C336" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="332" spans="1:3">
-      <c r="A332" s="12" t="s">
+    <row r="337" spans="1:3">
+      <c r="A337" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B337" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C332" t="s">
+      <c r="C337" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="17.25">
-      <c r="A333" s="10" t="s">
+    <row r="338" spans="1:3" ht="17.25">
+      <c r="A338" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="B333" s="10" t="s">
+      <c r="B338" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C333" t="s">
+      <c r="C338" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="17.25">
-      <c r="A334" s="10" t="s">
+    <row r="339" spans="1:3" ht="17.25">
+      <c r="A339" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="B334" s="19" t="s">
+      <c r="B339" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="C334" s="7" t="s">
+      <c r="C339" s="7" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="17.25">
-      <c r="A335" s="10" t="s">
+    <row r="340" spans="1:3" ht="17.25">
+      <c r="A340" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="B335" s="19" t="s">
+      <c r="B340" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="C335" s="7" t="s">
+      <c r="C340" s="7" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="17.25">
-      <c r="A336" s="10" t="s">
+    <row r="341" spans="1:3" ht="17.25">
+      <c r="A341" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="B336" s="10" t="s">
+      <c r="B341" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C336" s="6" t="s">
+      <c r="C341" s="6" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="17.25">
-      <c r="A337" s="10" t="s">
+    <row r="342" spans="1:3" ht="17.25">
+      <c r="A342" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="B337" s="19" t="s">
+      <c r="B342" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="C337" s="6" t="s">
+      <c r="C342" s="6" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="338" spans="1:3">
-      <c r="A338" s="13" t="s">
+    <row r="343" spans="1:3">
+      <c r="A343" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B343" t="s">
         <v>107</v>
       </c>
-      <c r="C338" t="s">
+      <c r="C343" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="339" spans="1:3">
-      <c r="A339" s="12" t="s">
+    <row r="344" spans="1:3">
+      <c r="A344" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B344" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C339" t="s">
+      <c r="C344" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="340" spans="1:3">
-      <c r="A340" s="13" t="s">
+    <row r="345" spans="1:3">
+      <c r="A345" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B345" t="s">
         <v>228</v>
       </c>
-      <c r="C340" t="s">
+      <c r="C345" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="17.25">
-      <c r="A341" s="10" t="s">
+    <row r="346" spans="1:3" ht="17.25">
+      <c r="A346" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B341" s="10" t="s">
+      <c r="B346" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C341" t="s">
+      <c r="C346" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="17.25">
-      <c r="A342" s="10" t="s">
+    <row r="347" spans="1:3" ht="17.25">
+      <c r="A347" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B342" s="10" t="s">
+      <c r="B347" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C342" t="s">
+      <c r="C347" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
-      <c r="A343" s="13" t="s">
+    <row r="348" spans="1:3">
+      <c r="A348" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B348" t="s">
         <v>171</v>
       </c>
-      <c r="C343" t="s">
+      <c r="C348" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
-      <c r="A344" s="13" t="s">
+    <row r="349" spans="1:3">
+      <c r="A349" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B349" t="s">
         <v>148</v>
       </c>
-      <c r="C344" t="s">
+      <c r="C349" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
-      <c r="A345" s="13" t="s">
+    <row r="350" spans="1:3">
+      <c r="A350" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B350" t="s">
         <v>148</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C350" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="17.25">
-      <c r="A346" s="10" t="s">
+    <row r="351" spans="1:3" ht="17.25">
+      <c r="A351" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="B346" s="10" t="s">
+      <c r="B351" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C351" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
-      <c r="A347" s="12" t="s">
+    <row r="352" spans="1:3">
+      <c r="A352" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B347" s="2" t="s">
+      <c r="B352" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C352" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="17.25">
-      <c r="A348" s="18" t="s">
+    <row r="353" spans="1:3" ht="17.25">
+      <c r="A353" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B348" s="10" t="s">
+      <c r="B353" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C348" t="s">
+      <c r="C353" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="17.25">
-      <c r="A349" s="10" t="s">
+    <row r="354" spans="1:3" ht="17.25">
+      <c r="A354" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B349" s="10" t="s">
+      <c r="B354" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C349" t="s">
+      <c r="C354" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="17.25">
-      <c r="A350" s="12" t="s">
+    <row r="355" spans="1:3" ht="17.25">
+      <c r="A355" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="B350" s="10" t="s">
+      <c r="B355" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C350" t="s">
+      <c r="C355" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="17.25">
-      <c r="A351" s="12" t="s">
+    <row r="356" spans="1:3" ht="17.25">
+      <c r="A356" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="B351" s="10" t="s">
+      <c r="B356" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C356" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B352" t="s">
-        <v>194</v>
-      </c>
-      <c r="C352" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
-      <c r="A353" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B353" t="s">
-        <v>194</v>
-      </c>
-      <c r="C353" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="17.25">
-      <c r="A354" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="B354" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C354" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="17.25">
-      <c r="A355" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B355" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C355" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="17.25">
-      <c r="A356" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B356" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="C356" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B357" t="s">
+        <v>194</v>
+      </c>
+      <c r="C357" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B358" t="s">
+        <v>194</v>
+      </c>
+      <c r="C358" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="17.25">
+      <c r="A359" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B359" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C359" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="17.25">
+      <c r="A360" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B360" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C360" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="17.25">
+      <c r="A361" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B361" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C361" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B362" t="s">
         <v>118</v>
       </c>
-      <c r="C357" t="s">
+      <c r="C362" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="358" spans="1:3">
-      <c r="A358" s="13" t="s">
+    <row r="363" spans="1:3">
+      <c r="A363" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B358" t="s">
-        <v>113</v>
-      </c>
-      <c r="C358" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
-      <c r="A359" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B359" t="s">
-        <v>113</v>
-      </c>
-      <c r="C359" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" ht="17.25">
-      <c r="A360" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="B360" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C360" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="17.25">
-      <c r="A361" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="B361" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C361" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="17.25">
-      <c r="A362" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="B362" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C362" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="17.25">
-      <c r="A363" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="B363" s="19" t="s">
+      <c r="B363" t="s">
         <v>113</v>
       </c>
       <c r="C363" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="17.25">
-      <c r="A364" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="B364" s="19" t="s">
+    <row r="364" spans="1:3">
+      <c r="A364" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B364" t="s">
         <v>113</v>
       </c>
       <c r="C364" t="s">
@@ -6499,109 +6519,109 @@
       </c>
     </row>
     <row r="365" spans="1:3" ht="17.25">
-      <c r="A365" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="B365" s="10" t="s">
+      <c r="A365" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B365" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C365" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
-      <c r="A366" s="14" t="s">
+    <row r="366" spans="1:3" ht="17.25">
+      <c r="A366" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B366" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C366" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="17.25">
+      <c r="A367" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B367" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C367" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="17.25">
+      <c r="A368" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B368" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C368" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="17.25">
+      <c r="A369" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B369" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C369" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="17.25">
+      <c r="A370" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B370" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C370" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B371" t="s">
         <v>93</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C371" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="17.25">
-      <c r="A367" s="10" t="s">
+    <row r="372" spans="1:3" ht="17.25">
+      <c r="A372" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B367" s="10" t="s">
+      <c r="B372" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C372" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="368" spans="1:3">
-      <c r="A368" s="16" t="s">
+    <row r="373" spans="1:3">
+      <c r="A373" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B373" t="s">
         <v>245</v>
       </c>
-      <c r="C368" t="s">
+      <c r="C373" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="17.25">
-      <c r="A369" s="18" t="s">
+    <row r="374" spans="1:3" ht="17.25">
+      <c r="A374" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="B369" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C369" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="17.25">
-      <c r="A370" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B370" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C370" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="17.25">
-      <c r="A371" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="B371" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C371" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" ht="17.25">
-      <c r="A372" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="B372" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C372" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="17.25">
-      <c r="A373" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="B373" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C373" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="17.25">
-      <c r="A374" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="B374" s="19" t="s">
+      <c r="B374" s="9" t="s">
         <v>249</v>
       </c>
       <c r="C374" t="s">
@@ -6609,19 +6629,74 @@
       </c>
     </row>
     <row r="375" spans="1:3" ht="17.25">
-      <c r="A375" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="B375" s="10" t="s">
+      <c r="A375" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B375" s="9" t="s">
         <v>249</v>
       </c>
       <c r="C375" t="s">
         <v>410</v>
       </c>
     </row>
+    <row r="376" spans="1:3" ht="17.25">
+      <c r="A376" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B376" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C376" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="17.25">
+      <c r="A377" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B377" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C377" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="17.25">
+      <c r="A378" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B378" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C378" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="17.25">
+      <c r="A379" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B379" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C379" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="17.25">
+      <c r="A380" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B380" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C380" t="s">
+        <v>410</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C375">
-    <sortCondition ref="B357"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C380">
+    <sortCondition ref="B364"/>
   </sortState>
   <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A80 A1:A6">
     <cfRule type="duplicateValues" dxfId="29" priority="50"/>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A62F69-E684-4DFA-9789-3C5425DF5D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D89D6F1-1FA1-4A26-BD96-10D6FC9ECED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76F5BC51-B760-4FA3-AB8F-88287AF0B4D0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="577">
   <si>
     <t>Pais</t>
   </si>
@@ -1750,6 +1750,12 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/d/d4/Flag_of_Israel.svg/22px-Flag_of_Israel.svg.png</t>
+  </si>
+  <si>
+    <t>SBEG</t>
+  </si>
+  <si>
+    <t>SBSV</t>
   </si>
 </sst>
 </file>
@@ -2498,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90933E9-EB56-48AC-A2B1-0F57E862D43F}">
-  <dimension ref="A1:M380"/>
+  <dimension ref="A1:M382"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C22"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3039,7 +3045,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" s="12" t="s">
         <v>186</v>
       </c>
@@ -3050,7 +3056,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" s="12" t="s">
         <v>187</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:4">
       <c r="A51" s="12" t="s">
         <v>188</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:4">
       <c r="A52" s="12" t="s">
         <v>189</v>
       </c>
@@ -3083,7 +3089,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="17.25">
+    <row r="53" spans="1:4" ht="17.25">
       <c r="A53" s="9" t="s">
         <v>306</v>
       </c>
@@ -3094,7 +3100,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="17.25">
+    <row r="54" spans="1:4" ht="17.25">
       <c r="A54" s="11" t="s">
         <v>538</v>
       </c>
@@ -3105,75 +3111,76 @@
         <v>350</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="12" t="s">
+    <row r="55" spans="1:4" ht="17.25">
+      <c r="A55" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" t="s">
+        <v>350</v>
+      </c>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" ht="17.25">
+      <c r="A56" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B57" t="s">
         <v>111</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C57" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="14" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B58" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C58" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="13" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B59" t="s">
         <v>199</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C59" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="17.25">
-      <c r="A58" s="17" t="s">
+    <row r="60" spans="1:4" ht="17.25">
+      <c r="A60" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B60" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C60" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="13" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="13" t="s">
         <v>122</v>
-      </c>
-      <c r="B59" t="s">
-        <v>121</v>
-      </c>
-      <c r="C59" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B60" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="12" t="s">
-        <v>238</v>
       </c>
       <c r="B61" t="s">
         <v>121</v>
@@ -3182,31 +3189,31 @@
         <v>354</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="17.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B62" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" t="s">
         <v>121</v>
       </c>
       <c r="C62" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="17.25">
-      <c r="A63" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B63" s="9" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B63" t="s">
         <v>121</v>
       </c>
       <c r="C63" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17.25">
-      <c r="A64" s="9" t="s">
-        <v>275</v>
+    <row r="64" spans="1:4" ht="17.25">
+      <c r="A64" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>121</v>
@@ -3217,9 +3224,9 @@
     </row>
     <row r="65" spans="1:13" ht="17.25">
       <c r="A65" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="B65" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C65" t="s">
@@ -3231,9 +3238,9 @@
     </row>
     <row r="66" spans="1:13" ht="17.25">
       <c r="A66" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="B66" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C66" t="s">
@@ -3242,7 +3249,7 @@
     </row>
     <row r="67" spans="1:13" ht="17.25">
       <c r="A67" s="9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B67" s="18" t="s">
         <v>121</v>
@@ -3253,7 +3260,7 @@
     </row>
     <row r="68" spans="1:13" ht="17.25">
       <c r="A68" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B68" s="18" t="s">
         <v>121</v>
@@ -3264,7 +3271,7 @@
     </row>
     <row r="69" spans="1:13" ht="17.25">
       <c r="A69" s="9" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>121</v>
@@ -3275,7 +3282,7 @@
     </row>
     <row r="70" spans="1:13" ht="17.25">
       <c r="A70" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B70" s="18" t="s">
         <v>121</v>
@@ -3286,7 +3293,7 @@
     </row>
     <row r="71" spans="1:13" ht="17.25">
       <c r="A71" s="9" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>121</v>
@@ -3295,66 +3302,66 @@
         <v>354</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B72" t="s">
-        <v>209</v>
+    <row r="72" spans="1:13" ht="17.25">
+      <c r="A72" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="17.25">
       <c r="A73" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="17.25">
+      <c r="A75" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B75" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C75" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" ht="17.25">
-      <c r="A74" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="C74" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B75" t="s">
-        <v>211</v>
-      </c>
-      <c r="C75" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="17.25">
       <c r="A76" s="9" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>211</v>
+        <v>449</v>
       </c>
       <c r="C76" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="17.25">
-      <c r="A77" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="B77" s="18" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B77" t="s">
         <v>211</v>
       </c>
       <c r="C77" t="s">
@@ -3363,7 +3370,7 @@
     </row>
     <row r="78" spans="1:13" ht="17.25">
       <c r="A78" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>211</v>
@@ -3374,7 +3381,7 @@
     </row>
     <row r="79" spans="1:13" ht="17.25">
       <c r="A79" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>211</v>
@@ -3385,7 +3392,7 @@
     </row>
     <row r="80" spans="1:13" ht="17.25">
       <c r="A80" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>211</v>
@@ -3396,7 +3403,7 @@
     </row>
     <row r="81" spans="1:3" ht="17.25">
       <c r="A81" s="9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>211</v>
@@ -3405,33 +3412,33 @@
         <v>356</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="11" t="s">
+    <row r="82" spans="1:3" ht="17.25">
+      <c r="A82" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C82" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17.25">
+      <c r="A83" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="C83" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
@@ -3439,10 +3446,10 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="A85" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C85" t="s">
@@ -3451,7 +3458,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -3462,7 +3469,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -3471,22 +3478,22 @@
         <v>357</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="17.25">
-      <c r="A88" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B88" s="9" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="17.25">
-      <c r="A89" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B89" s="18" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89" t="s">
@@ -3495,7 +3502,7 @@
     </row>
     <row r="90" spans="1:3" ht="17.25">
       <c r="A90" s="9" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>7</v>
@@ -3506,9 +3513,9 @@
     </row>
     <row r="91" spans="1:3" ht="17.25">
       <c r="A91" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="B91" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B91" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C91" t="s">
@@ -3517,40 +3524,40 @@
     </row>
     <row r="92" spans="1:3" ht="17.25">
       <c r="A92" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="17.25">
+      <c r="A93" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="17.25">
+      <c r="A94" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B94" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C94" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="13" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="B93" t="s">
-        <v>243</v>
-      </c>
-      <c r="C93" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="B94" t="s">
-        <v>243</v>
-      </c>
-      <c r="C94" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="B95" t="s">
         <v>243</v>
@@ -3559,31 +3566,31 @@
         <v>358</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="17.25">
-      <c r="A96" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>322</v>
+    <row r="96" spans="1:3">
+      <c r="A96" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B96" t="s">
+        <v>243</v>
       </c>
       <c r="C96" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="17.25">
-      <c r="A97" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>322</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B97" t="s">
+        <v>243</v>
       </c>
       <c r="C97" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17.25">
       <c r="A98" s="9" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>322</v>
@@ -3593,11 +3600,11 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="17.25">
-      <c r="A99" s="17" t="s">
-        <v>255</v>
+      <c r="A99" s="9" t="s">
+        <v>323</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="C99" t="s">
         <v>359</v>
@@ -3605,86 +3612,86 @@
     </row>
     <row r="100" spans="1:3" ht="17.25">
       <c r="A100" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C100" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="17.25">
+      <c r="A101" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C101" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17.25">
+      <c r="A102" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B102" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C102" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B101" t="s">
-        <v>219</v>
-      </c>
-      <c r="C101" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C102" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="12" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="B103" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="C103" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C104" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B105" t="s">
+        <v>169</v>
+      </c>
+      <c r="C105" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B105" t="s">
-        <v>109</v>
-      </c>
-      <c r="C105" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B106" t="s">
-        <v>109</v>
-      </c>
-      <c r="C106" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17.25">
-      <c r="A107" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" t="s">
         <v>109</v>
       </c>
       <c r="C107" t="s">
@@ -3693,42 +3700,42 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="17.25">
+      <c r="A109" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B108" t="s">
-        <v>87</v>
-      </c>
-      <c r="C108" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B109" t="s">
-        <v>87</v>
-      </c>
-      <c r="C109" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="17.25">
-      <c r="A110" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" t="s">
         <v>87</v>
       </c>
       <c r="C110" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="17.25">
-      <c r="A111" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="B111" s="18" t="s">
+    <row r="111" spans="1:3">
+      <c r="A111" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" t="s">
         <v>87</v>
       </c>
       <c r="C111" t="s">
@@ -3737,7 +3744,7 @@
     </row>
     <row r="112" spans="1:3" ht="17.25">
       <c r="A112" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>87</v>
@@ -3748,7 +3755,7 @@
     </row>
     <row r="113" spans="1:3" ht="17.25">
       <c r="A113" s="9" t="s">
-        <v>551</v>
+        <v>417</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>87</v>
@@ -3757,31 +3764,31 @@
         <v>339</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>3</v>
+    <row r="114" spans="1:3" ht="17.25">
+      <c r="A114" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="C114" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>3</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="17.25">
+      <c r="A115" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="C115" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>3</v>
@@ -3792,7 +3799,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>3</v>
@@ -3803,7 +3810,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>3</v>
@@ -3814,7 +3821,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>3</v>
@@ -3825,7 +3832,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>3</v>
@@ -3836,9 +3843,9 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C121" t="s">
@@ -3847,9 +3854,9 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B122" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C122" t="s">
@@ -3858,7 +3865,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="11" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>3</v>
@@ -3869,7 +3876,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="11" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>3</v>
@@ -3880,7 +3887,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>3</v>
@@ -3891,7 +3898,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>3</v>
@@ -3902,7 +3909,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>3</v>
@@ -3913,9 +3920,9 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B128" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C128" t="s">
@@ -3924,9 +3931,9 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B129" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C129" t="s">
@@ -3935,7 +3942,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>3</v>
@@ -3946,7 +3953,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>3</v>
@@ -3957,7 +3964,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>3</v>
@@ -3968,7 +3975,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>3</v>
@@ -3979,7 +3986,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>3</v>
@@ -3990,7 +3997,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>3</v>
@@ -4001,7 +4008,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>3</v>
@@ -4012,51 +4019,51 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="12" t="s">
+      <c r="B139" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B138" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="12" t="s">
+      <c r="B140" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B140" t="s">
-        <v>3</v>
-      </c>
-      <c r="C140" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="13" t="s">
-        <v>131</v>
       </c>
       <c r="B141" t="s">
         <v>3</v>
@@ -4067,7 +4074,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B142" t="s">
         <v>3</v>
@@ -4078,7 +4085,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -4089,29 +4096,29 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="B144" t="s">
-        <v>3</v>
-      </c>
-      <c r="C144" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>3</v>
-      </c>
-      <c r="C145" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>3</v>
@@ -4122,7 +4129,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B147" t="s">
         <v>3</v>
@@ -4133,7 +4140,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B148" t="s">
         <v>3</v>
@@ -4144,7 +4151,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="12" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B149" t="s">
         <v>3</v>
@@ -4155,7 +4162,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="12" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B150" t="s">
         <v>3</v>
@@ -4166,7 +4173,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -4177,7 +4184,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -4188,7 +4195,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B153" t="s">
         <v>3</v>
@@ -4199,7 +4206,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="12" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B154" t="s">
         <v>3</v>
@@ -4210,7 +4217,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="12" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -4221,7 +4228,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -4232,7 +4239,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B157" t="s">
         <v>3</v>
@@ -4243,7 +4250,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B158" t="s">
         <v>3</v>
@@ -4254,7 +4261,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B159" t="s">
         <v>3</v>
@@ -4265,7 +4272,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B160" t="s">
         <v>3</v>
@@ -4276,7 +4283,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="12" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
@@ -4287,42 +4294,42 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B162" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B163" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B162" t="s">
-        <v>3</v>
-      </c>
-      <c r="C162" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="17.25">
-      <c r="A163" s="12" t="s">
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="17.25">
+      <c r="A165" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B163" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C163" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="17.25">
-      <c r="A164" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C164" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="17.25">
-      <c r="A165" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B165" s="18" t="s">
+      <c r="B165" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C165" t="s">
@@ -4331,9 +4338,9 @@
     </row>
     <row r="166" spans="1:3" ht="17.25">
       <c r="A166" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B166" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="B166" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C166" t="s">
@@ -4342,7 +4349,7 @@
     </row>
     <row r="167" spans="1:3" ht="17.25">
       <c r="A167" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B167" s="18" t="s">
         <v>3</v>
@@ -4353,7 +4360,7 @@
     </row>
     <row r="168" spans="1:3" ht="17.25">
       <c r="A168" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B168" s="18" t="s">
         <v>3</v>
@@ -4364,9 +4371,9 @@
     </row>
     <row r="169" spans="1:3" ht="17.25">
       <c r="A169" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B169" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B169" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C169" t="s">
@@ -4375,9 +4382,9 @@
     </row>
     <row r="170" spans="1:3" ht="17.25">
       <c r="A170" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B170" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B170" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C170" t="s">
@@ -4386,9 +4393,9 @@
     </row>
     <row r="171" spans="1:3" ht="17.25">
       <c r="A171" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B171" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B171" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C171" t="s">
@@ -4397,9 +4404,9 @@
     </row>
     <row r="172" spans="1:3" ht="17.25">
       <c r="A172" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="B172" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B172" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C172" t="s">
@@ -4408,7 +4415,7 @@
     </row>
     <row r="173" spans="1:3" ht="17.25">
       <c r="A173" s="9" t="s">
-        <v>442</v>
+        <v>274</v>
       </c>
       <c r="B173" s="18" t="s">
         <v>3</v>
@@ -4419,7 +4426,7 @@
     </row>
     <row r="174" spans="1:3" ht="17.25">
       <c r="A174" s="9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B174" s="18" t="s">
         <v>3</v>
@@ -4430,7 +4437,7 @@
     </row>
     <row r="175" spans="1:3" ht="17.25">
       <c r="A175" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B175" s="18" t="s">
         <v>3</v>
@@ -4441,7 +4448,7 @@
     </row>
     <row r="176" spans="1:3" ht="17.25">
       <c r="A176" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B176" s="18" t="s">
         <v>3</v>
@@ -4452,7 +4459,7 @@
     </row>
     <row r="177" spans="1:3" ht="17.25">
       <c r="A177" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B177" s="18" t="s">
         <v>3</v>
@@ -4463,7 +4470,7 @@
     </row>
     <row r="178" spans="1:3" ht="17.25">
       <c r="A178" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B178" s="18" t="s">
         <v>3</v>
@@ -4474,7 +4481,7 @@
     </row>
     <row r="179" spans="1:3" ht="17.25">
       <c r="A179" s="9" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="B179" s="18" t="s">
         <v>3</v>
@@ -4485,7 +4492,7 @@
     </row>
     <row r="180" spans="1:3" ht="17.25">
       <c r="A180" s="9" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="B180" s="18" t="s">
         <v>3</v>
@@ -4496,7 +4503,7 @@
     </row>
     <row r="181" spans="1:3" ht="17.25">
       <c r="A181" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B181" s="18" t="s">
         <v>3</v>
@@ -4507,7 +4514,7 @@
     </row>
     <row r="182" spans="1:3" ht="17.25">
       <c r="A182" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B182" s="18" t="s">
         <v>3</v>
@@ -4518,7 +4525,7 @@
     </row>
     <row r="183" spans="1:3" ht="17.25">
       <c r="A183" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B183" s="18" t="s">
         <v>3</v>
@@ -4529,7 +4536,7 @@
     </row>
     <row r="184" spans="1:3" ht="17.25">
       <c r="A184" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B184" s="18" t="s">
         <v>3</v>
@@ -4540,7 +4547,7 @@
     </row>
     <row r="185" spans="1:3" ht="17.25">
       <c r="A185" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B185" s="18" t="s">
         <v>3</v>
@@ -4551,7 +4558,7 @@
     </row>
     <row r="186" spans="1:3" ht="17.25">
       <c r="A186" s="9" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B186" s="18" t="s">
         <v>3</v>
@@ -4562,7 +4569,7 @@
     </row>
     <row r="187" spans="1:3" ht="17.25">
       <c r="A187" s="9" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B187" s="18" t="s">
         <v>3</v>
@@ -4573,7 +4580,7 @@
     </row>
     <row r="188" spans="1:3" ht="17.25">
       <c r="A188" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B188" s="18" t="s">
         <v>3</v>
@@ -4584,7 +4591,7 @@
     </row>
     <row r="189" spans="1:3" ht="17.25">
       <c r="A189" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B189" s="18" t="s">
         <v>3</v>
@@ -4595,7 +4602,7 @@
     </row>
     <row r="190" spans="1:3" ht="17.25">
       <c r="A190" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B190" s="18" t="s">
         <v>3</v>
@@ -4605,8 +4612,8 @@
       </c>
     </row>
     <row r="191" spans="1:3" ht="17.25">
-      <c r="A191" s="11" t="s">
-        <v>489</v>
+      <c r="A191" s="9" t="s">
+        <v>487</v>
       </c>
       <c r="B191" s="18" t="s">
         <v>3</v>
@@ -4617,7 +4624,7 @@
     </row>
     <row r="192" spans="1:3" ht="17.25">
       <c r="A192" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B192" s="18" t="s">
         <v>3</v>
@@ -4627,8 +4634,8 @@
       </c>
     </row>
     <row r="193" spans="1:3" ht="17.25">
-      <c r="A193" s="9" t="s">
-        <v>491</v>
+      <c r="A193" s="11" t="s">
+        <v>489</v>
       </c>
       <c r="B193" s="18" t="s">
         <v>3</v>
@@ -4639,7 +4646,7 @@
     </row>
     <row r="194" spans="1:3" ht="17.25">
       <c r="A194" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B194" s="18" t="s">
         <v>3</v>
@@ -4650,7 +4657,7 @@
     </row>
     <row r="195" spans="1:3" ht="17.25">
       <c r="A195" s="9" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B195" s="18" t="s">
         <v>3</v>
@@ -4661,7 +4668,7 @@
     </row>
     <row r="196" spans="1:3" ht="17.25">
       <c r="A196" s="9" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B196" s="18" t="s">
         <v>3</v>
@@ -4672,7 +4679,7 @@
     </row>
     <row r="197" spans="1:3" ht="17.25">
       <c r="A197" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B197" s="18" t="s">
         <v>3</v>
@@ -4683,31 +4690,31 @@
     </row>
     <row r="198" spans="1:3" ht="17.25">
       <c r="A198" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B198" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="17.25">
+      <c r="A199" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B199" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="17.25">
+      <c r="A200" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="B198" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C198" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="17.25">
-      <c r="A199" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C199" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="17.25">
-      <c r="A200" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B200" s="9" t="s">
+      <c r="B200" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C200" t="s">
@@ -4716,7 +4723,7 @@
     </row>
     <row r="201" spans="1:3" ht="17.25">
       <c r="A201" s="11" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>3</v>
@@ -4727,7 +4734,7 @@
     </row>
     <row r="202" spans="1:3" ht="17.25">
       <c r="A202" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B202" s="9" t="s">
         <v>3</v>
@@ -4738,53 +4745,53 @@
     </row>
     <row r="203" spans="1:3" ht="17.25">
       <c r="A203" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B203" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="17.25">
+      <c r="A204" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="B204" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="17.25">
+      <c r="A205" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="B203" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C203" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="17.25">
-      <c r="A204" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C204" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B205" t="s">
-        <v>197</v>
+      <c r="B205" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C205" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="17.25">
       <c r="A206" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="B206" s="18" t="s">
-        <v>197</v>
+        <v>309</v>
+      </c>
+      <c r="B206" s="9" t="s">
+        <v>310</v>
       </c>
       <c r="C206" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="17.25">
-      <c r="A207" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="B207" s="18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B207" t="s">
         <v>197</v>
       </c>
       <c r="C207" t="s">
@@ -4793,7 +4800,7 @@
     </row>
     <row r="208" spans="1:3" ht="17.25">
       <c r="A208" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B208" s="18" t="s">
         <v>197</v>
@@ -4804,7 +4811,7 @@
     </row>
     <row r="209" spans="1:3" ht="17.25">
       <c r="A209" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B209" s="18" t="s">
         <v>197</v>
@@ -4815,7 +4822,7 @@
     </row>
     <row r="210" spans="1:3" ht="17.25">
       <c r="A210" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B210" s="18" t="s">
         <v>197</v>
@@ -4826,7 +4833,7 @@
     </row>
     <row r="211" spans="1:3" ht="17.25">
       <c r="A211" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B211" s="18" t="s">
         <v>197</v>
@@ -4836,10 +4843,10 @@
       </c>
     </row>
     <row r="212" spans="1:3" ht="17.25">
-      <c r="A212" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B212" s="9" t="s">
+      <c r="A212" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B212" s="18" t="s">
         <v>197</v>
       </c>
       <c r="C212" t="s">
@@ -4847,10 +4854,10 @@
       </c>
     </row>
     <row r="213" spans="1:3" ht="17.25">
-      <c r="A213" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B213" s="9" t="s">
+      <c r="A213" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B213" s="18" t="s">
         <v>197</v>
       </c>
       <c r="C213" t="s">
@@ -4859,7 +4866,7 @@
     </row>
     <row r="214" spans="1:3" ht="17.25">
       <c r="A214" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B214" s="9" t="s">
         <v>197</v>
@@ -4870,7 +4877,7 @@
     </row>
     <row r="215" spans="1:3" ht="17.25">
       <c r="A215" s="11" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B215" s="9" t="s">
         <v>197</v>
@@ -4879,42 +4886,42 @@
         <v>368</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="12" t="s">
+    <row r="216" spans="1:3" ht="17.25">
+      <c r="A216" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C216" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="17.25">
+      <c r="A217" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B217" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C217" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B218" t="s">
         <v>174</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C218" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="13" t="s">
+    <row r="219" spans="1:3">
+      <c r="A219" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="B217" t="s">
-        <v>135</v>
-      </c>
-      <c r="C217" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B218" t="s">
-        <v>135</v>
-      </c>
-      <c r="C218" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="B219" t="s">
         <v>135</v>
@@ -4924,8 +4931,8 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="12" t="s">
-        <v>161</v>
+      <c r="A220" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="B220" t="s">
         <v>135</v>
@@ -4934,33 +4941,33 @@
         <v>370</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="17.25">
-      <c r="A221" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="B221" s="9" t="s">
+    <row r="221" spans="1:3">
+      <c r="A221" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B221" t="s">
         <v>135</v>
       </c>
-      <c r="C221" s="6" t="s">
+      <c r="C221" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="17.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="B222" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B222" t="s">
         <v>135</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="C222" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="17.25">
       <c r="A223" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="B223" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B223" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C223" s="6" t="s">
@@ -4968,10 +4975,10 @@
       </c>
     </row>
     <row r="224" spans="1:3" ht="17.25">
-      <c r="A224" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="B224" s="18" t="s">
+      <c r="A224" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B224" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C224" s="6" t="s">
@@ -4980,7 +4987,7 @@
     </row>
     <row r="225" spans="1:3" ht="17.25">
       <c r="A225" s="9" t="s">
-        <v>499</v>
+        <v>419</v>
       </c>
       <c r="B225" s="18" t="s">
         <v>135</v>
@@ -4989,44 +4996,44 @@
         <v>370</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="12" t="s">
+    <row r="226" spans="1:3" ht="17.25">
+      <c r="A226" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B226" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="17.25">
+      <c r="A227" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B227" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B228" t="s">
         <v>222</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C228" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
-      <c r="A227" s="12" t="s">
+    <row r="229" spans="1:3">
+      <c r="A229" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B227" t="s">
-        <v>89</v>
-      </c>
-      <c r="C227" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="17.25">
-      <c r="A228" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="B228" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C228" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="17.25">
-      <c r="A229" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="B229" s="18" t="s">
+      <c r="B229" t="s">
         <v>89</v>
       </c>
       <c r="C229" t="s">
@@ -5035,95 +5042,95 @@
     </row>
     <row r="230" spans="1:3" ht="17.25">
       <c r="A230" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B230" s="9" t="s">
-        <v>287</v>
+        <v>500</v>
+      </c>
+      <c r="B230" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="C230" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>56</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="17.25">
+      <c r="A231" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B231" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="C231" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="17.25">
       <c r="A232" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B232" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C232" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="17.25">
+      <c r="A234" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B232" s="18" t="s">
+      <c r="B234" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C234" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
-      <c r="A233" s="16" t="s">
+    <row r="235" spans="1:3">
+      <c r="A235" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B235" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C235" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
-      <c r="A234" s="12" t="s">
+    <row r="236" spans="1:3">
+      <c r="A236" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B236" t="s">
         <v>104</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C236" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="12" t="s">
+    <row r="237" spans="1:3">
+      <c r="A237" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B237" t="s">
         <v>104</v>
       </c>
-      <c r="C235" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="17.25">
-      <c r="A236" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C236" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="17.25">
-      <c r="A237" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="B237" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C237" s="7" t="s">
+      <c r="C237" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="17.25">
       <c r="A238" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B238" s="9" t="s">
         <v>104</v>
@@ -5134,9 +5141,9 @@
     </row>
     <row r="239" spans="1:3" ht="17.25">
       <c r="A239" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B239" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B239" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C239" s="7" t="s">
@@ -5145,9 +5152,9 @@
     </row>
     <row r="240" spans="1:3" ht="17.25">
       <c r="A240" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B240" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B240" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C240" s="7" t="s">
@@ -5156,7 +5163,7 @@
     </row>
     <row r="241" spans="1:3" ht="17.25">
       <c r="A241" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B241" s="18" t="s">
         <v>104</v>
@@ -5167,7 +5174,7 @@
     </row>
     <row r="242" spans="1:3" ht="17.25">
       <c r="A242" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B242" s="18" t="s">
         <v>104</v>
@@ -5178,7 +5185,7 @@
     </row>
     <row r="243" spans="1:3" ht="17.25">
       <c r="A243" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B243" s="18" t="s">
         <v>104</v>
@@ -5189,7 +5196,7 @@
     </row>
     <row r="244" spans="1:3" ht="17.25">
       <c r="A244" s="9" t="s">
-        <v>518</v>
+        <v>332</v>
       </c>
       <c r="B244" s="18" t="s">
         <v>104</v>
@@ -5200,7 +5207,7 @@
     </row>
     <row r="245" spans="1:3" ht="17.25">
       <c r="A245" s="9" t="s">
-        <v>519</v>
+        <v>333</v>
       </c>
       <c r="B245" s="18" t="s">
         <v>104</v>
@@ -5211,75 +5218,75 @@
     </row>
     <row r="246" spans="1:3" ht="17.25">
       <c r="A246" s="9" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B246" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C246" s="6" t="s">
+      <c r="C246" s="7" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="17.25">
       <c r="A247" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B247" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="17.25">
+      <c r="A248" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B248" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="17.25">
+      <c r="A249" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="B247" s="9" t="s">
+      <c r="B249" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C247" s="6" t="s">
+      <c r="C249" s="6" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="11" t="s">
+    <row r="250" spans="1:3">
+      <c r="A250" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B250" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C250" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="11" t="s">
+    <row r="251" spans="1:3">
+      <c r="A251" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="B251" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C251" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="12" t="s">
+    <row r="252" spans="1:3">
+      <c r="A252" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B250" t="s">
-        <v>213</v>
-      </c>
-      <c r="C250" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="17.25">
-      <c r="A251" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="B251" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C251" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="17.25">
-      <c r="A252" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="B252" s="18" t="s">
+      <c r="B252" t="s">
         <v>213</v>
       </c>
       <c r="C252" t="s">
@@ -5287,54 +5294,54 @@
       </c>
     </row>
     <row r="253" spans="1:3" ht="17.25">
-      <c r="A253" s="11" t="s">
+      <c r="A253" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C253" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="17.25">
+      <c r="A254" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B254" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C254" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="17.25">
+      <c r="A255" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="B253" s="9" t="s">
+      <c r="B255" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C255" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="17.25">
-      <c r="A254" s="11" t="s">
+    <row r="256" spans="1:3" ht="17.25">
+      <c r="A256" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="B254" s="9" t="s">
+      <c r="B256" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C256" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="13" t="s">
+    <row r="257" spans="1:3">
+      <c r="A257" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="B255" t="s">
-        <v>206</v>
-      </c>
-      <c r="C255" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="17.25">
-      <c r="A256" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B256" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="C256" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" ht="17.25">
-      <c r="A257" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B257" s="18" t="s">
+      <c r="B257" t="s">
         <v>206</v>
       </c>
       <c r="C257" t="s">
@@ -5343,7 +5350,7 @@
     </row>
     <row r="258" spans="1:3" ht="17.25">
       <c r="A258" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B258" s="18" t="s">
         <v>206</v>
@@ -5354,7 +5361,7 @@
     </row>
     <row r="259" spans="1:3" ht="17.25">
       <c r="A259" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B259" s="18" t="s">
         <v>206</v>
@@ -5365,7 +5372,7 @@
     </row>
     <row r="260" spans="1:3" ht="17.25">
       <c r="A260" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B260" s="18" t="s">
         <v>206</v>
@@ -5376,7 +5383,7 @@
     </row>
     <row r="261" spans="1:3" ht="17.25">
       <c r="A261" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B261" s="18" t="s">
         <v>206</v>
@@ -5387,7 +5394,7 @@
     </row>
     <row r="262" spans="1:3" ht="17.25">
       <c r="A262" s="9" t="s">
-        <v>502</v>
+        <v>297</v>
       </c>
       <c r="B262" s="18" t="s">
         <v>206</v>
@@ -5396,42 +5403,42 @@
         <v>340</v>
       </c>
     </row>
-    <row r="263" spans="1:3">
-      <c r="A263" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B263" t="s">
-        <v>99</v>
+    <row r="263" spans="1:3" ht="17.25">
+      <c r="A263" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B263" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="C263" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>12</v>
+    <row r="264" spans="1:3" ht="17.25">
+      <c r="A264" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B264" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="C264" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>12</v>
+      <c r="A265" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B265" t="s">
+        <v>99</v>
       </c>
       <c r="C265" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="11" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>12</v>
@@ -5442,7 +5449,7 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>12</v>
@@ -5453,7 +5460,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>12</v>
@@ -5464,7 +5471,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>12</v>
@@ -5475,7 +5482,7 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>12</v>
@@ -5486,7 +5493,7 @@
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>12</v>
@@ -5495,64 +5502,64 @@
         <v>379</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="17.25">
-      <c r="A272" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="B272" s="18" t="s">
-        <v>463</v>
+    <row r="272" spans="1:3">
+      <c r="A272" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C272" t="s">
-        <v>466</v>
+        <v>379</v>
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B273" t="s">
-        <v>201</v>
+      <c r="A273" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C273" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="17.25">
       <c r="A274" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B274" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="C274" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B275" t="s">
+        <v>201</v>
+      </c>
+      <c r="C275" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="17.25">
+      <c r="A276" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B274" s="9" t="s">
+      <c r="B276" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C276" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C275" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3">
-      <c r="A276" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C276" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>39</v>
@@ -5561,22 +5568,22 @@
         <v>382</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="17.25">
-      <c r="A278" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B278" s="9" t="s">
+    <row r="278" spans="1:3">
+      <c r="A278" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C278" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="17.25">
-      <c r="A279" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="B279" s="9" t="s">
+    <row r="279" spans="1:3">
+      <c r="A279" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C279" t="s">
@@ -5585,7 +5592,7 @@
     </row>
     <row r="280" spans="1:3" ht="17.25">
       <c r="A280" s="17" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B280" s="9" t="s">
         <v>39</v>
@@ -5595,52 +5602,52 @@
       </c>
     </row>
     <row r="281" spans="1:3" ht="17.25">
-      <c r="A281" s="9" t="s">
+      <c r="A281" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C281" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="17.25">
+      <c r="A282" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C282" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="17.25">
+      <c r="A283" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="B281" s="9" t="s">
+      <c r="B283" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C283" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="17.25">
-      <c r="A282" s="9" t="s">
+    <row r="284" spans="1:3" ht="17.25">
+      <c r="A284" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="B282" s="9" t="s">
+      <c r="B284" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C284" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C283" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3">
-      <c r="A284" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C284" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>24</v>
@@ -5651,7 +5658,7 @@
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>24</v>
@@ -5661,32 +5668,32 @@
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B287" t="s">
+      <c r="A287" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B287" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C287" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="17.25">
-      <c r="A288" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="B288" s="9" t="s">
+    <row r="288" spans="1:3">
+      <c r="A288" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B288" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C288" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="17.25">
-      <c r="A289" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="B289" s="18" t="s">
+    <row r="289" spans="1:3">
+      <c r="A289" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B289" t="s">
         <v>24</v>
       </c>
       <c r="C289" t="s">
@@ -5695,9 +5702,9 @@
     </row>
     <row r="290" spans="1:3" ht="17.25">
       <c r="A290" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="B290" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="B290" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C290" t="s">
@@ -5705,63 +5712,63 @@
       </c>
     </row>
     <row r="291" spans="1:3" ht="17.25">
-      <c r="A291" s="11" t="s">
+      <c r="A291" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B291" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C291" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="17.25">
+      <c r="A292" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B292" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C292" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="17.25">
+      <c r="A293" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="B291" s="9" t="s">
+      <c r="B293" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C293" t="s">
         <v>573</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3">
-      <c r="A292" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B292" t="s">
-        <v>224</v>
-      </c>
-      <c r="C292" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C293" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" s="12" t="s">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c r="B294" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="C294" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B295" t="s">
-        <v>164</v>
+      <c r="A295" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C295" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B296" t="s">
         <v>164</v>
@@ -5772,7 +5779,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B297" t="s">
         <v>164</v>
@@ -5783,7 +5790,7 @@
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B298" t="s">
         <v>164</v>
@@ -5794,29 +5801,29 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="12" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B299" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C299" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="12" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B300" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C300" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B301" t="s">
         <v>153</v>
@@ -5825,11 +5832,11 @@
         <v>388</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="17.25">
-      <c r="A302" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="B302" s="18" t="s">
+    <row r="302" spans="1:3">
+      <c r="A302" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B302" t="s">
         <v>153</v>
       </c>
       <c r="C302" t="s">
@@ -5838,97 +5845,97 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B303" t="s">
+        <v>153</v>
+      </c>
+      <c r="C303" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="17.25">
+      <c r="A304" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B304" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C304" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B305" t="s">
         <v>116</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C305" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="17.25">
-      <c r="A304" s="11" t="s">
+    <row r="306" spans="1:3" ht="17.25">
+      <c r="A306" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="B304" s="9" t="s">
+      <c r="B306" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C306" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
-      <c r="A305" s="11" t="s">
+    <row r="307" spans="1:3">
+      <c r="A307" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B307" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C305" s="6" t="s">
+      <c r="C307" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
-      <c r="A306" s="12" t="s">
+    <row r="308" spans="1:3">
+      <c r="A308" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B308" t="s">
         <v>5</v>
       </c>
-      <c r="C306" s="6" t="s">
+      <c r="C308" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="15" t="s">
+    <row r="309" spans="1:3">
+      <c r="A309" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B309" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C309" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="17.25">
-      <c r="A308" s="9" t="s">
+    <row r="310" spans="1:3" ht="17.25">
+      <c r="A310" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="B308" s="9" t="s">
+      <c r="B310" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C310" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
-      <c r="A309" s="12" t="s">
+    <row r="311" spans="1:3">
+      <c r="A311" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B309" t="s">
-        <v>230</v>
-      </c>
-      <c r="C309" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3">
-      <c r="A310" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B310" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C310" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="17.25">
-      <c r="A311" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="B311" s="18" t="s">
+      <c r="B311" t="s">
         <v>230</v>
       </c>
       <c r="C311" t="s">
@@ -5936,96 +5943,96 @@
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B312" t="s">
-        <v>85</v>
+      <c r="A312" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B312" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="C312" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="17.25">
       <c r="A313" s="9" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="B313" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C313" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B314" t="s">
         <v>85</v>
       </c>
-      <c r="C313" t="s">
+      <c r="C314" t="s">
         <v>392</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="17.25">
-      <c r="A314" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B314" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C314" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="17.25">
       <c r="A315" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="B315" s="9" t="s">
-        <v>424</v>
+        <v>415</v>
+      </c>
+      <c r="B315" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="C315" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="17.25">
       <c r="A316" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="B316" s="18" t="s">
-        <v>424</v>
+        <v>284</v>
+      </c>
+      <c r="B316" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="C316" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="17.25">
       <c r="A317" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B317" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C317" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="17.25">
+      <c r="A318" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B318" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="C318" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="17.25">
+      <c r="A319" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B317" s="9" t="s">
+      <c r="B319" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C317" t="s">
+      <c r="C319" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3">
-      <c r="A318" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B318" t="s">
-        <v>124</v>
-      </c>
-      <c r="C318" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3">
-      <c r="A319" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B319" t="s">
-        <v>124</v>
-      </c>
-      <c r="C319" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B320" t="s">
         <v>124</v>
@@ -6036,7 +6043,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B321" t="s">
         <v>124</v>
@@ -6047,7 +6054,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B322" t="s">
         <v>124</v>
@@ -6057,8 +6064,8 @@
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323" s="12" t="s">
-        <v>142</v>
+      <c r="A323" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="B323" t="s">
         <v>124</v>
@@ -6068,8 +6075,8 @@
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324" s="12" t="s">
-        <v>215</v>
+      <c r="A324" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="B324" t="s">
         <v>124</v>
@@ -6080,7 +6087,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="12" t="s">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="B325" t="s">
         <v>124</v>
@@ -6091,7 +6098,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B326" t="s">
         <v>124</v>
@@ -6100,33 +6107,33 @@
         <v>395</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="17.25">
-      <c r="A327" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="B327" s="18" t="s">
+    <row r="327" spans="1:3">
+      <c r="A327" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B327" t="s">
         <v>124</v>
       </c>
-      <c r="C327" s="6" t="s">
+      <c r="C327" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="17.25">
-      <c r="A328" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="B328" s="9" t="s">
+    <row r="328" spans="1:3">
+      <c r="A328" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B328" t="s">
         <v>124</v>
       </c>
-      <c r="C328" s="6" t="s">
+      <c r="C328" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="17.25">
       <c r="A329" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="B329" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B329" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C329" s="6" t="s">
@@ -6135,7 +6142,7 @@
     </row>
     <row r="330" spans="1:3" ht="17.25">
       <c r="A330" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B330" s="9" t="s">
         <v>124</v>
@@ -6145,8 +6152,8 @@
       </c>
     </row>
     <row r="331" spans="1:3" ht="17.25">
-      <c r="A331" s="11" t="s">
-        <v>561</v>
+      <c r="A331" s="9" t="s">
+        <v>479</v>
       </c>
       <c r="B331" s="9" t="s">
         <v>124</v>
@@ -6156,10 +6163,10 @@
       </c>
     </row>
     <row r="332" spans="1:3" ht="17.25">
-      <c r="A332" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="B332" s="18" t="s">
+      <c r="A332" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B332" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C332" s="6" t="s">
@@ -6168,9 +6175,9 @@
     </row>
     <row r="333" spans="1:3" ht="17.25">
       <c r="A333" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="B333" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="B333" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C333" s="6" t="s">
@@ -6179,7 +6186,7 @@
     </row>
     <row r="334" spans="1:3" ht="17.25">
       <c r="A334" s="11" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B334" s="18" t="s">
         <v>124</v>
@@ -6188,187 +6195,187 @@
         <v>395</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
-      <c r="A335" s="12" t="s">
+    <row r="335" spans="1:3" ht="17.25">
+      <c r="A335" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B335" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C335" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="17.25">
+      <c r="A336" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B336" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B337" t="s">
         <v>226</v>
       </c>
-      <c r="C335" t="s">
+      <c r="C337" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="336" spans="1:3">
-      <c r="A336" s="14" t="s">
+    <row r="338" spans="1:3">
+      <c r="A338" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B338" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C336" t="s">
+      <c r="C338" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="337" spans="1:3">
-      <c r="A337" s="11" t="s">
+    <row r="339" spans="1:3">
+      <c r="A339" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B339" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C337" t="s">
+      <c r="C339" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" ht="17.25">
-      <c r="A338" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="B338" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C338" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" ht="17.25">
-      <c r="A339" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="B339" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C339" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="17.25">
       <c r="A340" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="B340" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C340" s="7" t="s">
-        <v>398</v>
+        <v>425</v>
+      </c>
+      <c r="B340" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C340" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="17.25">
       <c r="A341" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="B341" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B341" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="C341" s="6" t="s">
+      <c r="C341" s="7" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="17.25">
       <c r="A342" s="9" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B342" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="C342" s="6" t="s">
+      <c r="C342" s="7" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="343" spans="1:3">
-      <c r="A343" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B343" t="s">
-        <v>107</v>
-      </c>
-      <c r="C343" t="s">
+    <row r="343" spans="1:3" ht="17.25">
+      <c r="A343" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C343" s="6" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="344" spans="1:3">
-      <c r="A344" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C344" t="s">
+    <row r="344" spans="1:3" ht="17.25">
+      <c r="A344" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B344" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="C344" s="6" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B345" t="s">
+        <v>107</v>
+      </c>
+      <c r="C345" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C346" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B347" t="s">
         <v>228</v>
       </c>
-      <c r="C345" t="s">
+      <c r="C347" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="17.25">
-      <c r="A346" s="9" t="s">
+    <row r="348" spans="1:3" ht="17.25">
+      <c r="A348" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="B348" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C348" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="17.25">
-      <c r="A347" s="9" t="s">
+    <row r="349" spans="1:3" ht="17.25">
+      <c r="A349" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B347" s="9" t="s">
+      <c r="B349" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C349" t="s">
         <v>400</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B348" t="s">
-        <v>171</v>
-      </c>
-      <c r="C348" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="A349" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B349" t="s">
-        <v>148</v>
-      </c>
-      <c r="C349" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="12" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B350" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="C350" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="17.25">
-      <c r="A351" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B351" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B351" t="s">
         <v>148</v>
       </c>
       <c r="C351" t="s">
@@ -6376,32 +6383,32 @@
       </c>
     </row>
     <row r="352" spans="1:3">
-      <c r="A352" s="11" t="s">
+      <c r="A352" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B352" t="s">
+        <v>148</v>
+      </c>
+      <c r="C352" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="17.25">
+      <c r="A353" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C353" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B352" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C352" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="17.25">
-      <c r="A353" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="B353" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C353" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="17.25">
-      <c r="A354" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B354" s="9" t="s">
+      <c r="B354" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C354" t="s">
@@ -6409,8 +6416,8 @@
       </c>
     </row>
     <row r="355" spans="1:3" ht="17.25">
-      <c r="A355" s="11" t="s">
-        <v>475</v>
+      <c r="A355" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="B355" s="9" t="s">
         <v>40</v>
@@ -6420,8 +6427,8 @@
       </c>
     </row>
     <row r="356" spans="1:3" ht="17.25">
-      <c r="A356" s="11" t="s">
-        <v>476</v>
+      <c r="A356" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="B356" s="9" t="s">
         <v>40</v>
@@ -6430,110 +6437,110 @@
         <v>402</v>
       </c>
     </row>
-    <row r="357" spans="1:3">
-      <c r="A357" s="13" t="s">
+    <row r="357" spans="1:3" ht="17.25">
+      <c r="A357" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B357" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C357" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="17.25">
+      <c r="A358" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B358" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C358" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B357" t="s">
-        <v>194</v>
-      </c>
-      <c r="C357" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
-      <c r="A358" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B358" t="s">
-        <v>194</v>
-      </c>
-      <c r="C358" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" ht="17.25">
-      <c r="A359" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B359" s="9" t="s">
+      <c r="B359" t="s">
         <v>194</v>
       </c>
       <c r="C359" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="17.25">
-      <c r="A360" s="9" t="s">
+    <row r="360" spans="1:3">
+      <c r="A360" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B360" t="s">
+        <v>194</v>
+      </c>
+      <c r="C360" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="17.25">
+      <c r="A361" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B361" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C361" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="17.25">
+      <c r="A362" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="B360" s="9" t="s">
+      <c r="B362" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C362" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="17.25">
-      <c r="A361" s="9" t="s">
+    <row r="363" spans="1:3" ht="17.25">
+      <c r="A363" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B361" s="9" t="s">
+      <c r="B363" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C363" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="A362" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B362" t="s">
-        <v>118</v>
-      </c>
-      <c r="C362" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
-      <c r="A363" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B363" t="s">
-        <v>113</v>
-      </c>
-      <c r="C363" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B364" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C364" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="17.25">
-      <c r="A365" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="B365" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B365" t="s">
         <v>113</v>
       </c>
       <c r="C365" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="17.25">
-      <c r="A366" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="B366" s="18" t="s">
+    <row r="366" spans="1:3">
+      <c r="A366" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B366" t="s">
         <v>113</v>
       </c>
       <c r="C366" t="s">
@@ -6542,9 +6549,9 @@
     </row>
     <row r="367" spans="1:3" ht="17.25">
       <c r="A367" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="B367" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="B367" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C367" t="s">
@@ -6553,7 +6560,7 @@
     </row>
     <row r="368" spans="1:3" ht="17.25">
       <c r="A368" s="9" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B368" s="18" t="s">
         <v>113</v>
@@ -6564,7 +6571,7 @@
     </row>
     <row r="369" spans="1:3" ht="17.25">
       <c r="A369" s="9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B369" s="18" t="s">
         <v>113</v>
@@ -6575,73 +6582,73 @@
     </row>
     <row r="370" spans="1:3" ht="17.25">
       <c r="A370" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B370" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B370" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C370" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="371" spans="1:3">
-      <c r="A371" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B371" t="s">
-        <v>93</v>
+    <row r="371" spans="1:3" ht="17.25">
+      <c r="A371" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B371" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="C371" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="17.25">
       <c r="A372" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B372" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C372" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B373" t="s">
+        <v>93</v>
+      </c>
+      <c r="C373" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="17.25">
+      <c r="A374" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="B372" s="9" t="s">
+      <c r="B374" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C372" t="s">
+      <c r="C374" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="373" spans="1:3">
-      <c r="A373" s="15" t="s">
+    <row r="375" spans="1:3">
+      <c r="A375" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B375" t="s">
         <v>245</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C375" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="17.25">
-      <c r="A374" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B374" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C374" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" ht="17.25">
-      <c r="A375" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B375" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C375" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="17.25">
       <c r="A376" s="17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B376" s="9" t="s">
         <v>249</v>
@@ -6652,7 +6659,7 @@
     </row>
     <row r="377" spans="1:3" ht="17.25">
       <c r="A377" s="17" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B377" s="9" t="s">
         <v>249</v>
@@ -6663,7 +6670,7 @@
     </row>
     <row r="378" spans="1:3" ht="17.25">
       <c r="A378" s="17" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B378" s="9" t="s">
         <v>249</v>
@@ -6674,9 +6681,9 @@
     </row>
     <row r="379" spans="1:3" ht="17.25">
       <c r="A379" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="B379" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B379" s="9" t="s">
         <v>249</v>
       </c>
       <c r="C379" t="s">
@@ -6685,7 +6692,7 @@
     </row>
     <row r="380" spans="1:3" ht="17.25">
       <c r="A380" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B380" s="9" t="s">
         <v>249</v>
@@ -6694,8 +6701,30 @@
         <v>410</v>
       </c>
     </row>
+    <row r="381" spans="1:3" ht="17.25">
+      <c r="A381" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B381" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C381" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="17.25">
+      <c r="A382" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B382" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C382" t="s">
+        <v>410</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C380">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C382">
     <sortCondition ref="B364"/>
   </sortState>
   <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A80 A1:A6">

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D89D6F1-1FA1-4A26-BD96-10D6FC9ECED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5341A0E0-808D-486E-B035-DEFC3C837146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76F5BC51-B760-4FA3-AB8F-88287AF0B4D0}"/>
   </bookViews>
@@ -2507,7 +2507,7 @@
   <dimension ref="A1:M382"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/record.xlsx
+++ b/record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\infinteflightaerobrasil_atc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Positivo\Desktop\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5341A0E0-808D-486E-B035-DEFC3C837146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A32799-5F1E-45D6-8A52-C05ACFEFB6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76F5BC51-B760-4FA3-AB8F-88287AF0B4D0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="578">
   <si>
     <t>Pais</t>
   </si>
@@ -1756,6 +1756,9 @@
   </si>
   <si>
     <t>SBSV</t>
+  </si>
+  <si>
+    <t>SBMT</t>
   </si>
 </sst>
 </file>
@@ -2504,10 +2507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90933E9-EB56-48AC-A2B1-0F57E862D43F}">
-  <dimension ref="A1:M382"/>
+  <dimension ref="A1:M383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C284" sqref="C284:C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2528,709 +2531,709 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
+    <row r="2" spans="1:3" ht="17.25">
+      <c r="A2" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>560</v>
       </c>
       <c r="C2" t="s">
-        <v>335</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
+      <c r="A3" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25">
+      <c r="A4" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25">
+      <c r="A5" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25">
-      <c r="A6" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>62</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>97</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.25">
+      <c r="A7" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" t="s">
-        <v>97</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.25">
+      <c r="A8" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13" t="s">
-        <v>123</v>
+      <c r="A9" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25">
       <c r="A10" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
+        <v>246</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.25">
       <c r="A11" s="9" t="s">
-        <v>412</v>
+        <v>272</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="6" customFormat="1" ht="17.25">
       <c r="A12" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>97</v>
+        <v>275</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.25">
-      <c r="A13" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>97</v>
+      <c r="A13" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
       <c r="A14" s="9" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25">
+      <c r="A15" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
+      <c r="A16" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" t="s">
+        <v>222</v>
       </c>
       <c r="C16" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="15" t="s">
-        <v>77</v>
+      <c r="A17" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25">
-      <c r="A18" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>283</v>
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25">
-      <c r="A19" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>283</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" t="s">
+        <v>224</v>
       </c>
       <c r="C19" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25">
-      <c r="A20" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>530</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>531</v>
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25">
-      <c r="A22" s="11" t="s">
-        <v>568</v>
+      <c r="A22" s="9" t="s">
+        <v>477</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>531</v>
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25">
       <c r="A23" s="9" t="s">
-        <v>304</v>
+        <v>412</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="12" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="B24" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" t="s">
-        <v>233</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.25">
+      <c r="A25" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B26" t="s">
-        <v>233</v>
+      <c r="A26" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C26" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.25">
-      <c r="A27" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>233</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17.25">
       <c r="A28" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.25">
-      <c r="A29" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>346</v>
+        <v>550</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.25">
       <c r="A30" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17.25">
-      <c r="A31" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>346</v>
+        <v>413</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>91</v>
+      <c r="A32" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
       </c>
       <c r="C32" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="12" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="9" t="s">
-        <v>302</v>
+      <c r="A34" s="11" t="s">
+        <v>561</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="17.25">
-      <c r="A35" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>289</v>
+        <v>124</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="s">
+        <v>124</v>
       </c>
       <c r="C35" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>526</v>
+      <c r="A36" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>17</v>
+      <c r="A37" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>124</v>
       </c>
       <c r="C37" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17.25">
       <c r="A38" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" t="s">
-        <v>349</v>
+        <v>124</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17.25">
       <c r="A39" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>453</v>
-      </c>
-      <c r="C39" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="17.25">
-      <c r="A40" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>527</v>
+        <v>562</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17.25">
-      <c r="A41" s="11" t="s">
-        <v>539</v>
+      <c r="A41" s="9" t="s">
+        <v>479</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="C41" t="s">
-        <v>541</v>
+        <v>124</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17.25">
       <c r="A42" s="9" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="C42" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.25">
-      <c r="A43" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>504</v>
+        <v>124</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>512</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C44" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" t="s">
-        <v>350</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.25">
+      <c r="A45" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="12" t="s">
-        <v>183</v>
+      <c r="A46" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" t="s">
-        <v>350</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17.25">
+      <c r="A47" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.25">
+      <c r="A48" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C49" t="s">
-        <v>350</v>
+      <c r="A49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="12" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B51" t="s">
-        <v>139</v>
+        <v>5</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17.25">
+      <c r="A51" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="C51" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="12" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17.25">
       <c r="A53" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>139</v>
+        <v>482</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>213</v>
       </c>
       <c r="C53" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="17.25">
-      <c r="A54" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>139</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" t="s">
+        <v>169</v>
       </c>
       <c r="C54" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="17.25">
-      <c r="A55" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>139</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" t="s">
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4" ht="17.25">
-      <c r="A56" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>139</v>
+    <row r="56" spans="1:4">
+      <c r="A56" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="12" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>69</v>
+      <c r="A58" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="13" t="s">
-        <v>200</v>
+      <c r="A59" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17.25">
-      <c r="A60" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>199</v>
+      <c r="A60" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="13" t="s">
-        <v>122</v>
+      <c r="A61" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="12" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="B63" t="s">
-        <v>121</v>
+      <c r="A63" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17.25">
-      <c r="A64" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>121</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="17.25">
       <c r="A65" s="9" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="M65" t="s">
         <v>95</v>
@@ -3238,581 +3241,581 @@
     </row>
     <row r="66" spans="1:13" ht="17.25">
       <c r="A66" s="9" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>121</v>
+        <v>316</v>
       </c>
       <c r="C66" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="17.25">
-      <c r="A67" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>121</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" ht="17.25">
-      <c r="A68" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>121</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="17.25">
-      <c r="A69" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>121</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C69" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="17.25">
-      <c r="A70" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="B70" s="18" t="s">
-        <v>121</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B70" t="s">
+        <v>226</v>
       </c>
       <c r="C70" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="17.25">
-      <c r="A71" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="B71" s="18" t="s">
-        <v>121</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" t="s">
+        <v>87</v>
       </c>
       <c r="C71" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="17.25">
-      <c r="A72" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="B72" s="18" t="s">
-        <v>121</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" t="s">
+        <v>228</v>
       </c>
       <c r="C72" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="17.25">
-      <c r="A73" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="B73" s="18" t="s">
-        <v>121</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B74" t="s">
-        <v>209</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="17.25">
+      <c r="A74" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>310</v>
       </c>
       <c r="C74" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="17.25">
       <c r="A75" s="9" t="s">
-        <v>448</v>
+        <v>307</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>449</v>
+        <v>308</v>
       </c>
       <c r="C75" t="s">
-        <v>465</v>
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="17.25">
       <c r="A76" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>449</v>
+        <v>317</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>318</v>
       </c>
       <c r="C76" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B77" t="s">
-        <v>211</v>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="17.25">
+      <c r="A77" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>313</v>
       </c>
       <c r="C77" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="17.25">
       <c r="A78" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>211</v>
+        <v>314</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>313</v>
       </c>
       <c r="C78" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="17.25">
       <c r="A79" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>211</v>
+        <v>319</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>320</v>
       </c>
       <c r="C79" t="s">
-        <v>356</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="17.25">
       <c r="A80" s="9" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="C80" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17.25">
       <c r="A81" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>211</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="17.25">
-      <c r="A82" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>211</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17.25">
-      <c r="A83" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>211</v>
+      <c r="A83" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
+      <c r="A86" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B87" t="s">
-        <v>7</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17.25">
+      <c r="A87" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B87" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C87" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17.25">
+      <c r="A88" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
+      <c r="A89" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="17.25">
-      <c r="A90" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>7</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17.25">
       <c r="A91" s="9" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C91" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="17.25">
-      <c r="A92" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>7</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
       </c>
       <c r="C92" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17.25">
       <c r="A93" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>7</v>
+        <v>488</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17.25">
-      <c r="A94" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>498</v>
+      <c r="A94" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>513</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B95" t="s">
-        <v>243</v>
+      <c r="A95" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="15" t="s">
-        <v>241</v>
+      <c r="A96" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="B97" t="s">
-        <v>243</v>
+      <c r="A97" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17.25">
       <c r="A98" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>322</v>
+        <v>490</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="17.25">
-      <c r="A99" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
       </c>
       <c r="C99" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="17.25">
-      <c r="A100" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>322</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C100" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17.25">
-      <c r="A101" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>256</v>
+      <c r="A101" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="17.25">
-      <c r="A102" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>291</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="12" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="B103" t="s">
-        <v>219</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>80</v>
+      <c r="A104" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
       </c>
       <c r="C104" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B105" t="s">
-        <v>169</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="17.25">
+      <c r="A105" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>84</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="17.25">
+      <c r="A106" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" t="s">
-        <v>109</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="17.25">
+      <c r="A107" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B108" t="s">
-        <v>109</v>
+      <c r="A108" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C108" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="17.25">
-      <c r="A109" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>109</v>
+      <c r="A109" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C109" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="12" t="s">
-        <v>88</v>
+      <c r="A110" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="B110" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B111" t="s">
-        <v>87</v>
+      <c r="A111" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17.25">
       <c r="A112" s="9" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C112" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="17.25">
-      <c r="A113" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>87</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="17.25">
-      <c r="A114" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="B114" s="18" t="s">
-        <v>87</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17.25">
       <c r="A115" s="9" t="s">
-        <v>551</v>
+        <v>486</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C116" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" s="2" t="s">
+    <row r="117" spans="1:3" ht="17.25">
+      <c r="A117" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B117" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C117" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B118" s="2" t="s">
+    <row r="118" spans="1:3" ht="17.25">
+      <c r="A118" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B118" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C118" t="s">
@@ -3820,10 +3823,10 @@
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B119" s="2" t="s">
+      <c r="A119" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B119" t="s">
         <v>3</v>
       </c>
       <c r="C119" t="s">
@@ -3832,7 +3835,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>3</v>
@@ -3841,11 +3844,11 @@
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B121" s="2" t="s">
+    <row r="121" spans="1:3" ht="17.25">
+      <c r="A121" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="B121" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C121" t="s">
@@ -3853,10 +3856,10 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B122" s="2" t="s">
+      <c r="A122" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B122" t="s">
         <v>3</v>
       </c>
       <c r="C122" t="s">
@@ -3864,21 +3867,21 @@
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B123" s="3" t="s">
+      <c r="A123" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B123" t="s">
         <v>3</v>
       </c>
       <c r="C123" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" ht="17.25">
       <c r="A124" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B124" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C124" t="s">
@@ -3898,31 +3901,31 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B126" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C126" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B127" s="3" t="s">
+    <row r="127" spans="1:3" ht="17.25">
+      <c r="A127" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B127" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C127" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B128" s="3" t="s">
+    <row r="128" spans="1:3" ht="17.25">
+      <c r="A128" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B128" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C128" t="s">
@@ -3931,9 +3934,9 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B129" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C129" t="s">
@@ -3941,10 +3944,10 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B130" s="2" t="s">
+      <c r="A130" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B130" t="s">
         <v>3</v>
       </c>
       <c r="C130" t="s">
@@ -3953,7 +3956,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="11" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>3</v>
@@ -3962,22 +3965,22 @@
         <v>366</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B132" s="2" t="s">
+    <row r="132" spans="1:3" ht="17.25">
+      <c r="A132" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B132" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C132" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B133" s="2" t="s">
+    <row r="133" spans="1:3" ht="17.25">
+      <c r="A133" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B133" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C133" t="s">
@@ -3986,7 +3989,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>3</v>
@@ -3997,7 +4000,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>3</v>
@@ -4008,75 +4011,75 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="17.25">
+      <c r="A137" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B137" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="17.25">
+      <c r="A138" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="17.25">
+      <c r="A139" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C137" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C138" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C140" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B141" t="s">
+    <row r="141" spans="1:3" ht="17.25">
+      <c r="A141" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C141" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B142" t="s">
+    <row r="142" spans="1:3" ht="17.25">
+      <c r="A142" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B142" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C142" t="s">
@@ -4084,8 +4087,8 @@
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="13" t="s">
-        <v>131</v>
+      <c r="A143" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="B143" t="s">
         <v>3</v>
@@ -4095,8 +4098,8 @@
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="13" t="s">
-        <v>132</v>
+      <c r="A144" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="B144" t="s">
         <v>3</v>
@@ -4105,66 +4108,66 @@
         <v>366</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B145" t="s">
+    <row r="145" spans="1:3" ht="17.25">
+      <c r="A145" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B145" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C145" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B146" t="s">
+    <row r="146" spans="1:3" ht="17.25">
+      <c r="A146" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="B146" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C146" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B147" t="s">
+    <row r="147" spans="1:3" ht="17.25">
+      <c r="A147" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B147" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C147" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148" t="s">
+    <row r="148" spans="1:3" ht="17.25">
+      <c r="A148" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B148" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C148" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B149" t="s">
+    <row r="149" spans="1:3" ht="17.25">
+      <c r="A149" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B149" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C149" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B150" t="s">
+    <row r="150" spans="1:3" ht="17.25">
+      <c r="A150" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C150" t="s">
@@ -4173,7 +4176,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="12" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="B151" t="s">
         <v>3</v>
@@ -4184,7 +4187,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="12" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="B152" t="s">
         <v>3</v>
@@ -4194,21 +4197,21 @@
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B153" t="s">
+      <c r="A153" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C153" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B154" t="s">
+    <row r="154" spans="1:3" ht="17.25">
+      <c r="A154" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B154" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C154" t="s">
@@ -4217,7 +4220,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="12" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="B155" t="s">
         <v>3</v>
@@ -4228,7 +4231,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="12" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -4238,43 +4241,43 @@
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B157" t="s">
+      <c r="A157" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C157" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B158" t="s">
+    <row r="158" spans="1:3" ht="17.25">
+      <c r="A158" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="B158" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C158" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B159" t="s">
+    <row r="159" spans="1:3" ht="17.25">
+      <c r="A159" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B159" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C159" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="B160" t="s">
+    <row r="160" spans="1:3" ht="17.25">
+      <c r="A160" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B160" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C160" t="s">
@@ -4283,7 +4286,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="12" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="B161" t="s">
         <v>3</v>
@@ -4294,2438 +4297,2449 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="12" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="B162" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="C162" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B163" t="s">
-        <v>3</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="17.25">
+      <c r="A163" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>498</v>
       </c>
       <c r="C163" t="s">
-        <v>366</v>
+        <v>513</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="12" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B164" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="C164" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="17.25">
-      <c r="A165" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>3</v>
+      <c r="A165" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="C165" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="17.25">
-      <c r="A166" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>3</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B166" t="s">
+        <v>87</v>
       </c>
       <c r="C166" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="17.25">
       <c r="A167" s="9" t="s">
-        <v>267</v>
+        <v>551</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C167" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="17.25">
       <c r="A168" s="9" t="s">
-        <v>268</v>
+        <v>417</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C168" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="17.25">
       <c r="A169" s="9" t="s">
-        <v>269</v>
+        <v>418</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C169" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="17.25">
       <c r="A170" s="9" t="s">
-        <v>270</v>
+        <v>499</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C170" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="17.25">
-      <c r="A171" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>3</v>
+        <v>135</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B171" t="s">
+        <v>135</v>
       </c>
       <c r="C171" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="17.25">
       <c r="A172" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C172" t="s">
-        <v>366</v>
+        <v>419</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="17.25">
-      <c r="A173" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B173" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C173" t="s">
-        <v>366</v>
+      <c r="A173" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="17.25">
       <c r="A174" s="9" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174" t="s">
-        <v>366</v>
+        <v>135</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="17.25">
       <c r="A175" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="B175" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C175" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="17.25">
-      <c r="A176" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="B176" s="18" t="s">
-        <v>3</v>
+        <v>293</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B176" t="s">
+        <v>89</v>
       </c>
       <c r="C176" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="17.25">
       <c r="A177" s="9" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="C177" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="17.25">
       <c r="A178" s="9" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="B178" s="18" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="C178" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="17.25">
       <c r="A179" s="9" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>3</v>
+        <v>422</v>
       </c>
       <c r="C179" t="s">
-        <v>366</v>
+        <v>427</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="17.25">
       <c r="A180" s="9" t="s">
-        <v>447</v>
+        <v>294</v>
       </c>
       <c r="B180" s="18" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="C180" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="17.25">
       <c r="A181" s="9" t="s">
-        <v>468</v>
+        <v>295</v>
       </c>
       <c r="B181" s="18" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="C181" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="17.25">
       <c r="A182" s="9" t="s">
-        <v>469</v>
+        <v>296</v>
       </c>
       <c r="B182" s="18" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="C182" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="17.25">
       <c r="A183" s="9" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="C183" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="17.25">
       <c r="A184" s="9" t="s">
-        <v>471</v>
+        <v>297</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="C184" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="17.25">
-      <c r="A185" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="B185" s="18" t="s">
-        <v>3</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B185" t="s">
+        <v>99</v>
       </c>
       <c r="C185" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="17.25">
       <c r="A186" s="9" t="s">
-        <v>473</v>
+        <v>298</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="C186" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="17.25">
       <c r="A187" s="9" t="s">
-        <v>474</v>
+        <v>299</v>
       </c>
       <c r="B187" s="18" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="C187" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="17.25">
-      <c r="A188" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="B188" s="18" t="s">
-        <v>3</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B188" t="s">
+        <v>206</v>
       </c>
       <c r="C188" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="17.25">
-      <c r="A189" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="B189" s="18" t="s">
-        <v>3</v>
+      <c r="A189" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>567</v>
       </c>
       <c r="C189" t="s">
-        <v>366</v>
+        <v>574</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="17.25">
       <c r="A190" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="B190" s="18" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="C190" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="17.25">
-      <c r="A191" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B191" s="18" t="s">
-        <v>3</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B191" t="s">
+        <v>91</v>
       </c>
       <c r="C191" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="17.25">
       <c r="A192" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="B192" s="18" t="s">
-        <v>3</v>
+        <v>302</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="C192" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="17.25">
-      <c r="A193" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B193" s="18" t="s">
-        <v>3</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="C193" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="17.25">
       <c r="A194" s="9" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B194" s="18" t="s">
-        <v>3</v>
+        <v>424</v>
       </c>
       <c r="C194" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="17.25">
       <c r="A195" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="B195" s="18" t="s">
-        <v>3</v>
+        <v>423</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>424</v>
       </c>
       <c r="C195" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="17.25">
       <c r="A196" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="B196" s="18" t="s">
-        <v>3</v>
+        <v>503</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>504</v>
       </c>
       <c r="C196" t="s">
-        <v>366</v>
+        <v>512</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="17.25">
       <c r="A197" s="9" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>3</v>
+        <v>504</v>
       </c>
       <c r="C197" t="s">
-        <v>366</v>
+        <v>512</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="17.25">
       <c r="A198" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="B198" s="18" t="s">
-        <v>3</v>
+        <v>425</v>
+      </c>
+      <c r="B198" s="9" t="s">
+        <v>426</v>
       </c>
       <c r="C198" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="17.25">
       <c r="A199" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="B199" s="18" t="s">
-        <v>3</v>
+        <v>303</v>
+      </c>
+      <c r="B199" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="C199" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="17.25">
-      <c r="A200" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="B200" s="18" t="s">
-        <v>3</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B200" t="s">
+        <v>148</v>
       </c>
       <c r="C200" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="17.25">
-      <c r="A201" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B201" s="9" t="s">
-        <v>3</v>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B201" t="s">
+        <v>148</v>
       </c>
       <c r="C201" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="17.25">
-      <c r="A202" s="11" t="s">
-        <v>534</v>
+      <c r="A202" s="9" t="s">
+        <v>457</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="C202" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="17.25">
-      <c r="A203" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>3</v>
+      <c r="A203" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B203" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="C203" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="17.25">
-      <c r="A204" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>3</v>
+      <c r="A204" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B204" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="C204" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="17.25">
-      <c r="A205" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>3</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B205" t="s">
+        <v>230</v>
       </c>
       <c r="C205" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="17.25">
-      <c r="A206" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B206" s="9" t="s">
-        <v>310</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B206" t="s">
+        <v>113</v>
       </c>
       <c r="C206" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="12" t="s">
-        <v>198</v>
+        <v>112</v>
       </c>
       <c r="B207" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="C207" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="17.25">
       <c r="A208" s="9" t="s">
-        <v>506</v>
+        <v>460</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="C208" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="17.25">
       <c r="A209" s="9" t="s">
-        <v>507</v>
+        <v>461</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="C209" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="17.25">
       <c r="A210" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="B210" s="18" t="s">
-        <v>197</v>
+        <v>232</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="C210" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="17.25">
-      <c r="A211" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="B211" s="18" t="s">
-        <v>197</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C211" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="17.25">
-      <c r="A212" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="B212" s="18" t="s">
-        <v>197</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="C212" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="17.25">
       <c r="A213" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B213" s="18" t="s">
-        <v>197</v>
+        <v>547</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C213" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="17.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>197</v>
+        <v>20</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C214" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="17.25">
-      <c r="A215" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B215" s="9" t="s">
-        <v>197</v>
+      <c r="A215" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B215" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C215" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="17.25">
-      <c r="A216" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B216" s="9" t="s">
-        <v>197</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B216" t="s">
+        <v>24</v>
       </c>
       <c r="C216" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="17.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B217" s="9" t="s">
-        <v>197</v>
+        <v>21</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C217" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B218" t="s">
-        <v>174</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="17.25">
+      <c r="A218" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B218" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C218" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B219" t="s">
+      <c r="A219" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C219" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C220" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C221" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="17.25">
+      <c r="A222" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B222" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C222" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C223" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C224" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="B225" t="s">
         <v>135</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C225" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
-      <c r="A220" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B220" t="s">
+    <row r="226" spans="1:3">
+      <c r="A226" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B226" t="s">
         <v>135</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C226" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B221" t="s">
-        <v>135</v>
-      </c>
-      <c r="C221" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B222" t="s">
-        <v>135</v>
-      </c>
-      <c r="C222" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="17.25">
-      <c r="A223" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="B223" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="17.25">
-      <c r="A224" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="B224" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="17.25">
-      <c r="A225" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="B225" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="17.25">
-      <c r="A226" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="B226" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
     <row r="227" spans="1:3" ht="17.25">
-      <c r="A227" s="9" t="s">
-        <v>499</v>
+      <c r="A227" s="19" t="s">
+        <v>431</v>
       </c>
       <c r="B227" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>370</v>
+        <v>153</v>
+      </c>
+      <c r="C227" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="12" t="s">
-        <v>223</v>
+        <v>160</v>
       </c>
       <c r="B228" t="s">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="C228" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="12" t="s">
-        <v>90</v>
+        <v>154</v>
       </c>
       <c r="B229" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="C229" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="17.25">
-      <c r="A230" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="B230" s="18" t="s">
-        <v>89</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B230" t="s">
+        <v>153</v>
       </c>
       <c r="C230" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="17.25">
-      <c r="A231" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="B231" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C231" t="s">
-        <v>372</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C231" s="20" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="17.25">
-      <c r="A232" s="9" t="s">
-        <v>286</v>
+      <c r="A232" s="11" t="s">
+        <v>529</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>287</v>
+        <v>530</v>
       </c>
       <c r="C232" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="17.25">
       <c r="A233" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C233" t="s">
-        <v>374</v>
+        <v>537</v>
+      </c>
+      <c r="B233" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="17.25">
-      <c r="A234" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="B234" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="C234" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>76</v>
+      <c r="A234" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="B234" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="17.25">
+      <c r="A235" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B235" s="18" t="s">
+        <v>463</v>
       </c>
       <c r="C235" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B236" t="s">
-        <v>104</v>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="17.25">
+      <c r="A236" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="B236" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="C236" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" s="12" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C237" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="17.25">
-      <c r="A238" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="B238" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B238" t="s">
+        <v>109</v>
+      </c>
+      <c r="C238" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="17.25">
-      <c r="A239" s="9" t="s">
-        <v>327</v>
+      <c r="A239" s="11" t="s">
+        <v>570</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" ht="17.25">
-      <c r="A240" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="B240" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>376</v>
+        <v>116</v>
+      </c>
+      <c r="C239" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B240" t="s">
+        <v>116</v>
+      </c>
+      <c r="C240" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="17.25">
       <c r="A241" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B241" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" ht="17.25">
-      <c r="A242" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="B242" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>376</v>
+        <v>514</v>
+      </c>
+      <c r="B241" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="C241" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B242" t="s">
+        <v>209</v>
+      </c>
+      <c r="C242" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="17.25">
-      <c r="A243" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B243" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C243" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="17.25">
-      <c r="A244" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="B244" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C244" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="17.25">
-      <c r="A245" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B245" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C245" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="17.25">
-      <c r="A246" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="B246" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" ht="17.25">
-      <c r="A247" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="B247" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="17.25">
-      <c r="A248" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="B248" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="17.25">
-      <c r="A249" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="B249" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>44</v>
+      <c r="A243" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B244" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B245" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B246" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B247" t="s">
+        <v>3</v>
+      </c>
+      <c r="C247" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B249" t="s">
+        <v>3</v>
+      </c>
+      <c r="C249" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="17.25">
+      <c r="A250" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B250" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C250" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>44</v>
+      <c r="A251" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B251" t="s">
+        <v>194</v>
       </c>
       <c r="C251" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3">
-      <c r="A252" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B252" t="s">
-        <v>213</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="17.25">
+      <c r="A252" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="C252" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="17.25">
-      <c r="A253" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="B253" s="9" t="s">
-        <v>213</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B253" t="s">
+        <v>194</v>
       </c>
       <c r="C253" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="17.25">
-      <c r="A254" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="B254" s="18" t="s">
-        <v>213</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C254" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" ht="17.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="B255" s="9" t="s">
-        <v>560</v>
+        <v>25</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" ht="17.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="B256" s="9" t="s">
-        <v>567</v>
+        <v>26</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C256" t="s">
-        <v>574</v>
+        <v>379</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B257" t="s">
-        <v>206</v>
+      <c r="A257" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C257" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="17.25">
-      <c r="A258" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B258" s="18" t="s">
-        <v>206</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C258" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" ht="17.25">
-      <c r="A259" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B259" s="18" t="s">
-        <v>206</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C259" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" ht="17.25">
-      <c r="A260" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B260" s="18" t="s">
-        <v>206</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C260" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="17.25">
       <c r="A261" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="B261" s="18" t="s">
-        <v>206</v>
+        <v>323</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>322</v>
       </c>
       <c r="C261" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="17.25">
       <c r="A262" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B262" s="18" t="s">
-        <v>206</v>
+        <v>279</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>322</v>
       </c>
       <c r="C262" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="17.25">
       <c r="A263" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B263" s="18" t="s">
-        <v>206</v>
+        <v>321</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>322</v>
       </c>
       <c r="C263" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="17.25">
-      <c r="A264" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="B264" s="18" t="s">
-        <v>206</v>
+      <c r="A264" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="C264" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B265" t="s">
-        <v>99</v>
+      <c r="A265" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>12</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="17.25">
+      <c r="A266" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B266" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="C266" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="17.25">
       <c r="A267" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>12</v>
+        <v>542</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="C267" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>12</v>
+      <c r="A268" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B268" t="s">
+        <v>197</v>
       </c>
       <c r="C268" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>12</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="17.25">
+      <c r="A269" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B269" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="C269" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>12</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="17.25">
+      <c r="A270" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B270" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="C270" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="17.25">
       <c r="A271" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>12</v>
+        <v>544</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="C271" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3">
-      <c r="A272" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>12</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="17.25">
+      <c r="A272" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B272" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="C272" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="17.25">
       <c r="A273" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>12</v>
+        <v>543</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="C273" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="17.25">
       <c r="A274" s="9" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
       <c r="B274" s="18" t="s">
-        <v>463</v>
+        <v>197</v>
       </c>
       <c r="C274" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3">
-      <c r="A275" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B275" t="s">
-        <v>201</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="17.25">
+      <c r="A275" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="B275" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="C275" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="17.25">
-      <c r="A276" s="9" t="s">
-        <v>315</v>
+      <c r="A276" s="11" t="s">
+        <v>545</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>316</v>
+        <v>197</v>
       </c>
       <c r="C276" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3">
-      <c r="A277" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>39</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="17.25">
+      <c r="A277" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>305</v>
       </c>
       <c r="C277" t="s">
-        <v>382</v>
+        <v>345</v>
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>39</v>
+      <c r="A278" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B278" t="s">
+        <v>139</v>
       </c>
       <c r="C278" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>39</v>
+      <c r="A279" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B279" t="s">
+        <v>139</v>
       </c>
       <c r="C279" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="17.25">
-      <c r="A280" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B280" s="9" t="s">
-        <v>39</v>
+      <c r="A280" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B280" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="C280" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" ht="17.25">
-      <c r="A281" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="B281" s="9" t="s">
-        <v>39</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B281" t="s">
+        <v>139</v>
       </c>
       <c r="C281" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" ht="17.25">
-      <c r="A282" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="B282" s="9" t="s">
-        <v>39</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B282" t="s">
+        <v>139</v>
       </c>
       <c r="C282" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" ht="17.25">
-      <c r="A283" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="B283" s="9" t="s">
-        <v>522</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B283" t="s">
+        <v>139</v>
       </c>
       <c r="C283" t="s">
-        <v>525</v>
+        <v>350</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="17.25">
       <c r="A284" s="9" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C284" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3">
+        <v>139</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="17.25">
       <c r="A285" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C285" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3">
+        <v>577</v>
+      </c>
+      <c r="B285" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="17.25">
       <c r="A286" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>24</v>
+        <v>538</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="C286" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>24</v>
+      <c r="A287" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B287" t="s">
+        <v>139</v>
       </c>
       <c r="C287" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>24</v>
+      <c r="A288" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B288" t="s">
+        <v>139</v>
       </c>
       <c r="C288" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="13" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="B289" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="C289" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="17.25">
-      <c r="A290" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="B290" s="9" t="s">
-        <v>24</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B290" t="s">
+        <v>139</v>
       </c>
       <c r="C290" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="17.25">
-      <c r="A291" s="9" t="s">
-        <v>548</v>
+      <c r="A291" s="11" t="s">
+        <v>576</v>
       </c>
       <c r="B291" s="18" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="C291" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="17.25">
       <c r="A292" s="9" t="s">
-        <v>549</v>
+        <v>434</v>
       </c>
       <c r="B292" s="18" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="C292" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" ht="17.25">
-      <c r="A293" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="B293" s="9" t="s">
-        <v>572</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B293" t="s">
+        <v>211</v>
       </c>
       <c r="C293" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3">
-      <c r="A294" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B294" t="s">
-        <v>224</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="17.25">
+      <c r="A294" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B294" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="C294" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3">
-      <c r="A295" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>67</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="17.25">
+      <c r="A295" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B295" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="C295" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3">
-      <c r="A296" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B296" t="s">
-        <v>164</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="17.25">
+      <c r="A296" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B296" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="C296" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3">
-      <c r="A297" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B297" t="s">
-        <v>164</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="17.25">
+      <c r="A297" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B297" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="C297" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3">
-      <c r="A298" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B298" t="s">
-        <v>164</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="17.25">
+      <c r="A298" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B298" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="C298" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" s="12" t="s">
-        <v>167</v>
+      <c r="A299" s="13" t="s">
+        <v>239</v>
       </c>
       <c r="B299" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="C299" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" s="12" t="s">
-        <v>172</v>
+      <c r="A300" s="15" t="s">
+        <v>242</v>
       </c>
       <c r="B300" t="s">
-        <v>164</v>
+        <v>243</v>
       </c>
       <c r="C300" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" s="12" t="s">
-        <v>154</v>
+      <c r="A301" s="15" t="s">
+        <v>241</v>
       </c>
       <c r="B301" t="s">
-        <v>153</v>
+        <v>243</v>
       </c>
       <c r="C301" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3">
-      <c r="A302" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B302" t="s">
-        <v>153</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="17.25">
+      <c r="A302" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="B302" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="C302" t="s">
-        <v>388</v>
+        <v>541</v>
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B303" t="s">
-        <v>153</v>
+      <c r="A303" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B303" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="C303" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="17.25">
-      <c r="A304" s="19" t="s">
-        <v>431</v>
+      <c r="A304" s="9" t="s">
+        <v>440</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="C304" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" s="12" t="s">
-        <v>115</v>
+      <c r="A305" s="15" t="s">
+        <v>244</v>
       </c>
       <c r="B305" t="s">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="C305" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" ht="17.25">
-      <c r="A306" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="B306" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C306" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3">
-      <c r="A307" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C307" s="6" t="s">
-        <v>341</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C306" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="17.25">
+      <c r="A307" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B307" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C307" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308" s="12" t="s">
-        <v>143</v>
+      <c r="A308" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="B308" t="s">
-        <v>5</v>
-      </c>
-      <c r="C308" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3">
-      <c r="A309" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>82</v>
+        <v>135</v>
+      </c>
+      <c r="C308" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="17.25">
+      <c r="A309" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B309" s="9" t="s">
+        <v>287</v>
       </c>
       <c r="C309" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="17.25">
-      <c r="A310" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="B310" s="9" t="s">
-        <v>515</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C310" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3">
-      <c r="A311" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="B311" t="s">
-        <v>230</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="17.25">
+      <c r="A311" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B311" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="C311" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3">
-      <c r="A312" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B312" s="8" t="s">
-        <v>230</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="17.25">
+      <c r="A312" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B312" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="C312" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="17.25">
       <c r="A313" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="B313" s="18" t="s">
-        <v>230</v>
+        <v>282</v>
+      </c>
+      <c r="B313" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="C313" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3">
-      <c r="A314" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B314" t="s">
-        <v>85</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="17.25">
+      <c r="A314" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B314" s="9" t="s">
+        <v>449</v>
       </c>
       <c r="C314" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="17.25">
-      <c r="A315" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="B315" s="18" t="s">
-        <v>85</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B315" t="s">
+        <v>93</v>
       </c>
       <c r="C315" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="17.25">
       <c r="A316" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B316" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C316" t="s">
-        <v>393</v>
+        <v>467</v>
+      </c>
+      <c r="B316" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="17.25">
       <c r="A317" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="B317" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C317" t="s">
-        <v>428</v>
+        <v>450</v>
+      </c>
+      <c r="B317" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="C317" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="17.25">
-      <c r="A318" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="B318" s="18" t="s">
-        <v>424</v>
+      <c r="A318" s="11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>453</v>
       </c>
       <c r="C318" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="17.25">
       <c r="A319" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B319" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C319" t="s">
-        <v>394</v>
+        <v>454</v>
+      </c>
+      <c r="B319" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B320" t="s">
-        <v>124</v>
+      <c r="A320" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C320" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3">
-      <c r="A321" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B321" t="s">
-        <v>124</v>
-      </c>
-      <c r="C321" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="322" spans="1:3">
-      <c r="A322" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B322" t="s">
-        <v>124</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="17.25">
+      <c r="A321" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C321" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="17.25">
+      <c r="A322" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B322" s="18" t="s">
+        <v>449</v>
       </c>
       <c r="C322" t="s">
-        <v>395</v>
+        <v>465</v>
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323" s="13" t="s">
-        <v>128</v>
+      <c r="A323" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="B323" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="C323" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3">
-      <c r="A324" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B324" t="s">
-        <v>124</v>
-      </c>
-      <c r="C324" t="s">
-        <v>395</v>
+        <v>398</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="17.25">
+      <c r="A324" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B324" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C324" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="12" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="B325" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C325" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3">
-      <c r="A326" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="B326" t="s">
-        <v>124</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="17.25">
+      <c r="A326" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>517</v>
       </c>
       <c r="C326" t="s">
-        <v>395</v>
+        <v>523</v>
       </c>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327" s="12" t="s">
-        <v>216</v>
+      <c r="A327" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="B327" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="C327" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3">
-      <c r="A328" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B328" t="s">
-        <v>124</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="17.25">
+      <c r="A328" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B328" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="C328" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="17.25">
       <c r="A329" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="B329" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C329" s="6" t="s">
-        <v>395</v>
+        <v>327</v>
+      </c>
+      <c r="B329" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C329" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="17.25">
       <c r="A330" s="9" t="s">
-        <v>478</v>
+        <v>328</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C330" s="6" t="s">
-        <v>395</v>
+        <v>104</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="331" spans="1:3" ht="17.25">
       <c r="A331" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="B331" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C331" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" ht="17.25">
-      <c r="A332" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="B332" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C332" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" ht="17.25">
+        <v>329</v>
+      </c>
+      <c r="B331" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C331" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C332" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
       <c r="A333" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="B333" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C333" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" ht="17.25">
-      <c r="A334" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="B334" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C334" s="6" t="s">
-        <v>395</v>
+        <v>6</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C333" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B334" t="s">
+        <v>104</v>
+      </c>
+      <c r="C334" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="335" spans="1:3" ht="17.25">
-      <c r="A335" s="11" t="s">
-        <v>563</v>
+      <c r="A335" s="9" t="s">
+        <v>518</v>
       </c>
       <c r="B335" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C335" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" ht="17.25">
-      <c r="A336" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="B336" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
-      <c r="A337" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B337" t="s">
-        <v>226</v>
+        <v>104</v>
+      </c>
+      <c r="C335" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B336" t="s">
+        <v>201</v>
+      </c>
+      <c r="C336" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="17.25">
+      <c r="A337" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="B337" s="9" t="s">
+        <v>572</v>
       </c>
       <c r="C337" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
-      <c r="A338" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C338" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3">
-      <c r="A339" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C339" t="s">
-        <v>397</v>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="17.25">
+      <c r="A338" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B338" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C338" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="17.25">
+      <c r="A339" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B339" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C339" s="6" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="340" spans="1:3" ht="17.25">
       <c r="A340" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="B340" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C340" t="s">
-        <v>429</v>
+        <v>331</v>
+      </c>
+      <c r="B340" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C340" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="17.25">
       <c r="A341" s="9" t="s">
-        <v>450</v>
+        <v>332</v>
       </c>
       <c r="B341" s="18" t="s">
-        <v>451</v>
+        <v>104</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="17.25">
       <c r="A342" s="9" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="B342" s="18" t="s">
-        <v>451</v>
+        <v>104</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="17.25">
       <c r="A343" s="9" t="s">
-        <v>455</v>
-      </c>
-      <c r="B343" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C343" s="6" t="s">
-        <v>398</v>
+        <v>333</v>
+      </c>
+      <c r="B343" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C343" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="17.25">
       <c r="A344" s="9" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="B344" s="18" t="s">
-        <v>451</v>
+        <v>104</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="A345" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B345" t="s">
-        <v>107</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="17.25">
+      <c r="A345" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B345" s="9" t="s">
+        <v>522</v>
       </c>
       <c r="C345" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
-      <c r="A346" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>107</v>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="17.25">
+      <c r="A346" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B346" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C346" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="347" spans="1:3">
-      <c r="A347" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B347" t="s">
-        <v>228</v>
+      <c r="A347" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="C347" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="17.25">
-      <c r="A348" s="9" t="s">
-        <v>516</v>
+      <c r="A348" s="11" t="s">
+        <v>475</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>517</v>
+        <v>40</v>
       </c>
       <c r="C348" t="s">
-        <v>523</v>
+        <v>402</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="17.25">
-      <c r="A349" s="9" t="s">
-        <v>317</v>
+      <c r="A349" s="11" t="s">
+        <v>476</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="C349" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B350" t="s">
-        <v>171</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="17.25">
+      <c r="A350" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B350" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C350" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B351" t="s">
-        <v>148</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="17.25">
+      <c r="A351" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="C351" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B352" t="s">
-        <v>148</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="17.25">
+      <c r="A352" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B352" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="C352" t="s">
-        <v>338</v>
+        <v>410</v>
       </c>
     </row>
     <row r="353" spans="1:3" ht="17.25">
-      <c r="A353" s="9" t="s">
-        <v>303</v>
+      <c r="A353" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>148</v>
+        <v>249</v>
       </c>
       <c r="C353" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
-      <c r="A354" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>40</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="17.25">
+      <c r="A354" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B354" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="C354" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="355" spans="1:3" ht="17.25">
       <c r="A355" s="17" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B355" s="9" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="C355" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="17.25">
-      <c r="A356" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B356" s="9" t="s">
-        <v>40</v>
+      <c r="A356" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B356" s="18" t="s">
+        <v>249</v>
       </c>
       <c r="C356" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="17.25">
-      <c r="A357" s="11" t="s">
-        <v>475</v>
+      <c r="A357" s="17" t="s">
+        <v>261</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="C357" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="17.25">
-      <c r="A358" s="11" t="s">
-        <v>476</v>
+      <c r="A358" s="17" t="s">
+        <v>262</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C358" t="s">
-        <v>402</v>
+        <v>263</v>
+      </c>
+      <c r="C358" s="21" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="359" spans="1:3">
-      <c r="A359" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B359" t="s">
-        <v>194</v>
+      <c r="A359" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C359" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
-      <c r="A360" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B360" t="s">
-        <v>194</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="17.25">
+      <c r="A360" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B360" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C360" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" ht="17.25">
-      <c r="A361" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B361" s="9" t="s">
-        <v>194</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C361" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" ht="17.25">
-      <c r="A362" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B362" s="9" t="s">
-        <v>313</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C362" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="17.25">
-      <c r="A363" s="9" t="s">
-        <v>314</v>
+      <c r="A363" s="17" t="s">
+        <v>265</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
       <c r="C363" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
     </row>
     <row r="364" spans="1:3">
-      <c r="A364" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B364" t="s">
-        <v>118</v>
+      <c r="A364" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C364" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
-      <c r="A365" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B365" t="s">
-        <v>113</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="17.25">
+      <c r="A365" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B365" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C365" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
     </row>
     <row r="366" spans="1:3">
-      <c r="A366" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B366" t="s">
-        <v>113</v>
+      <c r="A366" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C366" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="17.25">
-      <c r="A367" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="B367" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C367" t="s">
-        <v>406</v>
+      <c r="A367" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B367" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C367" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="17.25">
       <c r="A368" s="9" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="B368" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C368" t="s">
-        <v>406</v>
+        <v>233</v>
+      </c>
+      <c r="C368" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="17.25">
       <c r="A369" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="B369" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C369" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="17.25">
-      <c r="A370" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="B370" s="18" t="s">
-        <v>113</v>
+        <v>432</v>
+      </c>
+      <c r="B369" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C369" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B370" t="s">
+        <v>233</v>
       </c>
       <c r="C370" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" ht="17.25">
-      <c r="A371" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="B371" s="18" t="s">
-        <v>113</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B371" t="s">
+        <v>233</v>
       </c>
       <c r="C371" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="17.25">
       <c r="A372" s="9" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C372" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
-      <c r="A373" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B373" t="s">
-        <v>93</v>
+        <v>233</v>
+      </c>
+      <c r="C372" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="17.25">
+      <c r="A373" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B373" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="C373" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" ht="17.25">
-      <c r="A374" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B374" s="9" t="s">
-        <v>320</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B374" t="s">
+        <v>233</v>
       </c>
       <c r="C374" t="s">
-        <v>408</v>
+        <v>346</v>
       </c>
     </row>
     <row r="375" spans="1:3">
-      <c r="A375" s="15" t="s">
-        <v>244</v>
+      <c r="A375" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="B375" t="s">
-        <v>245</v>
+        <v>7</v>
       </c>
       <c r="C375" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" ht="17.25">
-      <c r="A376" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B376" s="9" t="s">
-        <v>249</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B376" t="s">
+        <v>7</v>
       </c>
       <c r="C376" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" ht="17.25">
-      <c r="A377" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B377" s="9" t="s">
-        <v>249</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C377" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" ht="17.25">
-      <c r="A378" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B378" s="9" t="s">
-        <v>249</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B378" t="s">
+        <v>7</v>
       </c>
       <c r="C378" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
     </row>
     <row r="379" spans="1:3" ht="17.25">
-      <c r="A379" s="17" t="s">
-        <v>252</v>
+      <c r="A379" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>249</v>
+        <v>7</v>
       </c>
       <c r="C379" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="17.25">
-      <c r="A380" s="17" t="s">
-        <v>259</v>
+      <c r="A380" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>249</v>
+        <v>7</v>
       </c>
       <c r="C380" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="17.25">
-      <c r="A381" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="B381" s="18" t="s">
-        <v>249</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B381" t="s">
+        <v>7</v>
       </c>
       <c r="C381" t="s">
-        <v>410</v>
+        <v>357</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="17.25">
-      <c r="A382" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="B382" s="9" t="s">
-        <v>249</v>
+      <c r="A382" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B382" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="C382" t="s">
-        <v>410</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="17.25">
+      <c r="A383" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B383" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C382">
-    <sortCondition ref="B364"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C383">
+    <sortCondition ref="A367:A383"/>
   </sortState>
   <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A80 A1:A6">
     <cfRule type="duplicateValues" dxfId="29" priority="50"/>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Positivo\Desktop\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A32799-5F1E-45D6-8A52-C05ACFEFB6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80616284-4D67-4A82-BFD3-39E03214BFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76F5BC51-B760-4FA3-AB8F-88287AF0B4D0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="580">
   <si>
     <t>Pais</t>
   </si>
@@ -1759,6 +1759,12 @@
   </si>
   <si>
     <t>SBMT</t>
+  </si>
+  <si>
+    <t>VNKT</t>
+  </si>
+  <si>
+    <t>UUDD</t>
   </si>
 </sst>
 </file>
@@ -2507,10 +2513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90933E9-EB56-48AC-A2B1-0F57E862D43F}">
-  <dimension ref="A1:M383"/>
+  <dimension ref="A1:M385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C284" sqref="C284:C285"/>
+    <sheetView tabSelected="1" topLeftCell="A368" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A386" sqref="A386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6735,6 +6741,28 @@
       </c>
       <c r="C383" t="s">
         <v>357</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C384" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C385" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Positivo\Desktop\infinteflightaerobrasil_atc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80616284-4D67-4A82-BFD3-39E03214BFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC674CB-1141-438A-8AEA-BF29A2958261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76F5BC51-B760-4FA3-AB8F-88287AF0B4D0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="581">
   <si>
     <t>Pais</t>
   </si>
@@ -1765,6 +1765,9 @@
   </si>
   <si>
     <t>UUDD</t>
+  </si>
+  <si>
+    <t>KSAN</t>
   </si>
 </sst>
 </file>
@@ -2513,10 +2516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90933E9-EB56-48AC-A2B1-0F57E862D43F}">
-  <dimension ref="A1:M385"/>
+  <dimension ref="A1:M386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A368" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A386" sqref="A386"/>
+    <sheetView tabSelected="1" topLeftCell="A366" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C206" sqref="C206:C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2537,709 +2540,709 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25">
-      <c r="A2" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>560</v>
+    <row r="2" spans="1:3">
+      <c r="A2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>565</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>121</v>
+      <c r="A3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.25">
-      <c r="A4" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>121</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25">
-      <c r="A5" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>121</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" t="s">
-        <v>121</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25">
+      <c r="A6" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>121</v>
+        <v>412</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.25">
-      <c r="A8" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>121</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" t="s">
-        <v>121</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25">
+      <c r="A9" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25">
-      <c r="A10" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>121</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25">
-      <c r="A11" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>121</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="6" customFormat="1" ht="17.25">
       <c r="A12" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>121</v>
+        <v>550</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25">
-      <c r="A13" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>121</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17.25">
       <c r="A14" s="9" t="s">
-        <v>557</v>
+        <v>413</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25">
-      <c r="A15" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>121</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B16" t="s">
-        <v>222</v>
+      <c r="A16" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11" t="s">
-        <v>60</v>
+      <c r="A17" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25">
+      <c r="A18" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="C18" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="B19" t="s">
-        <v>224</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25">
+      <c r="A19" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="C19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B20" t="s">
-        <v>118</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25">
+      <c r="A20" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>530</v>
       </c>
       <c r="C20" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25">
       <c r="A21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
-        <v>349</v>
+        <v>537</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17.25">
-      <c r="A22" s="9" t="s">
-        <v>477</v>
+      <c r="A22" s="11" t="s">
+        <v>568</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>349</v>
+        <v>530</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.25">
       <c r="A23" s="9" t="s">
-        <v>412</v>
+        <v>304</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>97</v>
+        <v>305</v>
       </c>
       <c r="C23" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="B24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" t="s">
-        <v>337</v>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25">
+      <c r="A24" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.25">
-      <c r="A25" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" t="s">
-        <v>337</v>
+      <c r="A25" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25">
+      <c r="A26" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>123</v>
+      <c r="A27" s="12" t="s">
+        <v>234</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="C27" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17.25">
-      <c r="A28" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>97</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" t="s">
+        <v>233</v>
       </c>
       <c r="C28" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" t="s">
-        <v>337</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25">
+      <c r="A29" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17.25">
       <c r="A30" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>97</v>
+        <v>276</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>233</v>
       </c>
       <c r="C30" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="12" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="C31" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="12" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B33" t="s">
-        <v>124</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17.25">
+      <c r="A33" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17.25">
-      <c r="A34" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="B35" t="s">
-        <v>124</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.25">
+      <c r="A35" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>289</v>
       </c>
       <c r="C35" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="B36" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" t="s">
-        <v>395</v>
+      <c r="A36" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B37" t="s">
-        <v>124</v>
+      <c r="A37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17.25">
       <c r="A38" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>395</v>
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17.25">
       <c r="A39" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" t="s">
-        <v>395</v>
+        <v>452</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C39" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.25">
+      <c r="A40" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17.25">
-      <c r="A41" s="9" t="s">
-        <v>479</v>
+      <c r="A41" s="11" t="s">
+        <v>539</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>395</v>
+        <v>540</v>
+      </c>
+      <c r="C41" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17.25">
       <c r="A42" s="9" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43" t="s">
-        <v>124</v>
+        <v>504</v>
+      </c>
+      <c r="C42" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.25">
+      <c r="A43" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>504</v>
       </c>
       <c r="C43" t="s">
-        <v>395</v>
+        <v>512</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="13" t="s">
-        <v>128</v>
+      <c r="A44" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17.25">
-      <c r="A45" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" t="s">
-        <v>124</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.25">
+      <c r="A46" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17.25">
-      <c r="A47" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17.25">
-      <c r="A48" s="11" t="s">
-        <v>564</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>395</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" t="s">
-        <v>5</v>
+      <c r="A49" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17.25">
+      <c r="A50" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25">
-      <c r="A51" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C51" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B52" t="s">
-        <v>213</v>
+      <c r="A51" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17.25">
+      <c r="A52" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="17.25">
-      <c r="A53" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>213</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
       </c>
       <c r="C53" t="s">
-        <v>378</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="12" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="C54" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="12" t="s">
-        <v>167</v>
+      <c r="A55" s="13" t="s">
+        <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C55" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="12" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" t="s">
-        <v>164</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17.25">
+      <c r="A57" s="11" t="s">
+        <v>576</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="C57" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="12" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B59" t="s">
-        <v>164</v>
+      <c r="A59" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="17.25">
-      <c r="A60" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>85</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" t="s">
+        <v>199</v>
       </c>
       <c r="C60" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B61" t="s">
-        <v>85</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17.25">
+      <c r="A61" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="C61" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="12" t="s">
-        <v>170</v>
+      <c r="A62" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>62</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17.25">
+      <c r="A63" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>62</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17.25">
+      <c r="A64" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="17.25">
-      <c r="A65" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>62</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="M65" t="s">
         <v>95</v>
@@ -3247,568 +3250,568 @@
     </row>
     <row r="66" spans="1:13" ht="17.25">
       <c r="A66" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>316</v>
+        <v>554</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C66" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="17.25">
+      <c r="A67" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>59</v>
+      <c r="A68" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68" t="s">
+        <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>59</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="17.25">
+      <c r="A69" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C69" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="B70" t="s">
-        <v>226</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="17.25">
+      <c r="A70" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C70" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B71" t="s">
-        <v>87</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="17.25">
+      <c r="A71" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C71" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="B72" t="s">
-        <v>228</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="17.25">
+      <c r="A72" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C72" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>69</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="17.25">
+      <c r="A73" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="17.25">
       <c r="A74" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>310</v>
+        <v>558</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>121</v>
       </c>
       <c r="C74" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="17.25">
-      <c r="A75" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>308</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" t="s">
+        <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="17.25">
       <c r="A76" s="9" t="s">
-        <v>317</v>
+        <v>448</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>318</v>
+        <v>449</v>
       </c>
       <c r="C76" t="s">
-        <v>400</v>
+        <v>465</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="17.25">
       <c r="A77" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>313</v>
+        <v>456</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>449</v>
       </c>
       <c r="C77" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="17.25">
       <c r="A78" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>313</v>
+        <v>434</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="C78" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="17.25">
-      <c r="A79" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>320</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B79" t="s">
+        <v>211</v>
       </c>
       <c r="C79" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="17.25">
       <c r="A80" s="9" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="C80" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="17.25">
       <c r="A81" s="9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>3</v>
+        <v>211</v>
       </c>
       <c r="C81" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B82" t="s">
-        <v>3</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17.25">
+      <c r="A82" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="17.25">
-      <c r="A83" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>3</v>
+      <c r="A83" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B83" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="C83" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>3</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17.25">
+      <c r="A84" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="C84" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="11" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>3</v>
+      <c r="A86" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="17.25">
-      <c r="A87" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>3</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="17.25">
-      <c r="A88" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>3</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>3</v>
+      <c r="A89" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B90" t="s">
-        <v>3</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="17.25">
+      <c r="A90" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17.25">
       <c r="A91" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="B91" s="18" t="s">
-        <v>3</v>
+        <v>277</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="12" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17.25">
       <c r="A93" s="9" t="s">
-        <v>488</v>
+        <v>281</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="17.25">
-      <c r="A94" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="B94" s="18" t="s">
-        <v>3</v>
+      <c r="A94" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>3</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="17.25">
+      <c r="A95" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>498</v>
       </c>
       <c r="C95" t="s">
-        <v>366</v>
+        <v>513</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="13" t="s">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>243</v>
       </c>
       <c r="C96" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>3</v>
+      <c r="A97" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B97" t="s">
+        <v>243</v>
       </c>
       <c r="C97" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="17.25">
-      <c r="A98" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="B98" s="18" t="s">
-        <v>3</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B98" t="s">
+        <v>243</v>
       </c>
       <c r="C98" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B99" t="s">
-        <v>3</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="17.25">
+      <c r="A99" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>322</v>
       </c>
       <c r="C99" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>3</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="17.25">
+      <c r="A100" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>322</v>
       </c>
       <c r="C100" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="17.25">
       <c r="A101" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="B101" s="18" t="s">
-        <v>3</v>
+        <v>321</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>322</v>
       </c>
       <c r="C101" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>3</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="17.25">
+      <c r="A102" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>256</v>
       </c>
       <c r="C102" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B103" t="s">
-        <v>3</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="17.25">
+      <c r="A103" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>291</v>
       </c>
       <c r="C103" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="12" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B104" t="s">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="C104" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="17.25">
-      <c r="A105" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="B105" s="18" t="s">
-        <v>3</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C105" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="17.25">
-      <c r="A106" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>3</v>
+        <v>362</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" t="s">
+        <v>169</v>
       </c>
       <c r="C106" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="17.25">
-      <c r="A107" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="B107" s="18" t="s">
-        <v>3</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C107" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="17.25">
       <c r="A108" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>3</v>
+        <v>569</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="17.25">
-      <c r="A109" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="B109" s="18" t="s">
-        <v>3</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="13" t="s">
-        <v>132</v>
+      <c r="A110" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="C110" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>3</v>
+      <c r="A111" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" t="s">
+        <v>87</v>
       </c>
       <c r="C111" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="17.25">
       <c r="A112" s="9" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C112" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="12" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C113" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>3</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="17.25">
+      <c r="A114" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="C114" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="17.25">
       <c r="A115" s="9" t="s">
-        <v>486</v>
+        <v>417</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="C115" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>3</v>
+        <v>339</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="17.25">
+      <c r="A116" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="C116" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="17.25">
       <c r="A117" s="9" t="s">
-        <v>274</v>
+        <v>484</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>3</v>
@@ -3819,7 +3822,7 @@
     </row>
     <row r="118" spans="1:3" ht="17.25">
       <c r="A118" s="9" t="s">
-        <v>269</v>
+        <v>441</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>3</v>
@@ -3830,7 +3833,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="12" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
@@ -3839,22 +3842,22 @@
         <v>366</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" ht="17.25">
       <c r="A120" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B120" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C120" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="17.25">
-      <c r="A121" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="B121" s="18" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C121" t="s">
@@ -3862,10 +3865,10 @@
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B122" t="s">
+      <c r="A122" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C122" t="s">
@@ -3873,10 +3876,10 @@
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="B123" t="s">
+      <c r="A123" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C123" t="s">
@@ -3884,21 +3887,21 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="17.25">
-      <c r="A124" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="B124" s="9" t="s">
+      <c r="A124" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B124" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C124" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B125" s="3" t="s">
+    <row r="125" spans="1:3" ht="17.25">
+      <c r="A125" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B125" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C125" t="s">
@@ -3907,7 +3910,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>3</v>
@@ -3916,11 +3919,11 @@
         <v>366</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="17.25">
-      <c r="A127" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="B127" s="18" t="s">
+    <row r="127" spans="1:3">
+      <c r="A127" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" t="s">
         <v>3</v>
       </c>
       <c r="C127" t="s">
@@ -3929,7 +3932,7 @@
     </row>
     <row r="128" spans="1:3" ht="17.25">
       <c r="A128" s="9" t="s">
-        <v>444</v>
+        <v>267</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>3</v>
@@ -3939,54 +3942,54 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B129" s="2" t="s">
+      <c r="A129" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129" t="s">
         <v>3</v>
       </c>
       <c r="C129" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B130" t="s">
+    <row r="130" spans="1:3" ht="17.25">
+      <c r="A130" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B130" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C130" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" ht="17.25">
       <c r="A131" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B131" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B131" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C131" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="17.25">
-      <c r="A132" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="B132" s="18" t="s">
+    <row r="132" spans="1:3">
+      <c r="A132" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C132" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="17.25">
-      <c r="A133" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="B133" s="18" t="s">
+    <row r="133" spans="1:3">
+      <c r="A133" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
         <v>3</v>
       </c>
       <c r="C133" t="s">
@@ -3995,20 +3998,20 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B134" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C134" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B135" s="2" t="s">
+    <row r="135" spans="1:3" ht="17.25">
+      <c r="A135" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="B135" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C135" t="s">
@@ -4016,21 +4019,21 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B136" s="2" t="s">
+      <c r="A136" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B136" t="s">
         <v>3</v>
       </c>
       <c r="C136" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="17.25">
-      <c r="A137" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="B137" s="18" t="s">
+    <row r="137" spans="1:3">
+      <c r="A137" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C137" t="s">
@@ -4038,21 +4041,21 @@
       </c>
     </row>
     <row r="138" spans="1:3" ht="17.25">
-      <c r="A138" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="B138" s="9" t="s">
+      <c r="A138" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B138" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C138" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="17.25">
-      <c r="A139" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B139" s="9" t="s">
+    <row r="139" spans="1:3">
+      <c r="A139" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C139" t="s">
@@ -4060,21 +4063,21 @@
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B140" s="2" t="s">
+      <c r="A140" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B140" t="s">
         <v>3</v>
       </c>
       <c r="C140" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="17.25">
-      <c r="A141" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="B141" s="9" t="s">
+    <row r="141" spans="1:3">
+      <c r="A141" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B141" t="s">
         <v>3</v>
       </c>
       <c r="C141" t="s">
@@ -4083,7 +4086,7 @@
     </row>
     <row r="142" spans="1:3" ht="17.25">
       <c r="A142" s="9" t="s">
-        <v>446</v>
+        <v>268</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>3</v>
@@ -4092,33 +4095,33 @@
         <v>366</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143" t="s">
+    <row r="143" spans="1:3" ht="17.25">
+      <c r="A143" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B143" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C143" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B144" t="s">
+    <row r="144" spans="1:3" ht="17.25">
+      <c r="A144" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B144" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C144" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="17.25">
-      <c r="A145" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B145" s="9" t="s">
+    <row r="145" spans="1:3">
+      <c r="A145" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C145" t="s">
@@ -4127,7 +4130,7 @@
     </row>
     <row r="146" spans="1:3" ht="17.25">
       <c r="A146" s="9" t="s">
-        <v>494</v>
+        <v>443</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>3</v>
@@ -4136,22 +4139,22 @@
         <v>366</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="17.25">
-      <c r="A147" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="B147" s="18" t="s">
+    <row r="147" spans="1:3">
+      <c r="A147" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B147" t="s">
         <v>3</v>
       </c>
       <c r="C147" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="17.25">
-      <c r="A148" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="B148" s="18" t="s">
+    <row r="148" spans="1:3">
+      <c r="A148" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C148" t="s">
@@ -4160,7 +4163,7 @@
     </row>
     <row r="149" spans="1:3" ht="17.25">
       <c r="A149" s="9" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>3</v>
@@ -4169,11 +4172,11 @@
         <v>366</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="17.25">
-      <c r="A150" s="11" t="s">
-        <v>546</v>
-      </c>
-      <c r="B150" s="9" t="s">
+    <row r="150" spans="1:3">
+      <c r="A150" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B150" t="s">
         <v>3</v>
       </c>
       <c r="C150" t="s">
@@ -4181,21 +4184,21 @@
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="A151" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C151" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B152" t="s">
+    <row r="152" spans="1:3" ht="17.25">
+      <c r="A152" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B152" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C152" t="s">
@@ -4204,7 +4207,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>3</v>
@@ -4215,7 +4218,7 @@
     </row>
     <row r="154" spans="1:3" ht="17.25">
       <c r="A154" s="9" t="s">
-        <v>473</v>
+        <v>274</v>
       </c>
       <c r="B154" s="18" t="s">
         <v>3</v>
@@ -4224,11 +4227,11 @@
         <v>366</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B155" t="s">
+    <row r="155" spans="1:3" ht="17.25">
+      <c r="A155" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B155" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C155" t="s">
@@ -4237,7 +4240,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B156" t="s">
         <v>3</v>
@@ -4248,7 +4251,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="11" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>3</v>
@@ -4259,7 +4262,7 @@
     </row>
     <row r="158" spans="1:3" ht="17.25">
       <c r="A158" s="9" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B158" s="18" t="s">
         <v>3</v>
@@ -4268,33 +4271,33 @@
         <v>366</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="17.25">
-      <c r="A159" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="B159" s="18" t="s">
+    <row r="159" spans="1:3">
+      <c r="A159" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B159" t="s">
         <v>3</v>
       </c>
       <c r="C159" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="17.25">
-      <c r="A160" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="B160" s="18" t="s">
+    <row r="160" spans="1:3">
+      <c r="A160" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B160" t="s">
         <v>3</v>
       </c>
       <c r="C160" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="B161" t="s">
+    <row r="161" spans="1:3" ht="17.25">
+      <c r="A161" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C161" t="s">
@@ -4302,2472 +4305,2483 @@
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B162" t="s">
-        <v>111</v>
+      <c r="A162" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C162" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="17.25">
-      <c r="A163" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>498</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C163" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="B164" t="s">
-        <v>219</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="17.25">
+      <c r="A164" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C164" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="17.25">
       <c r="A165" s="9" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C165" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B166" t="s">
-        <v>87</v>
+      <c r="A166" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C166" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="17.25">
-      <c r="A167" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="B167" s="18" t="s">
-        <v>87</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
       </c>
       <c r="C167" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="17.25">
-      <c r="A168" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="B168" s="18" t="s">
-        <v>87</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C168" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="17.25">
       <c r="A169" s="9" t="s">
-        <v>418</v>
+        <v>493</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C169" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="17.25">
       <c r="A170" s="9" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>370</v>
+        <v>3</v>
+      </c>
+      <c r="C170" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B171" t="s">
-        <v>135</v>
+      <c r="A171" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C171" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="17.25">
-      <c r="A172" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="B172" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="17.25">
-      <c r="A173" s="12" t="s">
-        <v>411</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="17.25">
       <c r="A174" s="9" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>370</v>
+        <v>3</v>
+      </c>
+      <c r="C174" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="17.25">
-      <c r="A175" s="9" t="s">
-        <v>293</v>
+      <c r="A175" s="11" t="s">
+        <v>535</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B176" t="s">
-        <v>89</v>
+        <v>3</v>
+      </c>
+      <c r="C175" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="17.25">
+      <c r="A176" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="17.25">
-      <c r="A177" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="B177" s="18" t="s">
-        <v>89</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="17.25">
-      <c r="A178" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="B178" s="18" t="s">
-        <v>89</v>
+      <c r="A178" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C178" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="17.25">
       <c r="A179" s="9" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="B179" s="18" t="s">
-        <v>422</v>
+        <v>3</v>
       </c>
       <c r="C179" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="17.25">
-      <c r="A180" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="B180" s="18" t="s">
-        <v>206</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
       </c>
       <c r="C180" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="17.25">
-      <c r="A181" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B181" s="18" t="s">
-        <v>206</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B181" t="s">
+        <v>3</v>
       </c>
       <c r="C181" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="17.25">
       <c r="A182" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="B182" s="18" t="s">
-        <v>206</v>
+        <v>271</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C182" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="17.25">
       <c r="A183" s="9" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B183" s="18" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="C183" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="17.25">
       <c r="A184" s="9" t="s">
-        <v>297</v>
+        <v>487</v>
       </c>
       <c r="B184" s="18" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="C184" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B185" t="s">
-        <v>99</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="17.25">
+      <c r="A185" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B185" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C185" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="17.25">
       <c r="A186" s="9" t="s">
-        <v>298</v>
+        <v>472</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="C186" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="17.25">
-      <c r="A187" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B187" s="18" t="s">
-        <v>206</v>
+      <c r="A187" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C187" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188" s="13" t="s">
-        <v>207</v>
+      <c r="A188" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="B188" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="C188" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="17.25">
-      <c r="A189" s="11" t="s">
-        <v>566</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>567</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B189" t="s">
+        <v>3</v>
       </c>
       <c r="C189" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="17.25">
-      <c r="A190" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>301</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C190" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B191" t="s">
-        <v>91</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="17.25">
+      <c r="A191" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C191" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="17.25">
-      <c r="A192" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>91</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B192" t="s">
+        <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>91</v>
+      <c r="A193" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B193" t="s">
+        <v>3</v>
       </c>
       <c r="C193" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="17.25">
-      <c r="A194" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="B194" s="18" t="s">
-        <v>424</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C194" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="17.25">
       <c r="A195" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>424</v>
+        <v>495</v>
+      </c>
+      <c r="B195" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>428</v>
+        <v>366</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="17.25">
       <c r="A196" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>504</v>
+        <v>496</v>
+      </c>
+      <c r="B196" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C196" t="s">
-        <v>512</v>
+        <v>366</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="17.25">
       <c r="A197" s="9" t="s">
-        <v>505</v>
+        <v>447</v>
       </c>
       <c r="B197" s="18" t="s">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="C197" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="17.25">
-      <c r="A198" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>426</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="B198" t="s">
+        <v>3</v>
       </c>
       <c r="C198" t="s">
-        <v>429</v>
+        <v>366</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="17.25">
-      <c r="A199" s="9" t="s">
-        <v>303</v>
+      <c r="A199" s="12" t="s">
+        <v>247</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="C199" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="12" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B200" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="C200" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="12" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B201" t="s">
-        <v>148</v>
+        <v>3</v>
       </c>
       <c r="C201" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="17.25">
-      <c r="A202" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="B202" s="9" t="s">
-        <v>113</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B202" t="s">
+        <v>3</v>
       </c>
       <c r="C202" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="17.25">
-      <c r="A203" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="B203" s="18" t="s">
-        <v>113</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B203" t="s">
+        <v>3</v>
       </c>
       <c r="C203" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="17.25">
-      <c r="A204" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="B204" s="18" t="s">
-        <v>113</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C204" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="12" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="B205" t="s">
-        <v>230</v>
+        <v>3</v>
       </c>
       <c r="C205" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B206" t="s">
-        <v>113</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="17.25">
+      <c r="A206" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B206" s="18" t="s">
+        <v>3</v>
       </c>
       <c r="C206" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B207" t="s">
-        <v>113</v>
+      <c r="A207" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C207" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="17.25">
       <c r="A208" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="B208" s="18" t="s">
-        <v>113</v>
+        <v>309</v>
+      </c>
+      <c r="B208" s="9" t="s">
+        <v>310</v>
       </c>
       <c r="C208" t="s">
-        <v>406</v>
+        <v>367</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="17.25">
       <c r="A209" s="9" t="s">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="C209" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="17.25">
-      <c r="A210" s="9" t="s">
-        <v>232</v>
+      <c r="A210" s="11" t="s">
+        <v>542</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>113</v>
+        <v>197</v>
       </c>
       <c r="C210" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>74</v>
+      <c r="A211" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B211" t="s">
+        <v>197</v>
       </c>
       <c r="C211" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>74</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="17.25">
+      <c r="A212" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B212" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="C212" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="17.25">
       <c r="A213" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="B213" s="9" t="s">
-        <v>24</v>
+        <v>508</v>
+      </c>
+      <c r="B213" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="C213" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="17.25">
       <c r="A214" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>24</v>
+        <v>544</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="C214" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="17.25">
       <c r="A215" s="9" t="s">
-        <v>548</v>
+        <v>509</v>
       </c>
       <c r="B215" s="18" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="C215" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B216" t="s">
-        <v>24</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="17.25">
+      <c r="A216" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B216" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="C216" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>24</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="17.25">
+      <c r="A217" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B217" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="C217" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="17.25">
       <c r="A218" s="9" t="s">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="B218" s="18" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="C218" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="17.25">
       <c r="A219" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>24</v>
+        <v>545</v>
+      </c>
+      <c r="B219" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="C219" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>24</v>
+      <c r="A220" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B220" t="s">
+        <v>174</v>
       </c>
       <c r="C220" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C221" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="17.25">
-      <c r="A222" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>291</v>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="17.25">
+      <c r="A221" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B221" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B222" t="s">
+        <v>135</v>
       </c>
       <c r="C222" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C223" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C224" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" s="12" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="17.25">
+      <c r="A223" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B223" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="17.25">
+      <c r="A224" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B224" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="17.25">
+      <c r="A225" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B225" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="17.25">
+      <c r="A226" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B226" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B227" t="s">
         <v>135</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C227" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B226" t="s">
-        <v>135</v>
-      </c>
-      <c r="C226" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="17.25">
-      <c r="A227" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="B227" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C227" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B228" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C228" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229" s="12" t="s">
-        <v>154</v>
+      <c r="A229" s="13" t="s">
+        <v>141</v>
       </c>
       <c r="B229" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="C229" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="12" t="s">
-        <v>155</v>
+        <v>223</v>
       </c>
       <c r="B230" t="s">
-        <v>153</v>
+        <v>222</v>
       </c>
       <c r="C230" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="B231" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C231" s="20" t="s">
-        <v>526</v>
+      <c r="A231" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B231" t="s">
+        <v>89</v>
+      </c>
+      <c r="C231" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="17.25">
-      <c r="A232" s="11" t="s">
-        <v>529</v>
-      </c>
-      <c r="B232" s="9" t="s">
-        <v>530</v>
+      <c r="A232" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B232" s="18" t="s">
+        <v>89</v>
       </c>
       <c r="C232" t="s">
-        <v>531</v>
+        <v>372</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="17.25">
-      <c r="A233" s="11" t="s">
-        <v>537</v>
-      </c>
-      <c r="B233" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>531</v>
+      <c r="A233" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B233" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C233" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="17.25">
-      <c r="A234" s="11" t="s">
-        <v>568</v>
+      <c r="A234" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="17.25">
-      <c r="A235" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="B235" s="18" t="s">
-        <v>463</v>
+        <v>287</v>
+      </c>
+      <c r="C234" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C235" t="s">
-        <v>466</v>
+        <v>374</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="17.25">
-      <c r="A236" s="11" t="s">
-        <v>569</v>
-      </c>
-      <c r="B236" s="9" t="s">
-        <v>109</v>
+      <c r="A236" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B236" s="18" t="s">
+        <v>422</v>
       </c>
       <c r="C236" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B237" t="s">
-        <v>109</v>
+      <c r="A237" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C237" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B238" t="s">
-        <v>109</v>
-      </c>
-      <c r="C238" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" ht="17.25">
-      <c r="A239" s="11" t="s">
-        <v>570</v>
-      </c>
-      <c r="B239" s="9" t="s">
-        <v>116</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="17.25">
+      <c r="A238" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B239" t="s">
+        <v>104</v>
       </c>
       <c r="C239" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B240" t="s">
-        <v>116</v>
-      </c>
-      <c r="C240" t="s">
-        <v>389</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="17.25">
+      <c r="A240" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B240" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="17.25">
       <c r="A241" s="9" t="s">
-        <v>514</v>
+        <v>328</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="C241" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="B242" t="s">
-        <v>209</v>
-      </c>
-      <c r="C242" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="17.25">
+        <v>104</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="17.25">
+      <c r="A242" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B242" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B243" s="9" t="s">
-        <v>3</v>
+        <v>103</v>
+      </c>
+      <c r="B243" t="s">
+        <v>104</v>
       </c>
       <c r="C243" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B244" t="s">
-        <v>3</v>
-      </c>
-      <c r="C244" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B245" t="s">
-        <v>3</v>
-      </c>
-      <c r="C245" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B246" t="s">
-        <v>3</v>
-      </c>
-      <c r="C246" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B247" t="s">
-        <v>3</v>
-      </c>
-      <c r="C247" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3">
-      <c r="A248" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C248" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B249" t="s">
-        <v>3</v>
-      </c>
-      <c r="C249" t="s">
-        <v>366</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="17.25">
+      <c r="A244" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="B244" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="17.25">
+      <c r="A245" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B245" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="17.25">
+      <c r="A246" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="17.25">
+      <c r="A247" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B247" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="17.25">
+      <c r="A248" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B248" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="17.25">
+      <c r="A249" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B249" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="17.25">
       <c r="A250" s="9" t="s">
-        <v>474</v>
+        <v>333</v>
       </c>
       <c r="B250" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C250" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B251" t="s">
-        <v>194</v>
-      </c>
-      <c r="C251" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" ht="17.25">
-      <c r="A252" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="B252" s="9" t="s">
-        <v>194</v>
+        <v>104</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="17.25">
+      <c r="A251" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="B251" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C252" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B253" t="s">
-        <v>194</v>
+      <c r="A253" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="C253" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>12</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="17.25">
+      <c r="A254" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="C254" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>12</v>
+      <c r="A255" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B255" t="s">
+        <v>213</v>
       </c>
       <c r="C255" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>12</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="17.25">
+      <c r="A256" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B256" s="18" t="s">
+        <v>213</v>
       </c>
       <c r="C256" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="17.25">
       <c r="A257" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>12</v>
+        <v>559</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>560</v>
       </c>
       <c r="C257" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="17.25">
       <c r="A258" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>12</v>
+        <v>566</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>567</v>
       </c>
       <c r="C258" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>12</v>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="17.25">
+      <c r="A259" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B259" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="C259" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>12</v>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="17.25">
+      <c r="A260" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B260" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="C260" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="17.25">
       <c r="A261" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B261" s="9" t="s">
-        <v>322</v>
+        <v>296</v>
+      </c>
+      <c r="B261" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="C261" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="17.25">
       <c r="A262" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B262" s="9" t="s">
-        <v>322</v>
+        <v>502</v>
+      </c>
+      <c r="B262" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="C262" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="17.25">
       <c r="A263" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="B263" s="9" t="s">
-        <v>322</v>
+        <v>297</v>
+      </c>
+      <c r="B263" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="C263" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="17.25">
-      <c r="A264" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="B264" s="9" t="s">
-        <v>256</v>
+      <c r="A264" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="B264" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="C264" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="17.25">
+      <c r="A265" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B265" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C265" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B266" t="s">
+        <v>206</v>
+      </c>
+      <c r="C266" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B267" t="s">
+        <v>99</v>
+      </c>
+      <c r="C267" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B275" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C275" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="17.25">
-      <c r="A266" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="B266" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C266" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" ht="17.25">
-      <c r="A267" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="B267" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C267" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3">
-      <c r="A268" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B268" t="s">
-        <v>197</v>
-      </c>
-      <c r="C268" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" ht="17.25">
-      <c r="A269" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="B269" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C269" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" ht="17.25">
-      <c r="A270" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="B270" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C270" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" ht="17.25">
-      <c r="A271" s="11" t="s">
-        <v>544</v>
-      </c>
-      <c r="B271" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C271" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="17.25">
-      <c r="A272" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="B272" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C272" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="17.25">
-      <c r="A273" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B273" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C273" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="17.25">
-      <c r="A274" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="B274" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C274" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="17.25">
-      <c r="A275" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="B275" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C275" t="s">
-        <v>368</v>
-      </c>
-    </row>
     <row r="276" spans="1:3" ht="17.25">
-      <c r="A276" s="11" t="s">
-        <v>545</v>
-      </c>
-      <c r="B276" s="9" t="s">
-        <v>197</v>
+      <c r="A276" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B276" s="18" t="s">
+        <v>463</v>
       </c>
       <c r="C276" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="17.25">
-      <c r="A277" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B277" s="9" t="s">
-        <v>305</v>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="B277" t="s">
+        <v>201</v>
       </c>
       <c r="C277" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3">
-      <c r="A278" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B278" t="s">
-        <v>139</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="17.25">
+      <c r="A278" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>316</v>
       </c>
       <c r="C278" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3">
-      <c r="A279" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B279" t="s">
-        <v>139</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="17.25">
+      <c r="A279" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C279" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" ht="17.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="B280" s="18" t="s">
-        <v>139</v>
+        <v>45</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C280" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B281" t="s">
-        <v>139</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="17.25">
+      <c r="A281" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C281" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="B282" t="s">
-        <v>139</v>
+      <c r="A282" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C282" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B283" t="s">
-        <v>139</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="17.25">
+      <c r="A283" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C283" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="17.25">
-      <c r="A284" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="B284" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>350</v>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C284" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="17.25">
-      <c r="A285" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="B285" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>350</v>
+      <c r="A285" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C285" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="17.25">
-      <c r="A286" s="11" t="s">
-        <v>538</v>
+      <c r="A286" s="9" t="s">
+        <v>300</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="C286" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3">
-      <c r="A287" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B287" t="s">
-        <v>139</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="17.25">
+      <c r="A287" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="C287" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="B288" t="s">
-        <v>139</v>
+      <c r="A288" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C288" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3">
-      <c r="A289" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B289" t="s">
-        <v>139</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="17.25">
+      <c r="A289" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="B289" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="C289" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290" s="12" t="s">
-        <v>184</v>
+      <c r="A290" s="13" t="s">
+        <v>208</v>
       </c>
       <c r="B290" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="C290" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" ht="17.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="B291" s="18" t="s">
-        <v>139</v>
+        <v>21</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C291" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="17.25">
       <c r="A292" s="9" t="s">
-        <v>434</v>
+        <v>549</v>
       </c>
       <c r="B292" s="18" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="C292" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B293" t="s">
-        <v>211</v>
+      <c r="A293" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C293" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" ht="17.25">
-      <c r="A294" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="B294" s="18" t="s">
-        <v>211</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C294" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="295" spans="1:3" ht="17.25">
-      <c r="A295" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="B295" s="18" t="s">
-        <v>211</v>
+      <c r="A295" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>572</v>
       </c>
       <c r="C295" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="17.25">
-      <c r="A296" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="B296" s="18" t="s">
-        <v>211</v>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="11" t="s">
+        <v>578</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>572</v>
       </c>
       <c r="C296" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="17.25">
-      <c r="A297" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="B297" s="18" t="s">
-        <v>211</v>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B297" t="s">
+        <v>224</v>
       </c>
       <c r="C297" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="17.25">
-      <c r="A298" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="B298" s="18" t="s">
-        <v>211</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="C298" t="s">
-        <v>356</v>
+        <v>386</v>
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299" s="13" t="s">
-        <v>239</v>
+      <c r="A299" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="B299" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="C299" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300" s="15" t="s">
-        <v>242</v>
+      <c r="A300" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="B300" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="C300" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301" s="15" t="s">
-        <v>241</v>
+      <c r="A301" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="B301" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="C301" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" ht="17.25">
-      <c r="A302" s="11" t="s">
-        <v>539</v>
-      </c>
-      <c r="B302" s="9" t="s">
-        <v>540</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B302" t="s">
+        <v>164</v>
       </c>
       <c r="C302" t="s">
-        <v>541</v>
+        <v>387</v>
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B303" s="8" t="s">
-        <v>230</v>
+      <c r="A303" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B303" t="s">
+        <v>164</v>
       </c>
       <c r="C303" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="17.25">
-      <c r="A304" s="9" t="s">
-        <v>440</v>
+      <c r="A304" s="19" t="s">
+        <v>431</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="C304" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305" s="15" t="s">
-        <v>244</v>
+      <c r="A305" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="B305" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="C305" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C306" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" ht="17.25">
-      <c r="A307" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="B307" s="9" t="s">
-        <v>289</v>
+      <c r="A306" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B306" t="s">
+        <v>153</v>
+      </c>
+      <c r="C306" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B307" t="s">
+        <v>153</v>
       </c>
       <c r="C307" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3">
-      <c r="A308" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B308" t="s">
-        <v>135</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="17.25">
+      <c r="A308" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="B308" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="C308" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="17.25">
-      <c r="A309" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B309" s="9" t="s">
-        <v>287</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B309" t="s">
+        <v>116</v>
       </c>
       <c r="C309" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310" s="16" t="s">
-        <v>75</v>
+      <c r="A310" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C310" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="17.25">
-      <c r="A311" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B311" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C311" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="17.25">
-      <c r="A312" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B312" s="18" t="s">
-        <v>283</v>
+        <v>5</v>
+      </c>
+      <c r="C310" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B311" t="s">
+        <v>5</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C312" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="17.25">
       <c r="A313" s="9" t="s">
-        <v>282</v>
+        <v>514</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>283</v>
+        <v>515</v>
       </c>
       <c r="C313" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" ht="17.25">
-      <c r="A314" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="B314" s="9" t="s">
-        <v>449</v>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B314" t="s">
+        <v>230</v>
       </c>
       <c r="C314" t="s">
-        <v>465</v>
+        <v>391</v>
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B315" t="s">
-        <v>93</v>
+      <c r="A315" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B315" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="C315" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="17.25">
       <c r="A316" s="9" t="s">
-        <v>467</v>
+        <v>440</v>
       </c>
       <c r="B316" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C316" s="6" t="s">
-        <v>398</v>
+        <v>230</v>
+      </c>
+      <c r="C316" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="17.25">
       <c r="A317" s="9" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C317" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" ht="17.25">
-      <c r="A318" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="B318" s="9" t="s">
-        <v>453</v>
+        <v>85</v>
+      </c>
+      <c r="C317" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B318" t="s">
+        <v>85</v>
       </c>
       <c r="C318" t="s">
-        <v>464</v>
+        <v>392</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="17.25">
       <c r="A319" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="B319" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C319" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3">
-      <c r="A320" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>107</v>
+        <v>284</v>
+      </c>
+      <c r="B319" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C319" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="17.25">
+      <c r="A320" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B320" s="18" t="s">
+        <v>424</v>
       </c>
       <c r="C320" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="17.25">
       <c r="A321" s="9" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="C321" s="6" t="s">
-        <v>398</v>
+        <v>424</v>
+      </c>
+      <c r="C321" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="17.25">
       <c r="A322" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="B322" s="18" t="s">
-        <v>449</v>
+        <v>307</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>308</v>
       </c>
       <c r="C322" t="s">
-        <v>465</v>
+        <v>394</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="12" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="B323" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C323" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" ht="17.25">
-      <c r="A324" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="B324" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C324" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3">
-      <c r="A325" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B325" t="s">
-        <v>104</v>
-      </c>
-      <c r="C325" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" ht="17.25">
-      <c r="A326" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="B326" s="9" t="s">
-        <v>517</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B324" t="s">
+        <v>124</v>
+      </c>
+      <c r="C324" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="17.25">
+      <c r="A325" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C325" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B326" t="s">
+        <v>124</v>
       </c>
       <c r="C326" t="s">
-        <v>523</v>
+        <v>395</v>
       </c>
     </row>
     <row r="327" spans="1:3">
-      <c r="A327" s="13" t="s">
-        <v>200</v>
+      <c r="A327" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="B327" t="s">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c r="C327" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" ht="17.25">
-      <c r="A328" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="B328" s="9" t="s">
-        <v>199</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B328" t="s">
+        <v>124</v>
       </c>
       <c r="C328" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
     </row>
     <row r="329" spans="1:3" ht="17.25">
       <c r="A329" s="9" t="s">
-        <v>327</v>
+        <v>478</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C329" s="7" t="s">
-        <v>376</v>
+        <v>124</v>
+      </c>
+      <c r="C329" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="17.25">
-      <c r="A330" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="B330" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C330" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" ht="17.25">
-      <c r="A331" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="B331" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C331" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="A332" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C332" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3">
-      <c r="A333" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C333" t="s">
-        <v>357</v>
+      <c r="A330" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B330" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C330" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B331" t="s">
+        <v>124</v>
+      </c>
+      <c r="C331" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="17.25">
+      <c r="A332" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C332" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="17.25">
+      <c r="A333" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B333" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C333" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="334" spans="1:3">
-      <c r="A334" s="12" t="s">
-        <v>103</v>
+      <c r="A334" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="B334" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C334" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" ht="17.25">
-      <c r="A335" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="B335" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C335" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3">
-      <c r="A336" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="B336" t="s">
-        <v>201</v>
-      </c>
-      <c r="C336" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" ht="17.25">
-      <c r="A337" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="B337" s="9" t="s">
-        <v>572</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B335" t="s">
+        <v>124</v>
+      </c>
+      <c r="C335" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="17.25">
+      <c r="A336" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B336" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C336" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B337" t="s">
+        <v>124</v>
       </c>
       <c r="C337" t="s">
-        <v>573</v>
+        <v>395</v>
       </c>
     </row>
     <row r="338" spans="1:3" ht="17.25">
       <c r="A338" s="9" t="s">
-        <v>330</v>
+        <v>414</v>
       </c>
       <c r="B338" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C338" s="7" t="s">
-        <v>376</v>
+        <v>124</v>
+      </c>
+      <c r="C338" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="339" spans="1:3" ht="17.25">
-      <c r="A339" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="B339" s="9" t="s">
-        <v>104</v>
+      <c r="A339" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B339" s="18" t="s">
+        <v>124</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" ht="17.25">
-      <c r="A340" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B340" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C340" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" ht="17.25">
-      <c r="A341" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="B341" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C341" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" ht="17.25">
-      <c r="A342" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="B342" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C342" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B340" t="s">
+        <v>226</v>
+      </c>
+      <c r="C340" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C341" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C342" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="343" spans="1:3" ht="17.25">
       <c r="A343" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B343" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C343" s="7" t="s">
-        <v>376</v>
+        <v>425</v>
+      </c>
+      <c r="B343" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C343" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="344" spans="1:3" ht="17.25">
       <c r="A344" s="9" t="s">
-        <v>520</v>
+        <v>467</v>
       </c>
       <c r="B344" s="18" t="s">
-        <v>104</v>
+        <v>451</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
     </row>
     <row r="345" spans="1:3" ht="17.25">
       <c r="A345" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="B345" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="C345" t="s">
-        <v>525</v>
+        <v>450</v>
+      </c>
+      <c r="B345" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="C345" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="346" spans="1:3" ht="17.25">
       <c r="A346" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B346" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="C346" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="17.25">
+      <c r="A347" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B347" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C347" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="11" t="s">
+        <v>579</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C348" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C349" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B350" t="s">
+        <v>107</v>
+      </c>
+      <c r="C350" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B351" t="s">
+        <v>228</v>
+      </c>
+      <c r="C351" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="17.25">
+      <c r="A352" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B352" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C352" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="17.25">
+      <c r="A353" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C353" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B354" t="s">
+        <v>171</v>
+      </c>
+      <c r="C354" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="17.25">
+      <c r="A355" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B355" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C355" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B356" t="s">
+        <v>148</v>
+      </c>
+      <c r="C356" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B357" t="s">
+        <v>148</v>
+      </c>
+      <c r="C357" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="17.25">
+      <c r="A358" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B346" s="9" t="s">
+      <c r="B358" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C346" t="s">
+      <c r="C358" t="s">
         <v>402</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="A347" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C347" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" ht="17.25">
-      <c r="A348" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="B348" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C348" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" ht="17.25">
-      <c r="A349" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="B349" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C349" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" ht="17.25">
-      <c r="A350" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="B350" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C350" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" ht="17.25">
-      <c r="A351" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="B351" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C351" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" ht="17.25">
-      <c r="A352" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B352" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C352" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" ht="17.25">
-      <c r="A353" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="B353" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C353" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" ht="17.25">
-      <c r="A354" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="B354" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C354" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" ht="17.25">
-      <c r="A355" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="B355" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C355" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" ht="17.25">
-      <c r="A356" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="B356" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C356" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" ht="17.25">
-      <c r="A357" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="B357" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="C357" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" ht="17.25">
-      <c r="A358" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="B358" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C358" s="21" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C359" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="17.25">
-      <c r="A360" s="17" t="s">
-        <v>264</v>
+      <c r="A360" s="11" t="s">
+        <v>475</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C360" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="17.25">
       <c r="A361" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>39</v>
+        <v>476</v>
+      </c>
+      <c r="B361" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C361" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="A362" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>44</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="17.25">
+      <c r="A362" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B362" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C362" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" ht="17.25">
-      <c r="A363" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="B363" s="9" t="s">
-        <v>39</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B363" t="s">
+        <v>194</v>
       </c>
       <c r="C363" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="A364" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>39</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="17.25">
+      <c r="A364" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B364" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="C364" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" ht="17.25">
-      <c r="A365" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="B365" s="9" t="s">
-        <v>39</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B365" t="s">
+        <v>194</v>
       </c>
       <c r="C365" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="A366" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>39</v>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="17.25">
+      <c r="A366" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B366" s="9" t="s">
+        <v>313</v>
       </c>
       <c r="C366" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
     </row>
     <row r="367" spans="1:3" ht="17.25">
-      <c r="A367" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="B367" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="C367" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" ht="17.25">
-      <c r="A368" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="B368" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="C368" s="6" t="s">
-        <v>346</v>
+      <c r="A367" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B367" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C367" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B368" t="s">
+        <v>118</v>
+      </c>
+      <c r="C368" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="17.25">
       <c r="A369" s="9" t="s">
-        <v>432</v>
+        <v>457</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C369" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
-      <c r="A370" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B370" t="s">
-        <v>233</v>
+        <v>113</v>
+      </c>
+      <c r="C369" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="17.25">
+      <c r="A370" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B370" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="C370" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
-      <c r="A371" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="B371" t="s">
-        <v>233</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="17.25">
+      <c r="A371" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B371" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="C371" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" ht="17.25">
-      <c r="A372" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B372" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C372" s="6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="17.25">
-      <c r="A373" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B373" s="9" t="s">
-        <v>233</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B372" t="s">
+        <v>113</v>
+      </c>
+      <c r="C372" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B373" t="s">
+        <v>113</v>
       </c>
       <c r="C373" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3">
-      <c r="A374" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="B374" t="s">
-        <v>233</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="17.25">
+      <c r="A374" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B374" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="C374" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
-      <c r="A375" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B375" t="s">
-        <v>7</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="17.25">
+      <c r="A375" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B375" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="C375" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
-      <c r="A376" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B376" t="s">
-        <v>7</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="17.25">
+      <c r="A376" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B376" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="C376" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
     </row>
     <row r="377" spans="1:3">
-      <c r="A377" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>7</v>
+      <c r="A377" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B377" t="s">
+        <v>93</v>
       </c>
       <c r="C377" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
-      <c r="A378" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B378" t="s">
-        <v>7</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="17.25">
+      <c r="A378" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B378" s="9" t="s">
+        <v>320</v>
       </c>
       <c r="C378" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" ht="17.25">
-      <c r="A379" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B379" s="9" t="s">
-        <v>7</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B379" t="s">
+        <v>245</v>
       </c>
       <c r="C379" t="s">
-        <v>357</v>
+        <v>409</v>
       </c>
     </row>
     <row r="380" spans="1:3" ht="17.25">
-      <c r="A380" s="9" t="s">
-        <v>277</v>
+      <c r="A380" s="17" t="s">
+        <v>259</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>7</v>
+        <v>249</v>
       </c>
       <c r="C380" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
-      <c r="A381" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B381" t="s">
-        <v>7</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="17.25">
+      <c r="A381" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B381" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="C381" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
     </row>
     <row r="382" spans="1:3" ht="17.25">
-      <c r="A382" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B382" s="18" t="s">
-        <v>7</v>
+      <c r="A382" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B382" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="C382" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="17.25">
-      <c r="A383" s="9" t="s">
-        <v>325</v>
+      <c r="A383" s="17" t="s">
+        <v>252</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>7</v>
+        <v>249</v>
       </c>
       <c r="C383" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
-      <c r="A384" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>572</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="17.25">
+      <c r="A384" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="B384" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="C384" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3">
-      <c r="A385" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>451</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="17.25">
+      <c r="A385" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B385" s="18" t="s">
+        <v>249</v>
       </c>
       <c r="C385" t="s">
-        <v>398</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="17.25">
+      <c r="A386" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="B386" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C386" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C383">
-    <sortCondition ref="A367:A383"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C386">
+    <sortCondition ref="B368:B386"/>
   </sortState>
   <conditionalFormatting sqref="A371:A1048576 A345:A358 A316 A302:A303 A283 A80 A1:A6">
     <cfRule type="duplicateValues" dxfId="29" priority="50"/>
